--- a/CG_SLA.xlsx
+++ b/CG_SLA.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21960" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$253</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="231">
   <si>
     <t>IND</t>
   </si>
@@ -69,12 +69,6 @@
     <t>BETPOP_HF_5_2</t>
   </si>
   <si>
-    <t>ALNINC_HF_09_1</t>
-  </si>
-  <si>
-    <t>ALNINC_HF_09_2</t>
-  </si>
-  <si>
     <t>BETALL_SH_2_1</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>BETPOP_GR_3_2</t>
   </si>
   <si>
-    <t>BETPOP_GR_5</t>
-  </si>
-  <si>
     <t>BETALL_SH_9_1</t>
   </si>
   <si>
@@ -174,12 +165,6 @@
     <t>ALNINC_GR_1_2</t>
   </si>
   <si>
-    <t>ALNINC_SH_06_1</t>
-  </si>
-  <si>
-    <t>ALNINC_SH_06_2</t>
-  </si>
-  <si>
     <t>ALNINC_GR_8B_1</t>
   </si>
   <si>
@@ -237,9 +222,6 @@
     <t>VIBCAS_WM_9B_1</t>
   </si>
   <si>
-    <t>VIBCAS_WM_9B-2</t>
-  </si>
-  <si>
     <t>SPITOM_HF_13_1</t>
   </si>
   <si>
@@ -468,22 +450,271 @@
     <t>BETPAP_GR_9_2</t>
   </si>
   <si>
-    <t>ALNINC_SH_08_1</t>
-  </si>
-  <si>
-    <t>ALNINC_SH_08_2</t>
-  </si>
-  <si>
-    <t>BETALL_SH_05_1</t>
-  </si>
-  <si>
-    <t>BETALL_SH_05_2</t>
-  </si>
-  <si>
     <t>BETALL_SH_4B_1</t>
   </si>
   <si>
     <t>BETALL_SH_4B_2</t>
+  </si>
+  <si>
+    <t>BETALL_SH_4A_1</t>
+  </si>
+  <si>
+    <t>BETALL_SH_4A_2</t>
+  </si>
+  <si>
+    <t>ALNINC_HF_9_2</t>
+  </si>
+  <si>
+    <t>ALNINC_HF_9_1</t>
+  </si>
+  <si>
+    <t>BETPOP_GR_5_1</t>
+  </si>
+  <si>
+    <t>BETPOP_GR_5_2</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_6_1</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_6_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_WM_9B_2</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_8_1</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_8_2</t>
+  </si>
+  <si>
+    <t>BETALL_WM_8_1</t>
+  </si>
+  <si>
+    <t>BETALL_WM_8_2</t>
+  </si>
+  <si>
+    <t>BETPOP_HF_4_1</t>
+  </si>
+  <si>
+    <t>BETPOP_HF_4_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_SH_5_1</t>
+  </si>
+  <si>
+    <t>VIBCAS_SH_5_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_GR_10_1</t>
+  </si>
+  <si>
+    <t>VIBCAS_GR_10_2</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_9A_1</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_9B_1</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_9B_2</t>
+  </si>
+  <si>
+    <t>AROMEL_WM_5_1</t>
+  </si>
+  <si>
+    <t>AROMEL_WM_5_2</t>
+  </si>
+  <si>
+    <t>SPITOM_WM_5E_1</t>
+  </si>
+  <si>
+    <t>SPITOM_WM_5E_2</t>
+  </si>
+  <si>
+    <t>MYRGAL_GR_8D_1</t>
+  </si>
+  <si>
+    <t>MYRGAL_GR_8D_2</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_2B_1</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_2B_2</t>
+  </si>
+  <si>
+    <t>MYRGAL_SH_1B_1</t>
+  </si>
+  <si>
+    <t>MYRGAL_SH_1B_2</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_9A_2</t>
+  </si>
+  <si>
+    <t>AROMEL_WM_2_1</t>
+  </si>
+  <si>
+    <t>AROMEL_WM_2_2</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_1_1</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_1_2</t>
+  </si>
+  <si>
+    <t>SPITOM_WM_5B_1</t>
+  </si>
+  <si>
+    <t>SPITOM_WM_5B_2</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_2A_1</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_2A_2</t>
+  </si>
+  <si>
+    <t>MYRGAL_SH_2A_1</t>
+  </si>
+  <si>
+    <t>MYRGAL_SH_2A_2</t>
+  </si>
+  <si>
+    <t>MYRGAL_GR_8B_1</t>
+  </si>
+  <si>
+    <t>MYRGAL_GR_8B_2</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99_1</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99_2</t>
+  </si>
+  <si>
+    <t>MYRGAL_GR_8A_1</t>
+  </si>
+  <si>
+    <t>MYRGAL_GR_8A_2</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_4_1</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_4_2</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_9_1</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_9_2</t>
+  </si>
+  <si>
+    <t>MYRGAL_SH_1A_1</t>
+  </si>
+  <si>
+    <t>MYRGAL_SH_1A_2</t>
+  </si>
+  <si>
+    <t>SPITOM_WM_5C_1</t>
+  </si>
+  <si>
+    <t>SPITOM_WM_5C_2</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_8_1</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_8_2</t>
+  </si>
+  <si>
+    <t>AROMEL_WM_15_1</t>
+  </si>
+  <si>
+    <t>AROMEL_WM_15_2</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_4A_1</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_4A_2</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_7_1</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_7_2</t>
+  </si>
+  <si>
+    <t>SPIALB_GR_7_1</t>
+  </si>
+  <si>
+    <t>SPIALB_GR_7_2</t>
+  </si>
+  <si>
+    <t>SPIALB_GR_4B_1</t>
+  </si>
+  <si>
+    <t>SPIALB_GR_4B_2</t>
+  </si>
+  <si>
+    <t>MYRGAL_GR_8C_1</t>
+  </si>
+  <si>
+    <t>MYRGAL_GR_8C_2</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_8_1</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_8_2</t>
+  </si>
+  <si>
+    <t>SPITOM_WM_5D_1</t>
+  </si>
+  <si>
+    <t>SPITOM_WM_5D_2</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_1_1</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_1_2</t>
+  </si>
+  <si>
+    <t>MYRGAL_SH_2B_1</t>
+  </si>
+  <si>
+    <t>MYRGAL_SH_2B_2</t>
+  </si>
+  <si>
+    <t>SPITOM_WM_5A_1</t>
+  </si>
+  <si>
+    <t>SPITOM_WM_5A_2</t>
+  </si>
+  <si>
+    <t>SPIALB_GR_12_1</t>
+  </si>
+  <si>
+    <t>SPIALB_GR_12_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_GR_9_1</t>
+  </si>
+  <si>
+    <t>VIBCAS_GR_9_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_SH_1_1</t>
+  </si>
+  <si>
+    <t>VIBCAS_SH_1_2</t>
   </si>
 </sst>
 </file>
@@ -888,13 +1119,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -913,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1">
@@ -1006,7 +1243,7 @@
     </row>
     <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1017,7 +1254,7 @@
     </row>
     <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1028,7 +1265,7 @@
     </row>
     <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1039,7 +1276,7 @@
     </row>
     <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1050,7 +1287,7 @@
     </row>
     <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -1061,7 +1298,7 @@
     </row>
     <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1072,7 +1309,7 @@
     </row>
     <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1083,7 +1320,7 @@
     </row>
     <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1094,7 +1331,7 @@
     </row>
     <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1105,7 +1342,7 @@
     </row>
     <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -1116,7 +1353,7 @@
     </row>
     <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1127,7 +1364,7 @@
     </row>
     <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -1138,7 +1375,7 @@
     </row>
     <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -1149,7 +1386,7 @@
     </row>
     <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -1160,7 +1397,7 @@
     </row>
     <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1171,7 +1408,7 @@
     </row>
     <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -1182,7 +1419,7 @@
     </row>
     <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -1193,7 +1430,7 @@
     </row>
     <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -1204,7 +1441,7 @@
     </row>
     <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -1215,7 +1452,7 @@
     </row>
     <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -1226,7 +1463,7 @@
     </row>
     <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -1237,7 +1474,7 @@
     </row>
     <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -1248,7 +1485,7 @@
     </row>
     <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -1257,12 +1494,12 @@
         <v>0.88519999999999999</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -1271,12 +1508,12 @@
         <v>0.85199999999999998</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -1285,12 +1522,12 @@
         <v>0.48349999999999999</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -1299,12 +1536,12 @@
         <v>0.81369999999999998</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -1315,7 +1552,7 @@
     </row>
     <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -1348,7 +1585,7 @@
     </row>
     <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -1359,7 +1596,7 @@
     </row>
     <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -1370,7 +1607,7 @@
     </row>
     <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -1381,7 +1618,7 @@
     </row>
     <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -1392,7 +1629,7 @@
     </row>
     <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -1403,7 +1640,7 @@
     </row>
     <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1414,7 +1651,7 @@
     </row>
     <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -1425,7 +1662,7 @@
     </row>
     <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -1436,7 +1673,7 @@
     </row>
     <row r="48" spans="1:6" hidden="1">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -1447,7 +1684,7 @@
     </row>
     <row r="49" spans="1:3" hidden="1">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -1458,7 +1695,7 @@
     </row>
     <row r="50" spans="1:3" hidden="1">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -1469,7 +1706,7 @@
     </row>
     <row r="51" spans="1:3" hidden="1">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -1480,7 +1717,7 @@
     </row>
     <row r="52" spans="1:3" hidden="1">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -1491,7 +1728,7 @@
     </row>
     <row r="53" spans="1:3" hidden="1">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -1502,7 +1739,7 @@
     </row>
     <row r="54" spans="1:3" hidden="1">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -1513,7 +1750,7 @@
     </row>
     <row r="55" spans="1:3" hidden="1">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -1524,7 +1761,7 @@
     </row>
     <row r="56" spans="1:3" hidden="1">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -1535,7 +1772,7 @@
     </row>
     <row r="57" spans="1:3" hidden="1">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -1546,7 +1783,7 @@
     </row>
     <row r="58" spans="1:3" hidden="1">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -1557,7 +1794,7 @@
     </row>
     <row r="59" spans="1:3" hidden="1">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -1568,7 +1805,7 @@
     </row>
     <row r="60" spans="1:3" hidden="1">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -1579,7 +1816,7 @@
     </row>
     <row r="61" spans="1:3" hidden="1">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -1590,7 +1827,7 @@
     </row>
     <row r="62" spans="1:3" hidden="1">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -1601,7 +1838,7 @@
     </row>
     <row r="63" spans="1:3" hidden="1">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -1610,9 +1847,9 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" hidden="1">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -1621,9 +1858,9 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" hidden="1">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -1632,9 +1869,9 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" hidden="1">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -1643,9 +1880,9 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" hidden="1">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -1654,9 +1891,9 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" hidden="1">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -1665,9 +1902,9 @@
         <v>5.8900000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" hidden="1">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -1676,9 +1913,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" hidden="1">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -1687,9 +1924,9 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" hidden="1">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -1698,9 +1935,9 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" hidden="1">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -1709,9 +1946,9 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" hidden="1">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -1720,9 +1957,9 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" hidden="1">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -1731,9 +1968,9 @@
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" hidden="1">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -1742,9 +1979,9 @@
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" hidden="1">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -1753,9 +1990,9 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" hidden="1">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B77">
         <v>8</v>
@@ -1764,9 +2001,9 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" hidden="1">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -1775,9 +2012,9 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" hidden="1">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B79">
         <v>8</v>
@@ -1786,9 +2023,9 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" hidden="1">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -1797,9 +2034,9 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" hidden="1">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -1808,9 +2045,9 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" hidden="1">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -1819,9 +2056,9 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" hidden="1">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -1830,9 +2067,9 @@
         <v>6.4600000000000005E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" hidden="1">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -1841,9 +2078,9 @@
         <v>6.9699999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" hidden="1">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -1852,9 +2089,9 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" hidden="1">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>8</v>
@@ -1863,9 +2100,9 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" hidden="1">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -1874,9 +2111,9 @@
         <v>6.8199999999999997E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" hidden="1">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -1885,9 +2122,9 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" hidden="1">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -1896,9 +2133,9 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B90">
         <v>8</v>
@@ -1907,9 +2144,9 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" hidden="1">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -1918,9 +2155,9 @@
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <v>8</v>
@@ -1929,9 +2166,9 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B93">
         <v>8</v>
@@ -1940,9 +2177,9 @@
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" hidden="1">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B94">
         <v>8</v>
@@ -1951,9 +2188,9 @@
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" hidden="1">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B95">
         <v>8</v>
@@ -1962,9 +2199,9 @@
         <v>6.8699999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -1973,9 +2210,9 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>8</v>
@@ -1984,9 +2221,9 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B98">
         <v>8</v>
@@ -1995,9 +2232,9 @@
         <v>6.54E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B99">
         <v>8</v>
@@ -2006,9 +2243,9 @@
         <v>6.93E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -2017,9 +2254,9 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -2028,9 +2265,9 @@
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -2039,9 +2276,9 @@
         <v>6.4699999999999994E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" hidden="1">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -2050,9 +2287,9 @@
         <v>7.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" hidden="1">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -2061,9 +2298,9 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -2072,9 +2309,9 @@
         <v>3.6200000000000003E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -2083,9 +2320,9 @@
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -2094,9 +2331,9 @@
         <v>5.5300000000000002E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B108">
         <v>8</v>
@@ -2105,9 +2342,9 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -2116,9 +2353,9 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>8</v>
@@ -2127,9 +2364,9 @@
         <v>9.7600000000000006E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B111">
         <v>8</v>
@@ -2138,9 +2375,9 @@
         <v>6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B112">
         <v>8</v>
@@ -2149,9 +2386,9 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B113">
         <v>8</v>
@@ -2160,9 +2397,9 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -2171,9 +2408,9 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" hidden="1">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -2182,9 +2419,9 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -2193,9 +2430,9 @@
         <v>0.18260000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B117">
         <v>8</v>
@@ -2204,9 +2441,9 @@
         <v>0.19620000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -2215,9 +2452,9 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B119">
         <v>8</v>
@@ -2226,9 +2463,9 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B120">
         <v>8</v>
@@ -2237,9 +2474,9 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B121">
         <v>8</v>
@@ -2248,9 +2485,9 @@
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B122">
         <v>8</v>
@@ -2259,9 +2496,9 @@
         <v>8.0799999999999997E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B123">
         <v>8</v>
@@ -2270,9 +2507,9 @@
         <v>9.5699999999999993E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B124">
         <v>8</v>
@@ -2281,9 +2518,9 @@
         <v>5.4699999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B125">
         <v>8</v>
@@ -2292,9 +2529,9 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B126">
         <v>8</v>
@@ -2303,9 +2540,9 @@
         <v>0.1075</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B127">
         <v>8</v>
@@ -2314,9 +2551,9 @@
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -2325,9 +2562,9 @@
         <v>6.9940000000000002E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" hidden="1">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -2336,9 +2573,9 @@
         <v>8.4570000000000006E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" hidden="1">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B130">
         <v>8</v>
@@ -2347,9 +2584,9 @@
         <v>0.52029999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" hidden="1">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B131">
         <v>8</v>
@@ -2358,9 +2595,9 @@
         <v>0.62329999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" hidden="1">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B132">
         <v>8</v>
@@ -2369,9 +2606,9 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" hidden="1">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B133">
         <v>8</v>
@@ -2380,9 +2617,9 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" hidden="1">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B134">
         <v>8</v>
@@ -2391,9 +2628,9 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" hidden="1">
       <c r="A135" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B135">
         <v>8</v>
@@ -2402,9 +2639,9 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" hidden="1">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B136">
         <v>8</v>
@@ -2413,9 +2650,9 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" hidden="1">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B137">
         <v>8</v>
@@ -2424,9 +2661,9 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" hidden="1">
       <c r="A138" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B138">
         <v>8</v>
@@ -2435,9 +2672,9 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" hidden="1">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B139">
         <v>8</v>
@@ -2446,9 +2683,9 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" hidden="1">
       <c r="A140" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B140">
         <v>8</v>
@@ -2457,9 +2694,9 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" hidden="1">
       <c r="A141" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B141">
         <v>8</v>
@@ -2468,9 +2705,9 @@
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" hidden="1">
       <c r="A142" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B142">
         <v>8</v>
@@ -2479,9 +2716,9 @@
         <v>0.61560000000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" hidden="1">
       <c r="A143" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -2490,9 +2727,9 @@
         <v>0.5121</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" hidden="1">
       <c r="A144" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B144">
         <v>8</v>
@@ -2501,9 +2738,9 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" hidden="1">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B145">
         <v>8</v>
@@ -2514,7 +2751,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B146">
         <v>9</v>
@@ -2525,7 +2762,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B147">
         <v>9</v>
@@ -2558,7 +2795,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B150">
         <v>9</v>
@@ -2569,7 +2806,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B151">
         <v>9</v>
@@ -2580,7 +2817,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="B152">
         <v>9</v>
@@ -2591,7 +2828,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="B153">
         <v>9</v>
@@ -2602,7 +2839,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>9</v>
@@ -2613,7 +2850,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>9</v>
@@ -2624,7 +2861,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="B156">
         <v>9</v>
@@ -2635,7 +2872,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="B157">
         <v>9</v>
@@ -2646,7 +2883,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B158">
         <v>9</v>
@@ -2657,7 +2894,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B159">
         <v>9</v>
@@ -2666,11 +2903,1045 @@
         <v>0.189</v>
       </c>
     </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>144</v>
+      </c>
+      <c r="B160">
+        <v>9</v>
+      </c>
+      <c r="C160">
+        <v>0.31619999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>145</v>
+      </c>
+      <c r="B161">
+        <v>9</v>
+      </c>
+      <c r="C161">
+        <v>0.32763999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>147</v>
+      </c>
+      <c r="B162">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <v>0.45304</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163">
+        <v>9</v>
+      </c>
+      <c r="C163">
+        <v>0.48233999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>0.21459</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <v>0.25752999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" hidden="1">
+      <c r="A166" t="s">
+        <v>159</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>0.49186000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" hidden="1">
+      <c r="A167" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>0.92889999999999995</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" hidden="1">
+      <c r="A168" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>0.37663999999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" hidden="1">
+      <c r="A169" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>0.71209999999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" hidden="1">
+      <c r="A170" t="s">
+        <v>164</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" hidden="1">
+      <c r="A171" t="s">
+        <v>165</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>7.6609999999999998E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" hidden="1">
+      <c r="A172" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>0.10367999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" hidden="1">
+      <c r="A173" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>0.15343999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" hidden="1">
+      <c r="A174" t="s">
+        <v>168</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>3.5360000000000003E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" hidden="1">
+      <c r="A175" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>4.2880000000000001E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" hidden="1">
+      <c r="A176" t="s">
+        <v>84</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>7.5230000000000005E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" hidden="1">
+      <c r="A177" t="s">
+        <v>85</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>7.4310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" hidden="1">
+      <c r="A178" t="s">
+        <v>170</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>6.2710000000000002E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" hidden="1">
+      <c r="A179" t="s">
+        <v>171</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>8.43E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" hidden="1">
+      <c r="A180" t="s">
+        <v>172</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>4.7399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1">
+      <c r="A181" t="s">
+        <v>173</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" hidden="1">
+      <c r="A182" t="s">
+        <v>174</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>5.8099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" hidden="1">
+      <c r="A183" t="s">
+        <v>175</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" hidden="1">
+      <c r="A184" t="s">
+        <v>128</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>5.9799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" hidden="1">
+      <c r="A185" t="s">
+        <v>129</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>7.8899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" hidden="1">
+      <c r="A186" t="s">
+        <v>163</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>5.8400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" hidden="1">
+      <c r="A187" t="s">
+        <v>176</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" hidden="1">
+      <c r="A188" t="s">
+        <v>177</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>0.22586999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" hidden="1">
+      <c r="A189" t="s">
+        <v>178</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" hidden="1">
+      <c r="A190" t="s">
+        <v>179</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>8.9149999999999993E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" hidden="1">
+      <c r="A191" t="s">
+        <v>180</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+      <c r="C191">
+        <v>8.3659999999999998E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" hidden="1">
+      <c r="A192" t="s">
+        <v>181</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>7.7130000000000004E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" hidden="1">
+      <c r="A193" t="s">
+        <v>182</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>8.9370000000000005E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" hidden="1">
+      <c r="A194" t="s">
+        <v>183</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>6.3960000000000003E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" hidden="1">
+      <c r="A195" t="s">
+        <v>184</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>8.5180000000000006E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" hidden="1">
+      <c r="A196" t="s">
+        <v>185</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>7.3099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" hidden="1">
+      <c r="A197" t="s">
+        <v>186</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>6.2640000000000001E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" hidden="1">
+      <c r="A198" t="s">
+        <v>187</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>6.4579999999999999E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" hidden="1">
+      <c r="A199" t="s">
+        <v>188</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>6.6769999999999996E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" hidden="1">
+      <c r="A200" t="s">
+        <v>189</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>2.452E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" hidden="1">
+      <c r="A201" t="s">
+        <v>190</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>2.93E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" hidden="1">
+      <c r="A202" t="s">
+        <v>191</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>8.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" hidden="1">
+      <c r="A203" t="s">
+        <v>192</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>8.4599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" hidden="1">
+      <c r="A204" t="s">
+        <v>193</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>2.828E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" hidden="1">
+      <c r="A205" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>5.246E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" hidden="1">
+      <c r="A206" t="s">
+        <v>195</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>3.517E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" hidden="1">
+      <c r="A207" t="s">
+        <v>196</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>5.3830000000000003E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" hidden="1">
+      <c r="A208" t="s">
+        <v>197</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>6.4130000000000006E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" hidden="1">
+      <c r="A209" t="s">
+        <v>198</v>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>6.1170000000000002E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" hidden="1">
+      <c r="A210" t="s">
+        <v>76</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+      <c r="C210">
+        <v>6.0229999999999999E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" hidden="1">
+      <c r="A211" t="s">
+        <v>77</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>6.1469999999999997E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" hidden="1">
+      <c r="A212" t="s">
+        <v>132</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+      <c r="C212">
+        <v>0.41488999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" hidden="1">
+      <c r="A213" t="s">
+        <v>133</v>
+      </c>
+      <c r="B213">
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" hidden="1">
+      <c r="A214" t="s">
+        <v>199</v>
+      </c>
+      <c r="B214">
+        <v>4</v>
+      </c>
+      <c r="C214">
+        <v>5.5590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" hidden="1">
+      <c r="A215" t="s">
+        <v>200</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>6.1019999999999998E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" hidden="1">
+      <c r="A216" t="s">
+        <v>201</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+      <c r="C216">
+        <v>6.0499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" hidden="1">
+      <c r="A217" t="s">
+        <v>202</v>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+      <c r="C217">
+        <v>7.2040000000000007E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" hidden="1">
+      <c r="A218" t="s">
+        <v>98</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+      <c r="C218">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" hidden="1">
+      <c r="A219" t="s">
+        <v>99</v>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>0.79190000000000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" hidden="1">
+      <c r="A220" t="s">
+        <v>203</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>0.13757</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" hidden="1">
+      <c r="A221" t="s">
+        <v>204</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>0.13672999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" hidden="1">
+      <c r="A222" t="s">
+        <v>205</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>6.5030000000000004E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" hidden="1">
+      <c r="A223" t="s">
+        <v>206</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+      <c r="C223">
+        <v>7.7950000000000005E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" hidden="1">
+      <c r="A224" t="s">
+        <v>207</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+      <c r="C224">
+        <v>8.6669999999999997E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" hidden="1">
+      <c r="A225" t="s">
+        <v>208</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>9.5200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" hidden="1">
+      <c r="A226" t="s">
+        <v>116</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226">
+        <v>3.2530000000000003E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" hidden="1">
+      <c r="A227" t="s">
+        <v>117</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227">
+        <v>5.0250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" hidden="1">
+      <c r="A228" t="s">
+        <v>209</v>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+      <c r="C228">
+        <v>6.4630000000000007E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" hidden="1">
+      <c r="A229" t="s">
+        <v>210</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>9.9790000000000004E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" hidden="1">
+      <c r="A230" t="s">
+        <v>211</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+      <c r="C230">
+        <v>4.4339999999999997E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" hidden="1">
+      <c r="A231" t="s">
+        <v>212</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>4.598E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" hidden="1">
+      <c r="A232" t="s">
+        <v>70</v>
+      </c>
+      <c r="B232">
+        <v>4</v>
+      </c>
+      <c r="C232">
+        <v>0.56067</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" hidden="1">
+      <c r="A233" t="s">
+        <v>71</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+      <c r="C233">
+        <v>0.78349999999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" hidden="1">
+      <c r="A234" t="s">
+        <v>100</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>0.10165</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" hidden="1">
+      <c r="A235" t="s">
+        <v>101</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>9.5829999999999999E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" hidden="1">
+      <c r="A236" t="s">
+        <v>213</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <v>5.457E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" hidden="1">
+      <c r="A237" t="s">
+        <v>214</v>
+      </c>
+      <c r="B237">
+        <v>4</v>
+      </c>
+      <c r="C237">
+        <v>9.4490000000000005E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" hidden="1">
+      <c r="A238" t="s">
+        <v>215</v>
+      </c>
+      <c r="B238">
+        <v>4</v>
+      </c>
+      <c r="C238">
+        <v>8.4070000000000006E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" hidden="1">
+      <c r="A239" t="s">
+        <v>216</v>
+      </c>
+      <c r="B239">
+        <v>4</v>
+      </c>
+      <c r="C239">
+        <v>0.10272000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" hidden="1">
+      <c r="A240" t="s">
+        <v>217</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>1.8360000000000001E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" hidden="1">
+      <c r="A241" t="s">
+        <v>218</v>
+      </c>
+      <c r="B241">
+        <v>4</v>
+      </c>
+      <c r="C241">
+        <v>3.2649999999999998E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" hidden="1">
+      <c r="A242" t="s">
+        <v>219</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+      <c r="C242">
+        <v>7.8289999999999998E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" hidden="1">
+      <c r="A243" t="s">
+        <v>220</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
+      </c>
+      <c r="C243">
+        <v>7.4079999999999993E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" hidden="1">
+      <c r="A244" t="s">
+        <v>221</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>3.2980000000000002E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" hidden="1">
+      <c r="A245" t="s">
+        <v>222</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>3.7440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" hidden="1">
+      <c r="A246" t="s">
+        <v>223</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
+      <c r="C246">
+        <v>0.11504</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" hidden="1">
+      <c r="A247" t="s">
+        <v>224</v>
+      </c>
+      <c r="B247">
+        <v>4</v>
+      </c>
+      <c r="C247">
+        <v>0.19739999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" hidden="1">
+      <c r="A248" t="s">
+        <v>225</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>3.1620000000000002E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" hidden="1">
+      <c r="A249" t="s">
+        <v>226</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249">
+        <v>6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" hidden="1">
+      <c r="A250" t="s">
+        <v>227</v>
+      </c>
+      <c r="B250">
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" hidden="1">
+      <c r="A251" t="s">
+        <v>228</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" hidden="1">
+      <c r="A252" t="s">
+        <v>229</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" hidden="1">
+      <c r="A253" t="s">
+        <v>230</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>0.77354999999999996</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F145">
+  <autoFilter ref="A1:F253">
     <filterColumn colId="1">
       <filters>
-        <filter val="8"/>
+        <filter val="9"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/CG_SLA.xlsx
+++ b/CG_SLA.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21960" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21960" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$287</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="253">
   <si>
     <t>IND</t>
   </si>
@@ -715,6 +715,72 @@
   </si>
   <si>
     <t>VIBCAS_SH_1_2</t>
+  </si>
+  <si>
+    <t>BETALL_SH_4_1</t>
+  </si>
+  <si>
+    <t>BETALL_SH_4_2</t>
+  </si>
+  <si>
+    <t>ALNINC_GR_11B_1</t>
+  </si>
+  <si>
+    <t>ALNINC_GR_11B_2</t>
+  </si>
+  <si>
+    <t>BETPOP_GR_5B_1</t>
+  </si>
+  <si>
+    <t>BETPOP_GR_5B_2</t>
+  </si>
+  <si>
+    <t>ALNINC_GR_8_1</t>
+  </si>
+  <si>
+    <t>ALNINC_GR_8_2</t>
+  </si>
+  <si>
+    <t>BETPOP_HF_1_1</t>
+  </si>
+  <si>
+    <t>BETPOP_HF_1_2</t>
+  </si>
+  <si>
+    <t>ALNINC_GR_11A_1</t>
+  </si>
+  <si>
+    <t>ALNINC_GR_11A_2</t>
+  </si>
+  <si>
+    <t>BETALL_GR_9_1</t>
+  </si>
+  <si>
+    <t>BETALL_GR_9_2</t>
+  </si>
+  <si>
+    <t>BETPOP_GR_5A_1</t>
+  </si>
+  <si>
+    <t>BETPOP_GR_5A_2</t>
+  </si>
+  <si>
+    <t>BETALL_GR_12_1</t>
+  </si>
+  <si>
+    <t>BETALL_GR_12_2</t>
+  </si>
+  <si>
+    <t>BETALL_GR_1_1</t>
+  </si>
+  <si>
+    <t>BETALL_GR_1_2</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_5_1</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_5_2</t>
   </si>
 </sst>
 </file>
@@ -1118,14 +1184,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B270" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A164" sqref="A164"/>
+      <selection pane="bottomRight" activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1153,7 +1218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1229,7 @@
         <v>0.38679999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1240,7 @@
         <v>0.32601999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1251,7 @@
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1197,7 +1262,7 @@
         <v>0.26169999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +1273,7 @@
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1219,7 +1284,7 @@
         <v>7.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1230,7 +1295,7 @@
         <v>0.36170000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1306,7 @@
         <v>0.48370000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -1252,7 +1317,7 @@
         <v>0.63829999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -1263,7 +1328,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1274,7 +1339,7 @@
         <v>0.70479999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1350,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1296,7 +1361,7 @@
         <v>0.51749999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1307,7 +1372,7 @@
         <v>0.3402</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1318,7 +1383,7 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1394,7 @@
         <v>0.75890000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1340,7 +1405,7 @@
         <v>0.26379999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1351,7 +1416,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1427,7 @@
         <v>0.34010000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1373,7 +1438,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1449,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1395,7 +1460,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1471,7 @@
         <v>0.21690000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1417,7 +1482,7 @@
         <v>0.43340000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1428,7 +1493,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1439,7 +1504,7 @@
         <v>0.43469999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -1450,7 +1515,7 @@
         <v>0.38879999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -1461,7 +1526,7 @@
         <v>0.36480000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1537,7 @@
         <v>0.51639999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1548,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1497,7 +1562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1511,7 +1576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1525,7 +1590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1539,7 +1604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1550,7 +1615,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1561,7 +1626,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1637,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1583,7 +1648,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1594,7 +1659,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1605,7 +1670,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1616,7 +1681,7 @@
         <v>0.17610000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1692,7 @@
         <v>0.1447</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1638,7 +1703,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1649,7 +1714,7 @@
         <v>0.38812999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1660,7 +1725,7 @@
         <v>0.73070000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1671,7 +1736,7 @@
         <v>0.99580000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -1682,7 +1747,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -1693,7 +1758,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1704,7 +1769,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1715,7 +1780,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1726,7 +1791,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1737,7 +1802,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -1748,7 +1813,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -1759,7 +1824,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1770,7 +1835,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -1781,7 +1846,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1792,7 +1857,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1803,7 +1868,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1814,7 +1879,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -1825,7 +1890,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -1836,7 +1901,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -1847,7 +1912,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -1858,7 +1923,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -1869,7 +1934,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -1880,7 +1945,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -1891,7 +1956,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -1902,7 +1967,7 @@
         <v>5.8900000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -1913,7 +1978,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -1924,7 +1989,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -1935,7 +2000,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -1946,7 +2011,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -1957,7 +2022,7 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -1968,7 +2033,7 @@
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -1979,7 +2044,7 @@
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -1990,7 +2055,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2001,7 +2066,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2012,7 +2077,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2023,7 +2088,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -2034,7 +2099,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2045,7 +2110,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2056,7 +2121,7 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2067,7 +2132,7 @@
         <v>6.4600000000000005E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -2078,7 +2143,7 @@
         <v>6.9699999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2089,7 +2154,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2100,7 +2165,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2111,7 +2176,7 @@
         <v>6.8199999999999997E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -2122,7 +2187,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -2133,7 +2198,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -2144,7 +2209,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -2155,7 +2220,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -2166,7 +2231,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -2177,7 +2242,7 @@
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -2188,7 +2253,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -2199,7 +2264,7 @@
         <v>6.8699999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2210,7 +2275,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2221,7 +2286,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>88</v>
       </c>
@@ -2232,7 +2297,7 @@
         <v>6.54E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -2243,7 +2308,7 @@
         <v>6.93E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -2254,7 +2319,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -2265,7 +2330,7 @@
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -2276,7 +2341,7 @@
         <v>6.4699999999999994E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -2287,7 +2352,7 @@
         <v>7.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -2298,7 +2363,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -2309,7 +2374,7 @@
         <v>3.6200000000000003E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>82</v>
       </c>
@@ -2320,7 +2385,7 @@
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -2331,7 +2396,7 @@
         <v>5.5300000000000002E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -2342,7 +2407,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -2353,7 +2418,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -2364,7 +2429,7 @@
         <v>9.7600000000000006E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -2375,7 +2440,7 @@
         <v>6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -2386,7 +2451,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -2397,7 +2462,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -2408,7 +2473,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -2419,7 +2484,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -2430,7 +2495,7 @@
         <v>0.18260000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -2441,7 +2506,7 @@
         <v>0.19620000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -2452,7 +2517,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -2463,7 +2528,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -2474,7 +2539,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -2485,7 +2550,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -2496,7 +2561,7 @@
         <v>8.0799999999999997E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>113</v>
       </c>
@@ -2507,7 +2572,7 @@
         <v>9.5699999999999993E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -2518,7 +2583,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -2529,7 +2594,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -2540,7 +2605,7 @@
         <v>0.1075</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -2551,7 +2616,7 @@
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -2562,7 +2627,7 @@
         <v>6.9940000000000002E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -2573,7 +2638,7 @@
         <v>8.4570000000000006E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -2584,7 +2649,7 @@
         <v>0.52029999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -2595,7 +2660,7 @@
         <v>0.62329999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2606,7 +2671,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -2617,7 +2682,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -2628,7 +2693,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -2639,7 +2704,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>124</v>
       </c>
@@ -2650,7 +2715,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>125</v>
       </c>
@@ -2661,7 +2726,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -2672,7 +2737,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -2683,7 +2748,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>128</v>
       </c>
@@ -2694,7 +2759,7 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>129</v>
       </c>
@@ -2705,7 +2770,7 @@
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -2716,7 +2781,7 @@
         <v>0.61560000000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>131</v>
       </c>
@@ -2727,7 +2792,7 @@
         <v>0.5121</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -2738,7 +2803,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>133</v>
       </c>
@@ -2969,7 +3034,7 @@
         <v>0.25752999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -2980,7 +3045,7 @@
         <v>0.49186000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>160</v>
       </c>
@@ -2991,7 +3056,7 @@
         <v>0.92889999999999995</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>161</v>
       </c>
@@ -3002,7 +3067,7 @@
         <v>0.37663999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>162</v>
       </c>
@@ -3013,7 +3078,7 @@
         <v>0.71209999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>164</v>
       </c>
@@ -3024,7 +3089,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -3035,7 +3100,7 @@
         <v>7.6609999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -3046,7 +3111,7 @@
         <v>0.10367999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -3057,7 +3122,7 @@
         <v>0.15343999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -3068,7 +3133,7 @@
         <v>3.5360000000000003E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>169</v>
       </c>
@@ -3079,7 +3144,7 @@
         <v>4.2880000000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -3090,7 +3155,7 @@
         <v>7.5230000000000005E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -3101,7 +3166,7 @@
         <v>7.4310000000000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>170</v>
       </c>
@@ -3112,7 +3177,7 @@
         <v>6.2710000000000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>171</v>
       </c>
@@ -3123,7 +3188,7 @@
         <v>8.43E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>172</v>
       </c>
@@ -3134,7 +3199,7 @@
         <v>4.7399999999999998E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>173</v>
       </c>
@@ -3145,7 +3210,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>174</v>
       </c>
@@ -3156,7 +3221,7 @@
         <v>5.8099999999999999E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>175</v>
       </c>
@@ -3167,7 +3232,7 @@
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>128</v>
       </c>
@@ -3178,7 +3243,7 @@
         <v>5.9799999999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>129</v>
       </c>
@@ -3189,7 +3254,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>163</v>
       </c>
@@ -3200,7 +3265,7 @@
         <v>5.8400000000000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>176</v>
       </c>
@@ -3211,7 +3276,7 @@
         <v>7.0599999999999996E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>177</v>
       </c>
@@ -3222,7 +3287,7 @@
         <v>0.22586999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>178</v>
       </c>
@@ -3233,7 +3298,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>179</v>
       </c>
@@ -3244,7 +3309,7 @@
         <v>8.9149999999999993E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>180</v>
       </c>
@@ -3255,7 +3320,7 @@
         <v>8.3659999999999998E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>181</v>
       </c>
@@ -3266,7 +3331,7 @@
         <v>7.7130000000000004E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>182</v>
       </c>
@@ -3277,7 +3342,7 @@
         <v>8.9370000000000005E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>183</v>
       </c>
@@ -3288,7 +3353,7 @@
         <v>6.3960000000000003E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -3299,7 +3364,7 @@
         <v>8.5180000000000006E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -3310,7 +3375,7 @@
         <v>7.3099999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>186</v>
       </c>
@@ -3321,7 +3386,7 @@
         <v>6.2640000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -3332,7 +3397,7 @@
         <v>6.4579999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>188</v>
       </c>
@@ -3343,7 +3408,7 @@
         <v>6.6769999999999996E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>189</v>
       </c>
@@ -3354,7 +3419,7 @@
         <v>2.452E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>190</v>
       </c>
@@ -3365,7 +3430,7 @@
         <v>2.93E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>191</v>
       </c>
@@ -3376,7 +3441,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>192</v>
       </c>
@@ -3387,7 +3452,7 @@
         <v>8.4599999999999995E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>193</v>
       </c>
@@ -3398,7 +3463,7 @@
         <v>2.828E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>194</v>
       </c>
@@ -3409,7 +3474,7 @@
         <v>5.246E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>195</v>
       </c>
@@ -3420,7 +3485,7 @@
         <v>3.517E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>196</v>
       </c>
@@ -3431,7 +3496,7 @@
         <v>5.3830000000000003E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>197</v>
       </c>
@@ -3442,7 +3507,7 @@
         <v>6.4130000000000006E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>198</v>
       </c>
@@ -3453,7 +3518,7 @@
         <v>6.1170000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>76</v>
       </c>
@@ -3464,7 +3529,7 @@
         <v>6.0229999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -3475,7 +3540,7 @@
         <v>6.1469999999999997E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>132</v>
       </c>
@@ -3486,7 +3551,7 @@
         <v>0.41488999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>133</v>
       </c>
@@ -3497,7 +3562,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>199</v>
       </c>
@@ -3508,7 +3573,7 @@
         <v>5.5590000000000001E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>200</v>
       </c>
@@ -3519,7 +3584,7 @@
         <v>6.1019999999999998E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>201</v>
       </c>
@@ -3530,7 +3595,7 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>202</v>
       </c>
@@ -3541,7 +3606,7 @@
         <v>7.2040000000000007E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>98</v>
       </c>
@@ -3552,7 +3617,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>99</v>
       </c>
@@ -3563,7 +3628,7 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>203</v>
       </c>
@@ -3574,7 +3639,7 @@
         <v>0.13757</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>204</v>
       </c>
@@ -3585,7 +3650,7 @@
         <v>0.13672999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>205</v>
       </c>
@@ -3596,7 +3661,7 @@
         <v>6.5030000000000004E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>206</v>
       </c>
@@ -3607,7 +3672,7 @@
         <v>7.7950000000000005E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>207</v>
       </c>
@@ -3618,7 +3683,7 @@
         <v>8.6669999999999997E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>208</v>
       </c>
@@ -3629,7 +3694,7 @@
         <v>9.5200000000000007E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -3640,7 +3705,7 @@
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>117</v>
       </c>
@@ -3651,7 +3716,7 @@
         <v>5.0250000000000003E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -3662,7 +3727,7 @@
         <v>6.4630000000000007E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>210</v>
       </c>
@@ -3673,7 +3738,7 @@
         <v>9.9790000000000004E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>211</v>
       </c>
@@ -3684,7 +3749,7 @@
         <v>4.4339999999999997E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>212</v>
       </c>
@@ -3695,7 +3760,7 @@
         <v>4.598E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>70</v>
       </c>
@@ -3706,7 +3771,7 @@
         <v>0.56067</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>71</v>
       </c>
@@ -3717,7 +3782,7 @@
         <v>0.78349999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>100</v>
       </c>
@@ -3728,7 +3793,7 @@
         <v>0.10165</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>101</v>
       </c>
@@ -3739,7 +3804,7 @@
         <v>9.5829999999999999E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -3750,7 +3815,7 @@
         <v>5.457E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>214</v>
       </c>
@@ -3761,7 +3826,7 @@
         <v>9.4490000000000005E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>215</v>
       </c>
@@ -3772,7 +3837,7 @@
         <v>8.4070000000000006E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>216</v>
       </c>
@@ -3783,7 +3848,7 @@
         <v>0.10272000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>217</v>
       </c>
@@ -3794,7 +3859,7 @@
         <v>1.8360000000000001E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>218</v>
       </c>
@@ -3805,7 +3870,7 @@
         <v>3.2649999999999998E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>219</v>
       </c>
@@ -3816,7 +3881,7 @@
         <v>7.8289999999999998E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>220</v>
       </c>
@@ -3827,7 +3892,7 @@
         <v>7.4079999999999993E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>221</v>
       </c>
@@ -3838,7 +3903,7 @@
         <v>3.2980000000000002E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>222</v>
       </c>
@@ -3849,7 +3914,7 @@
         <v>3.7440000000000001E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>223</v>
       </c>
@@ -3860,7 +3925,7 @@
         <v>0.11504</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>224</v>
       </c>
@@ -3871,7 +3936,7 @@
         <v>0.19739999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>225</v>
       </c>
@@ -3882,7 +3947,7 @@
         <v>3.1620000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>226</v>
       </c>
@@ -3893,7 +3958,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>227</v>
       </c>
@@ -3904,7 +3969,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>228</v>
       </c>
@@ -3915,7 +3980,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>229</v>
       </c>
@@ -3926,7 +3991,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>230</v>
       </c>
@@ -3937,14 +4002,382 @@
         <v>0.77354999999999996</v>
       </c>
     </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>231</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>232</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>233</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>234</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>0.6038</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>235</v>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>0.43169999999999997</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>236</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>0.43569999999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>45</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>0.70094000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>46</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>237</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>238</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>1.0084</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>239</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <v>0.27010000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>240</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>0.28236</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <v>0.43636000000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <v>0.42949999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>43</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>0.15989999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>44</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>0.16647000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>241</v>
+      </c>
+      <c r="B270">
+        <v>3</v>
+      </c>
+      <c r="C270">
+        <v>0.6714</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>242</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>51</v>
+      </c>
+      <c r="B272">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>0.17810999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>52</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>0.21096000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="C275">
+        <v>0.79979999999999996</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>243</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>244</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>0.48043999999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>245</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>0.38150000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>246</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>0.43758999999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>247</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>0.36170000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>248</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>0.39190999999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>21</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>0.21812999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>0.27305000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>249</v>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>250</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>0.55620000000000003</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>251</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>0.40629999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>252</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>0.45184000000000002</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F253">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F287"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/CG_SLA.xlsx
+++ b/CG_SLA.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/CGtraits/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21960" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21960" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$327</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="312">
   <si>
     <t>IND</t>
   </si>
@@ -781,6 +789,183 @@
   </si>
   <si>
     <t>ALNINC_SH_5_2</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_5_1</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_5_2</t>
+  </si>
+  <si>
+    <t>BETPAP_GR_5B_1</t>
+  </si>
+  <si>
+    <t>BETPAP_GR_5B_2</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_5B_1</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_5B_2</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_5A_1</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_5A_2</t>
+  </si>
+  <si>
+    <t>BETALL_GR_13_1</t>
+  </si>
+  <si>
+    <t>BETALL_GR_13_2</t>
+  </si>
+  <si>
+    <t>BETPAP_GR_5A_1</t>
+  </si>
+  <si>
+    <t>BETPAP_GR_5A_2</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_4_1</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_1_1</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_1_2</t>
+  </si>
+  <si>
+    <t>BETPAP_GR_5_1</t>
+  </si>
+  <si>
+    <t>BETPAP_GR_5_2</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_2A_1</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_2A_2</t>
+  </si>
+  <si>
+    <t>ALNINC_GR_11_1</t>
+  </si>
+  <si>
+    <t>ALNINC_GR_11_2</t>
+  </si>
+  <si>
+    <t>BETPAP_SH_1A_1</t>
+  </si>
+  <si>
+    <t>BETPAP_SH_1A_2</t>
+  </si>
+  <si>
+    <t>BETPOP_HF_3_1</t>
+  </si>
+  <si>
+    <t>BETPOP_HF_3_2</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_1_1</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_1_2</t>
+  </si>
+  <si>
+    <t>ALNINC_HF_1_1</t>
+  </si>
+  <si>
+    <t>ALNINC_HF_2_2</t>
+  </si>
+  <si>
+    <t>ALNINC_HF_2_1</t>
+  </si>
+  <si>
+    <t>ALNINC_HF_1_2</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_2B_1</t>
+  </si>
+  <si>
+    <t>ALNINC_WM_2B_2</t>
+  </si>
+  <si>
+    <t>BETPAP_SH_1B_1</t>
+  </si>
+  <si>
+    <t>BETPAP_SH_1B_2</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_5_2</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_5_1</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99D_1</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99D_2</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_4C_1</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_4C_2</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99B_1</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99B_2</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99C_1</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99C_2</t>
+  </si>
+  <si>
+    <t>SPITOM_HF_5_1</t>
+  </si>
+  <si>
+    <t>SPITOM_HF_5_2</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_4B_1</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_4B_2</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_4A_1</t>
+  </si>
+  <si>
+    <t>SPIALB_WM_4A_2</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_4A_1</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_4A_2</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_10_1</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_10_2</t>
+  </si>
+  <si>
+    <t>AROMEL_HF_12_1</t>
+  </si>
+  <si>
+    <t>AROMEL_HF_12_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_WM_10_1</t>
+  </si>
+  <si>
+    <t>VIBCAS_WM_10_2</t>
   </si>
 </sst>
 </file>
@@ -793,7 +978,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,6 +1043,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1184,21 +1373,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F287"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B360" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C288" sqref="C288"/>
+      <selection pane="bottomRight" activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1419,7 @@
         <v>0.38679999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1430,7 @@
         <v>0.32601999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1441,7 @@
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1452,7 @@
         <v>0.26169999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1463,7 @@
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1474,7 @@
         <v>7.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1295,7 +1485,7 @@
         <v>0.36170000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1496,7 @@
         <v>0.48370000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -1317,7 +1507,7 @@
         <v>0.63829999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -1328,7 +1518,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1339,7 +1529,7 @@
         <v>0.70479999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1350,7 +1540,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1361,7 +1551,7 @@
         <v>0.51749999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1372,7 +1562,7 @@
         <v>0.3402</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1383,7 +1573,7 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1584,7 @@
         <v>0.75890000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1405,7 +1595,7 @@
         <v>0.26379999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1416,7 +1606,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1427,7 +1617,7 @@
         <v>0.34010000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1628,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1449,7 +1639,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1460,7 +1650,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1661,7 @@
         <v>0.21690000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1482,7 +1672,7 @@
         <v>0.43340000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1683,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1504,7 +1694,7 @@
         <v>0.43469999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -1515,7 +1705,7 @@
         <v>0.38879999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -1526,7 +1716,7 @@
         <v>0.36480000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1537,7 +1727,7 @@
         <v>0.51639999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1548,7 +1738,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1562,7 +1752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1576,7 +1766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1590,7 +1780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1794,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1615,7 +1805,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1626,7 +1816,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +1827,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1838,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1659,7 +1849,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1670,7 +1860,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1681,7 +1871,7 @@
         <v>0.17610000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1692,7 +1882,7 @@
         <v>0.1447</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1703,7 +1893,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1714,7 +1904,7 @@
         <v>0.38812999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1725,7 +1915,7 @@
         <v>0.73070000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1736,7 +1926,7 @@
         <v>0.99580000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -1747,7 +1937,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -1758,7 +1948,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1769,7 +1959,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1780,7 +1970,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1791,7 +1981,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1802,7 +1992,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -1813,7 +2003,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -1824,7 +2014,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1835,7 +2025,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -1846,7 +2036,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1857,7 +2047,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1868,7 +2058,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1879,7 +2069,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -1890,7 +2080,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -1901,7 +2091,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -1912,7 +2102,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -1923,7 +2113,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -1934,7 +2124,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -1945,7 +2135,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -1956,7 +2146,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -1967,7 +2157,7 @@
         <v>5.8900000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -1978,7 +2168,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -1989,7 +2179,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -2000,7 +2190,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -2011,7 +2201,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2022,7 +2212,7 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2033,7 +2223,7 @@
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2044,7 +2234,7 @@
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -2055,7 +2245,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2066,7 +2256,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2077,7 +2267,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2088,7 +2278,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -2099,7 +2289,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2110,7 +2300,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2121,7 +2311,7 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2132,7 +2322,7 @@
         <v>6.4600000000000005E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -2143,7 +2333,7 @@
         <v>6.9699999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2154,7 +2344,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2165,7 +2355,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2176,7 +2366,7 @@
         <v>6.8199999999999997E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -2187,7 +2377,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -2198,7 +2388,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -2209,7 +2399,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -2220,7 +2410,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -2231,7 +2421,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -2242,7 +2432,7 @@
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -2253,7 +2443,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -2264,7 +2454,7 @@
         <v>6.8699999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2275,7 +2465,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2286,7 +2476,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>88</v>
       </c>
@@ -2297,7 +2487,7 @@
         <v>6.54E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -2308,7 +2498,7 @@
         <v>6.93E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -2319,7 +2509,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -2330,7 +2520,7 @@
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -2341,7 +2531,7 @@
         <v>6.4699999999999994E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -2352,7 +2542,7 @@
         <v>7.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -2363,7 +2553,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -2374,7 +2564,7 @@
         <v>3.6200000000000003E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>82</v>
       </c>
@@ -2385,7 +2575,7 @@
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -2396,7 +2586,7 @@
         <v>5.5300000000000002E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -2407,7 +2597,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -2418,7 +2608,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -2429,7 +2619,7 @@
         <v>9.7600000000000006E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -2440,7 +2630,7 @@
         <v>6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -2451,7 +2641,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -2462,7 +2652,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -2473,7 +2663,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -2484,7 +2674,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -2495,7 +2685,7 @@
         <v>0.18260000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -2506,7 +2696,7 @@
         <v>0.19620000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -2517,7 +2707,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -2528,7 +2718,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -2539,7 +2729,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -2550,7 +2740,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -2561,7 +2751,7 @@
         <v>8.0799999999999997E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>113</v>
       </c>
@@ -2572,7 +2762,7 @@
         <v>9.5699999999999993E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -2583,7 +2773,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -2594,7 +2784,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -2605,7 +2795,7 @@
         <v>0.1075</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -2616,7 +2806,7 @@
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -2627,7 +2817,7 @@
         <v>6.9940000000000002E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -2638,7 +2828,7 @@
         <v>8.4570000000000006E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -2649,7 +2839,7 @@
         <v>0.52029999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -2660,7 +2850,7 @@
         <v>0.62329999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2671,7 +2861,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -2682,7 +2872,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -2693,7 +2883,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -2704,7 +2894,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>124</v>
       </c>
@@ -2715,7 +2905,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>125</v>
       </c>
@@ -2726,7 +2916,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -2737,7 +2927,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -2748,7 +2938,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>128</v>
       </c>
@@ -2759,7 +2949,7 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>129</v>
       </c>
@@ -2770,7 +2960,7 @@
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -2781,7 +2971,7 @@
         <v>0.61560000000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>131</v>
       </c>
@@ -2792,7 +2982,7 @@
         <v>0.5121</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -2803,7 +2993,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>133</v>
       </c>
@@ -2814,7 +3004,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -2825,7 +3015,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -2836,7 +3026,7 @@
         <v>0.34849999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -2847,7 +3037,7 @@
         <v>0.29110000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -2858,7 +3048,7 @@
         <v>0.39269999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>140</v>
       </c>
@@ -2869,7 +3059,7 @@
         <v>0.91469999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>141</v>
       </c>
@@ -2880,7 +3070,7 @@
         <v>0.91110000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -2891,7 +3081,7 @@
         <v>0.30409999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -2902,7 +3092,7 @@
         <v>0.3831</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -2913,7 +3103,7 @@
         <v>0.50380000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -2924,7 +3114,7 @@
         <v>0.49509999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -2935,7 +3125,7 @@
         <v>0.62160000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -2946,7 +3136,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>142</v>
       </c>
@@ -2957,7 +3147,7 @@
         <v>0.15559999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>143</v>
       </c>
@@ -2968,7 +3158,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>144</v>
       </c>
@@ -2979,7 +3169,7 @@
         <v>0.31619999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -2990,7 +3180,7 @@
         <v>0.32763999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -3001,7 +3191,7 @@
         <v>0.45304</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>146</v>
       </c>
@@ -3012,7 +3202,7 @@
         <v>0.48233999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>157</v>
       </c>
@@ -3023,7 +3213,7 @@
         <v>0.21459</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>158</v>
       </c>
@@ -3034,7 +3224,7 @@
         <v>0.25752999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -3045,7 +3235,7 @@
         <v>0.49186000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>160</v>
       </c>
@@ -3056,7 +3246,7 @@
         <v>0.92889999999999995</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>161</v>
       </c>
@@ -3067,7 +3257,7 @@
         <v>0.37663999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>162</v>
       </c>
@@ -3078,7 +3268,7 @@
         <v>0.71209999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>164</v>
       </c>
@@ -3089,7 +3279,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -3100,7 +3290,7 @@
         <v>7.6609999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -3111,7 +3301,7 @@
         <v>0.10367999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -3122,7 +3312,7 @@
         <v>0.15343999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -3133,7 +3323,7 @@
         <v>3.5360000000000003E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>169</v>
       </c>
@@ -3144,7 +3334,7 @@
         <v>4.2880000000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -3155,7 +3345,7 @@
         <v>7.5230000000000005E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -3166,7 +3356,7 @@
         <v>7.4310000000000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>170</v>
       </c>
@@ -3177,7 +3367,7 @@
         <v>6.2710000000000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>171</v>
       </c>
@@ -3188,7 +3378,7 @@
         <v>8.43E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>172</v>
       </c>
@@ -3199,7 +3389,7 @@
         <v>4.7399999999999998E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>173</v>
       </c>
@@ -3210,7 +3400,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>174</v>
       </c>
@@ -3221,7 +3411,7 @@
         <v>5.8099999999999999E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>175</v>
       </c>
@@ -3232,7 +3422,7 @@
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>128</v>
       </c>
@@ -3243,7 +3433,7 @@
         <v>5.9799999999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>129</v>
       </c>
@@ -3254,7 +3444,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>163</v>
       </c>
@@ -3265,7 +3455,7 @@
         <v>5.8400000000000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>176</v>
       </c>
@@ -3276,7 +3466,7 @@
         <v>7.0599999999999996E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>177</v>
       </c>
@@ -3287,7 +3477,7 @@
         <v>0.22586999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>178</v>
       </c>
@@ -3298,7 +3488,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>179</v>
       </c>
@@ -3309,7 +3499,7 @@
         <v>8.9149999999999993E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>180</v>
       </c>
@@ -3320,7 +3510,7 @@
         <v>8.3659999999999998E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>181</v>
       </c>
@@ -3331,7 +3521,7 @@
         <v>7.7130000000000004E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>182</v>
       </c>
@@ -3342,7 +3532,7 @@
         <v>8.9370000000000005E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>183</v>
       </c>
@@ -3353,7 +3543,7 @@
         <v>6.3960000000000003E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -3364,7 +3554,7 @@
         <v>8.5180000000000006E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -3375,7 +3565,7 @@
         <v>7.3099999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>186</v>
       </c>
@@ -3386,7 +3576,7 @@
         <v>6.2640000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -3397,7 +3587,7 @@
         <v>6.4579999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>188</v>
       </c>
@@ -3408,7 +3598,7 @@
         <v>6.6769999999999996E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>189</v>
       </c>
@@ -3419,7 +3609,7 @@
         <v>2.452E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>190</v>
       </c>
@@ -3430,7 +3620,7 @@
         <v>2.93E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>191</v>
       </c>
@@ -3441,7 +3631,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>192</v>
       </c>
@@ -3452,7 +3642,7 @@
         <v>8.4599999999999995E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>193</v>
       </c>
@@ -3463,7 +3653,7 @@
         <v>2.828E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>194</v>
       </c>
@@ -3474,7 +3664,7 @@
         <v>5.246E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>195</v>
       </c>
@@ -3485,7 +3675,7 @@
         <v>3.517E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>196</v>
       </c>
@@ -3496,7 +3686,7 @@
         <v>5.3830000000000003E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>197</v>
       </c>
@@ -3507,7 +3697,7 @@
         <v>6.4130000000000006E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>198</v>
       </c>
@@ -3518,7 +3708,7 @@
         <v>6.1170000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>76</v>
       </c>
@@ -3529,7 +3719,7 @@
         <v>6.0229999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -3540,7 +3730,7 @@
         <v>6.1469999999999997E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>132</v>
       </c>
@@ -3551,7 +3741,7 @@
         <v>0.41488999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>133</v>
       </c>
@@ -3562,7 +3752,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>199</v>
       </c>
@@ -3573,7 +3763,7 @@
         <v>5.5590000000000001E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>200</v>
       </c>
@@ -3584,7 +3774,7 @@
         <v>6.1019999999999998E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>201</v>
       </c>
@@ -3595,7 +3785,7 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>202</v>
       </c>
@@ -3606,7 +3796,7 @@
         <v>7.2040000000000007E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>98</v>
       </c>
@@ -3617,7 +3807,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>99</v>
       </c>
@@ -3628,7 +3818,7 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>203</v>
       </c>
@@ -3639,7 +3829,7 @@
         <v>0.13757</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>204</v>
       </c>
@@ -3650,7 +3840,7 @@
         <v>0.13672999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>205</v>
       </c>
@@ -3661,7 +3851,7 @@
         <v>6.5030000000000004E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>206</v>
       </c>
@@ -3672,7 +3862,7 @@
         <v>7.7950000000000005E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>207</v>
       </c>
@@ -3683,7 +3873,7 @@
         <v>8.6669999999999997E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>208</v>
       </c>
@@ -3694,7 +3884,7 @@
         <v>9.5200000000000007E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -3705,7 +3895,7 @@
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>117</v>
       </c>
@@ -3716,7 +3906,7 @@
         <v>5.0250000000000003E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -3727,7 +3917,7 @@
         <v>6.4630000000000007E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>210</v>
       </c>
@@ -3738,7 +3928,7 @@
         <v>9.9790000000000004E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>211</v>
       </c>
@@ -3749,7 +3939,7 @@
         <v>4.4339999999999997E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>212</v>
       </c>
@@ -3760,7 +3950,7 @@
         <v>4.598E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>70</v>
       </c>
@@ -3771,7 +3961,7 @@
         <v>0.56067</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>71</v>
       </c>
@@ -3782,7 +3972,7 @@
         <v>0.78349999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>100</v>
       </c>
@@ -3793,7 +3983,7 @@
         <v>0.10165</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>101</v>
       </c>
@@ -3804,7 +3994,7 @@
         <v>9.5829999999999999E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -3815,7 +4005,7 @@
         <v>5.457E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>214</v>
       </c>
@@ -3826,7 +4016,7 @@
         <v>9.4490000000000005E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>215</v>
       </c>
@@ -3837,7 +4027,7 @@
         <v>8.4070000000000006E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>216</v>
       </c>
@@ -3848,7 +4038,7 @@
         <v>0.10272000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>217</v>
       </c>
@@ -3859,7 +4049,7 @@
         <v>1.8360000000000001E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>218</v>
       </c>
@@ -3870,7 +4060,7 @@
         <v>3.2649999999999998E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>219</v>
       </c>
@@ -3881,7 +4071,7 @@
         <v>7.8289999999999998E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>220</v>
       </c>
@@ -3892,7 +4082,7 @@
         <v>7.4079999999999993E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>221</v>
       </c>
@@ -3903,7 +4093,7 @@
         <v>3.2980000000000002E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>222</v>
       </c>
@@ -3914,7 +4104,7 @@
         <v>3.7440000000000001E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>223</v>
       </c>
@@ -3925,7 +4115,7 @@
         <v>0.11504</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>224</v>
       </c>
@@ -3936,7 +4126,7 @@
         <v>0.19739999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>225</v>
       </c>
@@ -3947,7 +4137,7 @@
         <v>3.1620000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>226</v>
       </c>
@@ -3958,7 +4148,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>227</v>
       </c>
@@ -3969,7 +4159,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>228</v>
       </c>
@@ -3980,7 +4170,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>229</v>
       </c>
@@ -3991,7 +4181,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>230</v>
       </c>
@@ -4002,7 +4192,7 @@
         <v>0.77354999999999996</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>231</v>
       </c>
@@ -4013,7 +4203,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>232</v>
       </c>
@@ -4024,7 +4214,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>233</v>
       </c>
@@ -4035,7 +4225,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>234</v>
       </c>
@@ -4046,7 +4236,7 @@
         <v>0.6038</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>235</v>
       </c>
@@ -4057,7 +4247,7 @@
         <v>0.43169999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>236</v>
       </c>
@@ -4068,7 +4258,7 @@
         <v>0.43569999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>45</v>
       </c>
@@ -4079,7 +4269,7 @@
         <v>0.70094000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>46</v>
       </c>
@@ -4090,7 +4280,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>237</v>
       </c>
@@ -4101,7 +4291,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>238</v>
       </c>
@@ -4112,7 +4302,7 @@
         <v>1.0084</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -4123,7 +4313,7 @@
         <v>0.27010000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>240</v>
       </c>
@@ -4134,7 +4324,7 @@
         <v>0.28236</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -4145,7 +4335,7 @@
         <v>0.43636000000000003</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -4156,7 +4346,7 @@
         <v>0.42949999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>43</v>
       </c>
@@ -4167,7 +4357,7 @@
         <v>0.15989999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>44</v>
       </c>
@@ -4178,7 +4368,7 @@
         <v>0.16647000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>241</v>
       </c>
@@ -4189,7 +4379,7 @@
         <v>0.6714</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>242</v>
       </c>
@@ -4200,7 +4390,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>51</v>
       </c>
@@ -4211,7 +4401,7 @@
         <v>0.17810999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>52</v>
       </c>
@@ -4222,7 +4412,7 @@
         <v>0.21096000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -4233,7 +4423,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -4244,7 +4434,7 @@
         <v>0.79979999999999996</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>243</v>
       </c>
@@ -4255,7 +4445,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>244</v>
       </c>
@@ -4266,7 +4456,7 @@
         <v>0.48043999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>245</v>
       </c>
@@ -4277,7 +4467,7 @@
         <v>0.38150000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>246</v>
       </c>
@@ -4288,7 +4478,7 @@
         <v>0.43758999999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>247</v>
       </c>
@@ -4299,7 +4489,7 @@
         <v>0.36170000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>248</v>
       </c>
@@ -4310,7 +4500,7 @@
         <v>0.39190999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>21</v>
       </c>
@@ -4321,7 +4511,7 @@
         <v>0.21812999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -4332,7 +4522,7 @@
         <v>0.27305000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>249</v>
       </c>
@@ -4343,7 +4533,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>250</v>
       </c>
@@ -4354,7 +4544,7 @@
         <v>0.55620000000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>251</v>
       </c>
@@ -4365,7 +4555,7 @@
         <v>0.40629999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>252</v>
       </c>
@@ -4376,14 +4566,1065 @@
         <v>0.45184000000000002</v>
       </c>
     </row>
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>257</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>258</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>9</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <v>0.14118</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>0.29243000000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>239</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292">
+        <v>0.29933999999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>240</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <v>0.33484999999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>255</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <v>0.1764</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>256</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>39</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>40</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>147</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+      <c r="C298">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>146</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>0.42393999999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>13</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302">
+        <v>0.27007999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303">
+        <v>0.29982999999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>259</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>260</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>261</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>262</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>0.74092999999999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>263</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+      <c r="C310">
+        <v>0.31220999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>264</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <v>0.57650000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>251</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <v>0.54859999999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>252</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313">
+        <v>0.66569999999999996</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>265</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>265</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>266</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>0.72440000000000004</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>267</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>155</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>156</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>0.46626000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>0.27156999999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>0.33933999999999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>268</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>269</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>0.52590000000000003</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>270</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>271</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>0.8669</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>272</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>273</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>274</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>0.72823000000000004</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>275</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>276</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>0.23796999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>277</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>0.31441999999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>253</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>254</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>278</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>0.70540000000000003</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>279</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>282</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>281</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>280</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>0.6694</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>283</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>247</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>0.69359999999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>248</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>284</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>285</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>148</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>0.42670000000000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>149</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>286</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>287</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>1.383</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>261</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>262</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>0.61129999999999995</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>183</v>
+      </c>
+      <c r="B350">
+        <v>11</v>
+      </c>
+      <c r="C350">
+        <v>3.7629999999999997E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>184</v>
+      </c>
+      <c r="B351">
+        <v>11</v>
+      </c>
+      <c r="C351">
+        <v>3.2910000000000002E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>289</v>
+      </c>
+      <c r="B352">
+        <v>11</v>
+      </c>
+      <c r="C352">
+        <v>7.2020000000000001E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>288</v>
+      </c>
+      <c r="B353">
+        <v>11</v>
+      </c>
+      <c r="C353">
+        <v>6.6269999999999996E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>290</v>
+      </c>
+      <c r="B354">
+        <v>11</v>
+      </c>
+      <c r="C354">
+        <v>1.7639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>291</v>
+      </c>
+      <c r="B355">
+        <v>11</v>
+      </c>
+      <c r="C355">
+        <v>4.8939999999999997E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>292</v>
+      </c>
+      <c r="B356">
+        <v>11</v>
+      </c>
+      <c r="C356">
+        <v>6.9269999999999998E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>293</v>
+      </c>
+      <c r="B357">
+        <v>11</v>
+      </c>
+      <c r="C357">
+        <v>8.9249999999999996E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>116</v>
+      </c>
+      <c r="B358">
+        <v>11</v>
+      </c>
+      <c r="C358">
+        <v>4.4830000000000002E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>117</v>
+      </c>
+      <c r="B359">
+        <v>11</v>
+      </c>
+      <c r="C359">
+        <v>4.734E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>294</v>
+      </c>
+      <c r="B360">
+        <v>11</v>
+      </c>
+      <c r="C360">
+        <v>3.5450000000000002E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>295</v>
+      </c>
+      <c r="B361">
+        <v>11</v>
+      </c>
+      <c r="C361">
+        <v>5.0650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>296</v>
+      </c>
+      <c r="B362">
+        <v>11</v>
+      </c>
+      <c r="C362">
+        <v>1.389E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>297</v>
+      </c>
+      <c r="B363">
+        <v>11</v>
+      </c>
+      <c r="C363">
+        <v>5.509E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>298</v>
+      </c>
+      <c r="B364">
+        <v>11</v>
+      </c>
+      <c r="C364">
+        <v>1.6240000000000001E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>299</v>
+      </c>
+      <c r="B365">
+        <v>11</v>
+      </c>
+      <c r="C365">
+        <v>1.882E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>300</v>
+      </c>
+      <c r="B366">
+        <v>11</v>
+      </c>
+      <c r="C366">
+        <v>7.3700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>301</v>
+      </c>
+      <c r="B367">
+        <v>11</v>
+      </c>
+      <c r="C367">
+        <v>8.1850000000000006E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>302</v>
+      </c>
+      <c r="B368">
+        <v>11</v>
+      </c>
+      <c r="C368">
+        <v>7.7770000000000006E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>303</v>
+      </c>
+      <c r="B369">
+        <v>11</v>
+      </c>
+      <c r="C369">
+        <v>0.10082000000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>304</v>
+      </c>
+      <c r="B370">
+        <v>11</v>
+      </c>
+      <c r="C370">
+        <v>6.447E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>305</v>
+      </c>
+      <c r="B371">
+        <v>11</v>
+      </c>
+      <c r="C371">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>132</v>
+      </c>
+      <c r="B372">
+        <v>11</v>
+      </c>
+      <c r="C372">
+        <v>0.40227000000000002</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>133</v>
+      </c>
+      <c r="B373">
+        <v>11</v>
+      </c>
+      <c r="C373">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>128</v>
+      </c>
+      <c r="B374">
+        <v>11</v>
+      </c>
+      <c r="C374">
+        <v>6.0089999999999998E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>129</v>
+      </c>
+      <c r="B375">
+        <v>11</v>
+      </c>
+      <c r="C375">
+        <v>0.10811999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>61</v>
+      </c>
+      <c r="B376">
+        <v>11</v>
+      </c>
+      <c r="C376">
+        <v>5.2839999999999998E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>62</v>
+      </c>
+      <c r="B377">
+        <v>11</v>
+      </c>
+      <c r="C377">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>306</v>
+      </c>
+      <c r="B378">
+        <v>11</v>
+      </c>
+      <c r="C378">
+        <v>4.4010000000000001E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>307</v>
+      </c>
+      <c r="B379">
+        <v>11</v>
+      </c>
+      <c r="C379">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>308</v>
+      </c>
+      <c r="B380">
+        <v>11</v>
+      </c>
+      <c r="C380">
+        <v>0.14635000000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>309</v>
+      </c>
+      <c r="B381">
+        <v>11</v>
+      </c>
+      <c r="C381">
+        <v>0.22664000000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>310</v>
+      </c>
+      <c r="B382">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>311</v>
+      </c>
+      <c r="B383">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F287"/>
+  <autoFilter ref="A1:F327">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/CG_SLA.xlsx
+++ b/CG_SLA.xlsx
@@ -5,17 +5,19 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/CGtraits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/GitHub/CGtraits/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21960" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="26940" yWindow="1900" windowWidth="21960" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$383</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="341">
   <si>
     <t>IND</t>
   </si>
@@ -966,6 +968,93 @@
   </si>
   <si>
     <t>VIBCAS_WM_10_2</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Pore Anatomy</t>
+  </si>
+  <si>
+    <t>Wood anatomy features</t>
+  </si>
+  <si>
+    <t>International Association of Wood Anatomists IAWA</t>
+  </si>
+  <si>
+    <t>Pore anatomy</t>
+  </si>
+  <si>
+    <t>diffuse-porous</t>
+  </si>
+  <si>
+    <t>ring-porous</t>
+  </si>
+  <si>
+    <t>semi-porous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From insidewood.lib.ncsu.edu - (from Dan Flynn's </t>
+  </si>
+  <si>
+    <t>ACEPEN</t>
+  </si>
+  <si>
+    <t>ACESPI</t>
+  </si>
+  <si>
+    <t>ALNINC</t>
+  </si>
+  <si>
+    <t>AROMEL</t>
+  </si>
+  <si>
+    <t>AMECAN</t>
+  </si>
+  <si>
+    <t>BETALL</t>
+  </si>
+  <si>
+    <t>BETPAP</t>
+  </si>
+  <si>
+    <t>BETPOP</t>
+  </si>
+  <si>
+    <t>DIELON</t>
+  </si>
+  <si>
+    <t>MYRGAL</t>
+  </si>
+  <si>
+    <t>QUEALB</t>
+  </si>
+  <si>
+    <t>QUERUB</t>
+  </si>
+  <si>
+    <t>SAMRAC</t>
+  </si>
+  <si>
+    <t>SORAME</t>
+  </si>
+  <si>
+    <t>SPIALB</t>
+  </si>
+  <si>
+    <t>SPITOM</t>
+  </si>
+  <si>
+    <t>VACMYR</t>
+  </si>
+  <si>
+    <t>VIBCAS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Serrations</t>
   </si>
 </sst>
 </file>
@@ -1373,14 +1462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F383"/>
+  <dimension ref="A1:G383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B360" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C382" sqref="C382"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,7 +1476,7 @@
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1407,8 +1495,11 @@
       <c r="F1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1419,7 +1510,7 @@
         <v>0.38679999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1430,7 +1521,7 @@
         <v>0.32601999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1441,7 +1532,7 @@
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1543,7 @@
         <v>0.26169999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1463,7 +1554,7 @@
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1474,7 +1565,7 @@
         <v>7.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1485,7 +1576,7 @@
         <v>0.36170000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1496,7 +1587,7 @@
         <v>0.48370000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -1507,7 +1598,7 @@
         <v>0.63829999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -1518,7 +1609,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1529,7 +1620,7 @@
         <v>0.70479999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +1631,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1642,7 @@
         <v>0.51749999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1653,7 @@
         <v>0.3402</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1573,7 +1664,7 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1584,7 +1675,7 @@
         <v>0.75890000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1595,7 +1686,7 @@
         <v>0.26379999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1606,7 +1697,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1617,7 +1708,7 @@
         <v>0.34010000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1628,7 +1719,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1639,7 +1730,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1650,7 +1741,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1661,7 +1752,7 @@
         <v>0.21690000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1672,7 +1763,7 @@
         <v>0.43340000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1683,7 +1774,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1694,7 +1785,7 @@
         <v>0.43469999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -1705,7 +1796,7 @@
         <v>0.38879999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -1716,7 +1807,7 @@
         <v>0.36480000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1727,7 +1818,7 @@
         <v>0.51639999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1738,7 +1829,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1752,7 +1843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1766,7 +1857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1780,7 +1871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1794,7 +1885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1805,7 +1896,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1816,7 +1907,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1827,7 +1918,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1838,7 +1929,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1849,7 +1940,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1860,7 +1951,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1871,7 +1962,7 @@
         <v>0.17610000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1973,7 @@
         <v>0.1447</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1893,7 +1984,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1904,7 +1995,7 @@
         <v>0.38812999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1915,7 +2006,7 @@
         <v>0.73070000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1926,7 +2017,7 @@
         <v>0.99580000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -1937,7 +2028,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -1948,7 +2039,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1959,7 +2050,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1970,7 +2061,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1981,7 +2072,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1992,7 +2083,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2003,7 +2094,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2014,7 +2105,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2025,7 +2116,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2036,7 +2127,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2047,7 +2138,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2058,7 +2149,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2069,7 +2160,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -2080,7 +2171,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -2091,7 +2182,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -2102,7 +2193,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2113,7 +2204,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2124,7 +2215,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -2135,7 +2226,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2146,7 +2237,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2157,7 +2248,7 @@
         <v>5.8900000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2168,7 +2259,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2179,7 +2270,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -2190,7 +2281,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -2201,7 +2292,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2212,7 +2303,7 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2223,7 +2314,7 @@
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2234,7 +2325,7 @@
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -2245,7 +2336,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2256,7 +2347,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2267,7 +2358,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2278,7 +2369,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -2289,7 +2380,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2300,7 +2391,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2311,7 +2402,7 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2322,7 +2413,7 @@
         <v>6.4600000000000005E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -2333,7 +2424,7 @@
         <v>6.9699999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2344,7 +2435,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2355,7 +2446,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2366,7 +2457,7 @@
         <v>6.8199999999999997E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -2377,7 +2468,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -2388,7 +2479,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -2399,7 +2490,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -2410,7 +2501,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -2421,7 +2512,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -2432,7 +2523,7 @@
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -2443,7 +2534,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -2454,7 +2545,7 @@
         <v>6.8699999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2465,7 +2556,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2476,7 +2567,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>88</v>
       </c>
@@ -2487,7 +2578,7 @@
         <v>6.54E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -2498,7 +2589,7 @@
         <v>6.93E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -2509,7 +2600,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -2520,7 +2611,7 @@
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -2531,7 +2622,7 @@
         <v>6.4699999999999994E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -2542,7 +2633,7 @@
         <v>7.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -2553,7 +2644,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -2564,7 +2655,7 @@
         <v>3.6200000000000003E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>82</v>
       </c>
@@ -2575,7 +2666,7 @@
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -2586,7 +2677,7 @@
         <v>5.5300000000000002E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -2597,7 +2688,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -2608,7 +2699,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -2619,7 +2710,7 @@
         <v>9.7600000000000006E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -2630,7 +2721,7 @@
         <v>6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -2641,7 +2732,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -2652,7 +2743,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -2663,7 +2754,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -2674,7 +2765,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -2685,7 +2776,7 @@
         <v>0.18260000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -2696,7 +2787,7 @@
         <v>0.19620000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -2707,7 +2798,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -2718,7 +2809,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -2729,7 +2820,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -2740,7 +2831,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -2751,7 +2842,7 @@
         <v>8.0799999999999997E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>113</v>
       </c>
@@ -2762,7 +2853,7 @@
         <v>9.5699999999999993E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -2773,7 +2864,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -2784,7 +2875,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -2795,7 +2886,7 @@
         <v>0.1075</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -2806,7 +2897,7 @@
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -2817,7 +2908,7 @@
         <v>6.9940000000000002E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -2828,7 +2919,7 @@
         <v>8.4570000000000006E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -2839,7 +2930,7 @@
         <v>0.52029999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -2850,7 +2941,7 @@
         <v>0.62329999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2861,7 +2952,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -2872,7 +2963,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -2883,7 +2974,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -2894,7 +2985,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>124</v>
       </c>
@@ -2905,7 +2996,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>125</v>
       </c>
@@ -2916,7 +3007,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -2927,7 +3018,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -2938,7 +3029,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>128</v>
       </c>
@@ -2949,7 +3040,7 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>129</v>
       </c>
@@ -2960,7 +3051,7 @@
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -2971,7 +3062,7 @@
         <v>0.61560000000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>131</v>
       </c>
@@ -2982,7 +3073,7 @@
         <v>0.5121</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -2993,7 +3084,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>133</v>
       </c>
@@ -3004,7 +3095,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -3015,7 +3106,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -3026,7 +3117,7 @@
         <v>0.34849999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3128,7 @@
         <v>0.29110000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -3048,7 +3139,7 @@
         <v>0.39269999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>140</v>
       </c>
@@ -3059,7 +3150,7 @@
         <v>0.91469999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>141</v>
       </c>
@@ -3070,7 +3161,7 @@
         <v>0.91110000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -3081,7 +3172,7 @@
         <v>0.30409999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -3092,7 +3183,7 @@
         <v>0.3831</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3103,7 +3194,7 @@
         <v>0.50380000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3114,7 +3205,7 @@
         <v>0.49509999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -3125,7 +3216,7 @@
         <v>0.62160000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -3136,7 +3227,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>142</v>
       </c>
@@ -3147,7 +3238,7 @@
         <v>0.15559999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>143</v>
       </c>
@@ -3158,7 +3249,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>144</v>
       </c>
@@ -3169,7 +3260,7 @@
         <v>0.31619999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -3180,7 +3271,7 @@
         <v>0.32763999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -3191,7 +3282,7 @@
         <v>0.45304</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>146</v>
       </c>
@@ -3202,7 +3293,7 @@
         <v>0.48233999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>157</v>
       </c>
@@ -3213,7 +3304,7 @@
         <v>0.21459</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>158</v>
       </c>
@@ -3224,7 +3315,7 @@
         <v>0.25752999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -3235,7 +3326,7 @@
         <v>0.49186000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>160</v>
       </c>
@@ -3246,7 +3337,7 @@
         <v>0.92889999999999995</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>161</v>
       </c>
@@ -3257,7 +3348,7 @@
         <v>0.37663999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>162</v>
       </c>
@@ -3268,7 +3359,7 @@
         <v>0.71209999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>164</v>
       </c>
@@ -3279,7 +3370,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -3290,7 +3381,7 @@
         <v>7.6609999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -3301,7 +3392,7 @@
         <v>0.10367999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -3312,7 +3403,7 @@
         <v>0.15343999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -3323,7 +3414,7 @@
         <v>3.5360000000000003E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>169</v>
       </c>
@@ -3334,7 +3425,7 @@
         <v>4.2880000000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -3345,7 +3436,7 @@
         <v>7.5230000000000005E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -3356,7 +3447,7 @@
         <v>7.4310000000000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>170</v>
       </c>
@@ -3367,7 +3458,7 @@
         <v>6.2710000000000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>171</v>
       </c>
@@ -3378,7 +3469,7 @@
         <v>8.43E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>172</v>
       </c>
@@ -3389,7 +3480,7 @@
         <v>4.7399999999999998E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>173</v>
       </c>
@@ -3400,7 +3491,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>174</v>
       </c>
@@ -3411,7 +3502,7 @@
         <v>5.8099999999999999E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>175</v>
       </c>
@@ -3422,7 +3513,7 @@
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>128</v>
       </c>
@@ -3433,7 +3524,7 @@
         <v>5.9799999999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>129</v>
       </c>
@@ -3444,7 +3535,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>163</v>
       </c>
@@ -3455,7 +3546,7 @@
         <v>5.8400000000000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>176</v>
       </c>
@@ -3466,7 +3557,7 @@
         <v>7.0599999999999996E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>177</v>
       </c>
@@ -3477,7 +3568,7 @@
         <v>0.22586999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>178</v>
       </c>
@@ -3488,7 +3579,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>179</v>
       </c>
@@ -3499,7 +3590,7 @@
         <v>8.9149999999999993E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>180</v>
       </c>
@@ -3510,7 +3601,7 @@
         <v>8.3659999999999998E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>181</v>
       </c>
@@ -3521,7 +3612,7 @@
         <v>7.7130000000000004E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>182</v>
       </c>
@@ -3532,7 +3623,7 @@
         <v>8.9370000000000005E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>183</v>
       </c>
@@ -3543,7 +3634,7 @@
         <v>6.3960000000000003E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -3554,7 +3645,7 @@
         <v>8.5180000000000006E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -3565,7 +3656,7 @@
         <v>7.3099999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>186</v>
       </c>
@@ -3576,7 +3667,7 @@
         <v>6.2640000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -3587,7 +3678,7 @@
         <v>6.4579999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>188</v>
       </c>
@@ -3598,7 +3689,7 @@
         <v>6.6769999999999996E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>189</v>
       </c>
@@ -3609,7 +3700,7 @@
         <v>2.452E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>190</v>
       </c>
@@ -3620,7 +3711,7 @@
         <v>2.93E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>191</v>
       </c>
@@ -3631,7 +3722,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>192</v>
       </c>
@@ -3642,7 +3733,7 @@
         <v>8.4599999999999995E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>193</v>
       </c>
@@ -3653,7 +3744,7 @@
         <v>2.828E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>194</v>
       </c>
@@ -3664,7 +3755,7 @@
         <v>5.246E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>195</v>
       </c>
@@ -3675,7 +3766,7 @@
         <v>3.517E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>196</v>
       </c>
@@ -3686,7 +3777,7 @@
         <v>5.3830000000000003E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>197</v>
       </c>
@@ -3697,7 +3788,7 @@
         <v>6.4130000000000006E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>198</v>
       </c>
@@ -3708,7 +3799,7 @@
         <v>6.1170000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>76</v>
       </c>
@@ -3719,7 +3810,7 @@
         <v>6.0229999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -3730,7 +3821,7 @@
         <v>6.1469999999999997E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>132</v>
       </c>
@@ -3741,7 +3832,7 @@
         <v>0.41488999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>133</v>
       </c>
@@ -3752,7 +3843,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>199</v>
       </c>
@@ -3763,7 +3854,7 @@
         <v>5.5590000000000001E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>200</v>
       </c>
@@ -3774,7 +3865,7 @@
         <v>6.1019999999999998E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>201</v>
       </c>
@@ -3785,7 +3876,7 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>202</v>
       </c>
@@ -3796,7 +3887,7 @@
         <v>7.2040000000000007E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>98</v>
       </c>
@@ -3807,7 +3898,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>99</v>
       </c>
@@ -3818,7 +3909,7 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>203</v>
       </c>
@@ -3829,7 +3920,7 @@
         <v>0.13757</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>204</v>
       </c>
@@ -3840,7 +3931,7 @@
         <v>0.13672999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>205</v>
       </c>
@@ -3851,7 +3942,7 @@
         <v>6.5030000000000004E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>206</v>
       </c>
@@ -3862,7 +3953,7 @@
         <v>7.7950000000000005E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>207</v>
       </c>
@@ -3873,7 +3964,7 @@
         <v>8.6669999999999997E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>208</v>
       </c>
@@ -3884,7 +3975,7 @@
         <v>9.5200000000000007E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -3895,7 +3986,7 @@
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>117</v>
       </c>
@@ -3906,7 +3997,7 @@
         <v>5.0250000000000003E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -3917,7 +4008,7 @@
         <v>6.4630000000000007E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>210</v>
       </c>
@@ -3928,7 +4019,7 @@
         <v>9.9790000000000004E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>211</v>
       </c>
@@ -3939,7 +4030,7 @@
         <v>4.4339999999999997E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>212</v>
       </c>
@@ -3950,7 +4041,7 @@
         <v>4.598E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>70</v>
       </c>
@@ -3961,7 +4052,7 @@
         <v>0.56067</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>71</v>
       </c>
@@ -3972,7 +4063,7 @@
         <v>0.78349999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>100</v>
       </c>
@@ -3983,7 +4074,7 @@
         <v>0.10165</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>101</v>
       </c>
@@ -3994,7 +4085,7 @@
         <v>9.5829999999999999E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -4005,7 +4096,7 @@
         <v>5.457E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>214</v>
       </c>
@@ -4016,7 +4107,7 @@
         <v>9.4490000000000005E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>215</v>
       </c>
@@ -4027,7 +4118,7 @@
         <v>8.4070000000000006E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>216</v>
       </c>
@@ -4038,7 +4129,7 @@
         <v>0.10272000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>217</v>
       </c>
@@ -4049,7 +4140,7 @@
         <v>1.8360000000000001E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>218</v>
       </c>
@@ -4060,7 +4151,7 @@
         <v>3.2649999999999998E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>219</v>
       </c>
@@ -4071,7 +4162,7 @@
         <v>7.8289999999999998E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>220</v>
       </c>
@@ -4082,7 +4173,7 @@
         <v>7.4079999999999993E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>221</v>
       </c>
@@ -4093,7 +4184,7 @@
         <v>3.2980000000000002E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>222</v>
       </c>
@@ -4104,7 +4195,7 @@
         <v>3.7440000000000001E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>223</v>
       </c>
@@ -4115,7 +4206,7 @@
         <v>0.11504</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>224</v>
       </c>
@@ -4126,7 +4217,7 @@
         <v>0.19739999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>225</v>
       </c>
@@ -4137,7 +4228,7 @@
         <v>3.1620000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>226</v>
       </c>
@@ -4148,7 +4239,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>227</v>
       </c>
@@ -4159,7 +4250,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>228</v>
       </c>
@@ -4170,7 +4261,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>229</v>
       </c>
@@ -4181,7 +4272,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>230</v>
       </c>
@@ -4192,7 +4283,7 @@
         <v>0.77354999999999996</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>231</v>
       </c>
@@ -4203,7 +4294,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>232</v>
       </c>
@@ -4214,7 +4305,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>233</v>
       </c>
@@ -4225,7 +4316,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>234</v>
       </c>
@@ -4236,7 +4327,7 @@
         <v>0.6038</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>235</v>
       </c>
@@ -4247,7 +4338,7 @@
         <v>0.43169999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>236</v>
       </c>
@@ -4258,7 +4349,7 @@
         <v>0.43569999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>45</v>
       </c>
@@ -4269,7 +4360,7 @@
         <v>0.70094000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>46</v>
       </c>
@@ -4280,7 +4371,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>237</v>
       </c>
@@ -4291,7 +4382,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>238</v>
       </c>
@@ -4302,7 +4393,7 @@
         <v>1.0084</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -4313,7 +4404,7 @@
         <v>0.27010000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>240</v>
       </c>
@@ -4324,7 +4415,7 @@
         <v>0.28236</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -4335,7 +4426,7 @@
         <v>0.43636000000000003</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -4346,7 +4437,7 @@
         <v>0.42949999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>43</v>
       </c>
@@ -4357,7 +4448,7 @@
         <v>0.15989999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>44</v>
       </c>
@@ -4368,7 +4459,7 @@
         <v>0.16647000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>241</v>
       </c>
@@ -4379,7 +4470,7 @@
         <v>0.6714</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>242</v>
       </c>
@@ -4390,7 +4481,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>51</v>
       </c>
@@ -4401,7 +4492,7 @@
         <v>0.17810999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>52</v>
       </c>
@@ -4412,7 +4503,7 @@
         <v>0.21096000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -4423,7 +4514,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -4434,7 +4525,7 @@
         <v>0.79979999999999996</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>243</v>
       </c>
@@ -4445,7 +4536,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>244</v>
       </c>
@@ -4456,7 +4547,7 @@
         <v>0.48043999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>245</v>
       </c>
@@ -4467,7 +4558,7 @@
         <v>0.38150000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>246</v>
       </c>
@@ -4478,7 +4569,7 @@
         <v>0.43758999999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>247</v>
       </c>
@@ -4489,7 +4580,7 @@
         <v>0.36170000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>248</v>
       </c>
@@ -4500,7 +4591,7 @@
         <v>0.39190999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>21</v>
       </c>
@@ -4511,7 +4602,7 @@
         <v>0.21812999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -4522,7 +4613,7 @@
         <v>0.27305000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>249</v>
       </c>
@@ -4533,7 +4624,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>250</v>
       </c>
@@ -4544,7 +4635,7 @@
         <v>0.55620000000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>251</v>
       </c>
@@ -4555,7 +4646,7 @@
         <v>0.40629999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>252</v>
       </c>
@@ -4566,7 +4657,7 @@
         <v>0.45184000000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>257</v>
       </c>
@@ -4577,7 +4668,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>258</v>
       </c>
@@ -4588,7 +4679,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -4599,7 +4690,7 @@
         <v>0.14118</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -4610,7 +4701,7 @@
         <v>0.29243000000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>239</v>
       </c>
@@ -4621,7 +4712,7 @@
         <v>0.29933999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>240</v>
       </c>
@@ -4632,7 +4723,7 @@
         <v>0.33484999999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>255</v>
       </c>
@@ -4643,7 +4734,7 @@
         <v>0.1764</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>256</v>
       </c>
@@ -4654,7 +4745,7 @@
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>39</v>
       </c>
@@ -4665,7 +4756,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>40</v>
       </c>
@@ -4676,7 +4767,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>147</v>
       </c>
@@ -4687,7 +4778,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>146</v>
       </c>
@@ -4698,7 +4789,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -4709,7 +4800,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -4720,7 +4811,7 @@
         <v>0.42393999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>13</v>
       </c>
@@ -4731,7 +4822,7 @@
         <v>0.27007999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>14</v>
       </c>
@@ -4742,7 +4833,7 @@
         <v>0.29982999999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -4753,7 +4844,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -4764,7 +4855,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>259</v>
       </c>
@@ -4775,7 +4866,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>260</v>
       </c>
@@ -4786,7 +4877,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>261</v>
       </c>
@@ -4797,7 +4888,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>262</v>
       </c>
@@ -4808,7 +4899,7 @@
         <v>0.74092999999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>263</v>
       </c>
@@ -4819,7 +4910,7 @@
         <v>0.31220999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>264</v>
       </c>
@@ -4830,7 +4921,7 @@
         <v>0.57650000000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>251</v>
       </c>
@@ -4841,7 +4932,7 @@
         <v>0.54859999999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>252</v>
       </c>
@@ -4852,7 +4943,7 @@
         <v>0.66569999999999996</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>265</v>
       </c>
@@ -4863,7 +4954,7 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>265</v>
       </c>
@@ -5617,14 +5708,230 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F327">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F383"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CG_SLA.xlsx
+++ b/CG_SLA.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/GitHub/CGtraits/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26940" yWindow="1900" windowWidth="21960" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,22 +12,22 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$383</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$511</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="461">
   <si>
     <t>IND</t>
   </si>
@@ -1055,6 +1050,366 @@
   </si>
   <si>
     <t>Serrations</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_9_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_9_2</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_4_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_4_2</t>
+  </si>
+  <si>
+    <t>DIELON_HF_3_1</t>
+  </si>
+  <si>
+    <t>DIELON_HF_3_2</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_2_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_2_2</t>
+  </si>
+  <si>
+    <t>DIELON_GR_5A_1</t>
+  </si>
+  <si>
+    <t>DIELON_GR_5A_2</t>
+  </si>
+  <si>
+    <t>SORAME_GR_9A_2</t>
+  </si>
+  <si>
+    <t>SORAME_GR_9A_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_7A_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_7A_2</t>
+  </si>
+  <si>
+    <t>DIELON_HF_1A_1</t>
+  </si>
+  <si>
+    <t>DIELON_HF_1A_2</t>
+  </si>
+  <si>
+    <t>DIELON_HF_4_1</t>
+  </si>
+  <si>
+    <t>DIELON_HF_4_2</t>
+  </si>
+  <si>
+    <t>SORAME_SH_3_2</t>
+  </si>
+  <si>
+    <t>SORAME_SH_3_1</t>
+  </si>
+  <si>
+    <t>SORAME_GR_9B_1</t>
+  </si>
+  <si>
+    <t>SORAME_GR_9B_2</t>
+  </si>
+  <si>
+    <t>DIELON_GR_5B_1</t>
+  </si>
+  <si>
+    <t>DIELON_GR_5B_2</t>
+  </si>
+  <si>
+    <t>SORAME_GR_9C_1</t>
+  </si>
+  <si>
+    <t>SORAME_GR_9C_2</t>
+  </si>
+  <si>
+    <t>DIELON_SH_4_1</t>
+  </si>
+  <si>
+    <t>DIELON_SH_4_2</t>
+  </si>
+  <si>
+    <t>DIELON_GR_5C_1</t>
+  </si>
+  <si>
+    <t>DIELON_GR_5C_2</t>
+  </si>
+  <si>
+    <t>DIELON_HF_2_2</t>
+  </si>
+  <si>
+    <t>DIELON_HF_2_1</t>
+  </si>
+  <si>
+    <t>DIELON_HF_1B_1</t>
+  </si>
+  <si>
+    <t>DIELON_HF_1B_2</t>
+  </si>
+  <si>
+    <t>ACESPI_GR_4_1</t>
+  </si>
+  <si>
+    <t>ACESPI_GR_4_2</t>
+  </si>
+  <si>
+    <t>SORAME_GR_9D_1</t>
+  </si>
+  <si>
+    <t>SORAME_GR_9D_2</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_7B_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_7B_2</t>
+  </si>
+  <si>
+    <t>ACESPI_WM_1_1</t>
+  </si>
+  <si>
+    <t>ACESPI_WM_1_2</t>
+  </si>
+  <si>
+    <t>DIELON_WM_1</t>
+  </si>
+  <si>
+    <t>DIELON_WM_2</t>
+  </si>
+  <si>
+    <t>SAMRAC_HF_A_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_HF_A_2</t>
+  </si>
+  <si>
+    <t>VACMYR_WM_5_1</t>
+  </si>
+  <si>
+    <t>VACMYR_WM_5_2</t>
+  </si>
+  <si>
+    <t>DIELON_WM_1A_1</t>
+  </si>
+  <si>
+    <t>DIELON_WM_1A_2</t>
+  </si>
+  <si>
+    <t>SAMRAC_HF_B_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_HF_B_2</t>
+  </si>
+  <si>
+    <t>VACMYR_GR_10A_1</t>
+  </si>
+  <si>
+    <t>VACMYR_GR_10A_2</t>
+  </si>
+  <si>
+    <t>DIELON_HF_2A_1</t>
+  </si>
+  <si>
+    <t>DIELON_HF_2A_2</t>
+  </si>
+  <si>
+    <t>SORAME_SH_1A_2</t>
+  </si>
+  <si>
+    <t>SORAME_SH_1A_1</t>
+  </si>
+  <si>
+    <t>VACMYR_GR_10B_1</t>
+  </si>
+  <si>
+    <t>VACMYR_GR_10B_2</t>
+  </si>
+  <si>
+    <t>SORAME_SH_1B_1</t>
+  </si>
+  <si>
+    <t>SORAME_SH_1B_2</t>
+  </si>
+  <si>
+    <t>DIELON_GR_8_1</t>
+  </si>
+  <si>
+    <t>DIELON_GR_8_2</t>
+  </si>
+  <si>
+    <t>DIELON_WM_1C_1</t>
+  </si>
+  <si>
+    <t>DIELON_WM_1C_2</t>
+  </si>
+  <si>
+    <t>DIELON_SH_2B_1</t>
+  </si>
+  <si>
+    <t>DIELON_SH_2B_2</t>
+  </si>
+  <si>
+    <t>SAMRAC_HF_D_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_HF_D_2</t>
+  </si>
+  <si>
+    <t>DIELON_HF_2C_1</t>
+  </si>
+  <si>
+    <t>DIELON_HF_2C_2</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_8_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_8_2</t>
+  </si>
+  <si>
+    <t>SAMRAC_HF_C_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_HF_C_2</t>
+  </si>
+  <si>
+    <t>VACMYR_GR_10C_1</t>
+  </si>
+  <si>
+    <t>VACMYR_GR_10C_2</t>
+  </si>
+  <si>
+    <t>DIELON_WM_1B_1</t>
+  </si>
+  <si>
+    <t>DIELON_WM_1B_2</t>
+  </si>
+  <si>
+    <t>DIELON_SH_2A_1</t>
+  </si>
+  <si>
+    <t>DIELON_SH_2A_2</t>
+  </si>
+  <si>
+    <t>DIELON_HF_2B_1</t>
+  </si>
+  <si>
+    <t>DIELON_HF_2B_2</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_1_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_1_2</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_7_1</t>
+  </si>
+  <si>
+    <t>SAMRAC_GR_7_2</t>
+  </si>
+  <si>
+    <t>SORAME_SH_3B_1</t>
+  </si>
+  <si>
+    <t>SORAME_SH_3B_2</t>
+  </si>
+  <si>
+    <t>DIELON_SH_4A_1</t>
+  </si>
+  <si>
+    <t>DIELON_SH_4A_2</t>
+  </si>
+  <si>
+    <t>SORAME_SH_3A_1</t>
+  </si>
+  <si>
+    <t>SORAME_SH_3A_2</t>
+  </si>
+  <si>
+    <t>DIELON_HF_1_1</t>
+  </si>
+  <si>
+    <t>DIELON_HF_1_2</t>
+  </si>
+  <si>
+    <t>ALNINC_HF_8_1</t>
+  </si>
+  <si>
+    <t>ALNINC_HF_8_2</t>
+  </si>
+  <si>
+    <t>BETPOP_GR_A_1</t>
+  </si>
+  <si>
+    <t>BETPOP_GR_A_2</t>
+  </si>
+  <si>
+    <t>BETPOP_GR_5C_1</t>
+  </si>
+  <si>
+    <t>BETPOP_GR_5C_2</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99E_1</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99E_2</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_4B_1</t>
+  </si>
+  <si>
+    <t>SPIALB_HF_4B_2</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99F_1</t>
+  </si>
+  <si>
+    <t>SPITOM_SH_99F_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_SH_9_1</t>
+  </si>
+  <si>
+    <t>VIBCAS_SH_9_2</t>
+  </si>
+  <si>
+    <t>SPITOM_GR_1A_1</t>
+  </si>
+  <si>
+    <t>SPITOM_GR_1A_2</t>
+  </si>
+  <si>
+    <t>SPITOM_HF_6_1</t>
+  </si>
+  <si>
+    <t>SPITOM_HF_6_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_GR_1B_1</t>
+  </si>
+  <si>
+    <t>VIBCAS_GR_1B_2</t>
+  </si>
+  <si>
+    <t>AROMEL_HF_8A_1</t>
+  </si>
+  <si>
+    <t>AROMEL_HF_8A_2</t>
+  </si>
+  <si>
+    <t>AROMEL_HF_8B_1</t>
+  </si>
+  <si>
+    <t>AROMEL_HF_8B_2</t>
   </si>
 </sst>
 </file>
@@ -1067,6 +1422,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1105,8 +1461,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1119,15 +1481,21 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1462,21 +1830,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G383"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:G537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B517" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="C538" sqref="C538"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1868,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1510,7 +1879,7 @@
         <v>0.38679999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1890,7 @@
         <v>0.32601999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1532,7 +1901,7 @@
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1543,7 +1912,7 @@
         <v>0.26169999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1554,7 +1923,7 @@
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1565,7 +1934,7 @@
         <v>7.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1576,7 +1945,7 @@
         <v>0.36170000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +1956,7 @@
         <v>0.48370000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -1598,7 +1967,7 @@
         <v>0.63829999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -1609,7 +1978,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1620,7 +1989,7 @@
         <v>0.70479999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +2000,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1642,7 +2011,7 @@
         <v>0.51749999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1653,7 +2022,7 @@
         <v>0.3402</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1664,7 +2033,7 @@
         <v>0.55559999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1675,7 +2044,7 @@
         <v>0.75890000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1686,7 +2055,7 @@
         <v>0.26379999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1697,7 +2066,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1708,7 +2077,7 @@
         <v>0.34010000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1719,7 +2088,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +2099,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1741,7 +2110,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1752,7 +2121,7 @@
         <v>0.21690000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1763,7 +2132,7 @@
         <v>0.43340000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1774,7 +2143,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1785,7 +2154,7 @@
         <v>0.43469999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -1796,7 +2165,7 @@
         <v>0.38879999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -1807,7 +2176,7 @@
         <v>0.36480000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1818,7 +2187,7 @@
         <v>0.51639999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1829,7 +2198,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1843,7 +2212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1857,7 +2226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1871,7 +2240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1885,7 +2254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1896,7 +2265,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1907,7 +2276,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +2287,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1929,7 +2298,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1940,7 +2309,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1951,7 +2320,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1962,7 +2331,7 @@
         <v>0.17610000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1973,7 +2342,7 @@
         <v>0.1447</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1984,7 +2353,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1995,7 +2364,7 @@
         <v>0.38812999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2006,7 +2375,7 @@
         <v>0.73070000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2017,7 +2386,7 @@
         <v>0.99580000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -2028,7 +2397,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" hidden="1">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -2039,7 +2408,7 @@
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" hidden="1">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2050,7 +2419,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" hidden="1">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2061,7 +2430,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" hidden="1">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2072,7 +2441,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" hidden="1">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2083,7 +2452,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" hidden="1">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2094,7 +2463,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" hidden="1">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2105,7 +2474,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" hidden="1">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2116,7 +2485,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" hidden="1">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2127,7 +2496,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" hidden="1">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2138,7 +2507,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" hidden="1">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2149,7 +2518,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" hidden="1">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2160,7 +2529,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" hidden="1">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -2171,7 +2540,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" hidden="1">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -2182,7 +2551,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" hidden="1">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -2193,7 +2562,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" hidden="1">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2204,7 +2573,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" hidden="1">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2215,7 +2584,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" hidden="1">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -2226,7 +2595,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" hidden="1">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2237,7 +2606,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" hidden="1">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2248,7 +2617,7 @@
         <v>5.8900000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" hidden="1">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2259,7 +2628,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" hidden="1">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2270,7 +2639,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" hidden="1">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -2281,7 +2650,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" hidden="1">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -2292,7 +2661,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" hidden="1">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2303,7 +2672,7 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" hidden="1">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2314,7 +2683,7 @@
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" hidden="1">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2325,7 +2694,7 @@
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" hidden="1">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -2336,7 +2705,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" hidden="1">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2347,7 +2716,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" hidden="1">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2358,7 +2727,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" hidden="1">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2369,7 +2738,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" hidden="1">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -2380,7 +2749,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" hidden="1">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2391,7 +2760,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" hidden="1">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2402,7 +2771,7 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" hidden="1">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2413,7 +2782,7 @@
         <v>6.4600000000000005E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" hidden="1">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -2424,7 +2793,7 @@
         <v>6.9699999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" hidden="1">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2435,7 +2804,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" hidden="1">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2446,7 +2815,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" hidden="1">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2457,7 +2826,7 @@
         <v>6.8199999999999997E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" hidden="1">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -2468,7 +2837,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" hidden="1">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -2479,7 +2848,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -2490,7 +2859,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" hidden="1">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -2501,7 +2870,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -2512,7 +2881,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -2523,7 +2892,7 @@
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" hidden="1">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -2534,7 +2903,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" hidden="1">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -2545,7 +2914,7 @@
         <v>6.8699999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2556,7 +2925,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2567,7 +2936,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" t="s">
         <v>88</v>
       </c>
@@ -2578,7 +2947,7 @@
         <v>6.54E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -2589,7 +2958,7 @@
         <v>6.93E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -2600,7 +2969,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -2611,7 +2980,7 @@
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -2622,7 +2991,7 @@
         <v>6.4699999999999994E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" hidden="1">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -2633,7 +3002,7 @@
         <v>7.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" hidden="1">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -2644,7 +3013,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -2655,7 +3024,7 @@
         <v>3.6200000000000003E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" t="s">
         <v>82</v>
       </c>
@@ -2666,7 +3035,7 @@
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -2677,7 +3046,7 @@
         <v>5.5300000000000002E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -2688,7 +3057,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -2699,7 +3068,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -2710,7 +3079,7 @@
         <v>9.7600000000000006E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -2721,7 +3090,7 @@
         <v>6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -2732,7 +3101,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -2743,7 +3112,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -2754,7 +3123,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -2765,7 +3134,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -2776,7 +3145,7 @@
         <v>0.18260000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -2787,7 +3156,7 @@
         <v>0.19620000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -2798,7 +3167,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -2809,7 +3178,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -2820,7 +3189,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -2831,7 +3200,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -2842,7 +3211,7 @@
         <v>8.0799999999999997E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" t="s">
         <v>113</v>
       </c>
@@ -2853,7 +3222,7 @@
         <v>9.5699999999999993E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -2864,7 +3233,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -2875,7 +3244,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -2886,7 +3255,7 @@
         <v>0.1075</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -2897,7 +3266,7 @@
         <v>7.7899999999999997E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -2908,7 +3277,7 @@
         <v>6.9940000000000002E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -2919,7 +3288,7 @@
         <v>8.4570000000000006E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -2930,7 +3299,7 @@
         <v>0.52029999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -2941,7 +3310,7 @@
         <v>0.62329999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2952,7 +3321,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -2963,7 +3332,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -2974,7 +3343,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -2985,7 +3354,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1">
       <c r="A136" t="s">
         <v>124</v>
       </c>
@@ -2996,7 +3365,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1">
       <c r="A137" t="s">
         <v>125</v>
       </c>
@@ -3007,7 +3376,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -3018,7 +3387,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -3029,7 +3398,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1">
       <c r="A140" t="s">
         <v>128</v>
       </c>
@@ -3040,7 +3409,7 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1">
       <c r="A141" t="s">
         <v>129</v>
       </c>
@@ -3051,7 +3420,7 @@
         <v>6.7339999999999997E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -3062,7 +3431,7 @@
         <v>0.61560000000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1">
       <c r="A143" t="s">
         <v>131</v>
       </c>
@@ -3073,7 +3442,7 @@
         <v>0.5121</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -3084,7 +3453,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1">
       <c r="A145" t="s">
         <v>133</v>
       </c>
@@ -3095,7 +3464,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -3106,7 +3475,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -3117,7 +3486,7 @@
         <v>0.34849999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3128,7 +3497,7 @@
         <v>0.29110000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -3139,7 +3508,7 @@
         <v>0.39269999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1">
       <c r="A150" t="s">
         <v>140</v>
       </c>
@@ -3150,7 +3519,7 @@
         <v>0.91469999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1">
       <c r="A151" t="s">
         <v>141</v>
       </c>
@@ -3161,7 +3530,7 @@
         <v>0.91110000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -3172,7 +3541,7 @@
         <v>0.30409999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -3183,7 +3552,7 @@
         <v>0.3831</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3194,7 +3563,7 @@
         <v>0.50380000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3205,7 +3574,7 @@
         <v>0.49509999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -3216,7 +3585,7 @@
         <v>0.62160000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -3227,7 +3596,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1">
       <c r="A158" t="s">
         <v>142</v>
       </c>
@@ -3238,7 +3607,7 @@
         <v>0.15559999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1">
       <c r="A159" t="s">
         <v>143</v>
       </c>
@@ -3249,7 +3618,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1">
       <c r="A160" t="s">
         <v>144</v>
       </c>
@@ -3260,7 +3629,7 @@
         <v>0.31619999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -3271,7 +3640,7 @@
         <v>0.32763999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -3282,7 +3651,7 @@
         <v>0.45304</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1">
       <c r="A163" t="s">
         <v>146</v>
       </c>
@@ -3293,7 +3662,7 @@
         <v>0.48233999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1">
       <c r="A164" t="s">
         <v>157</v>
       </c>
@@ -3304,7 +3673,7 @@
         <v>0.21459</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1">
       <c r="A165" t="s">
         <v>158</v>
       </c>
@@ -3315,7 +3684,7 @@
         <v>0.25752999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -3326,7 +3695,7 @@
         <v>0.49186000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1">
       <c r="A167" t="s">
         <v>160</v>
       </c>
@@ -3337,7 +3706,7 @@
         <v>0.92889999999999995</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1">
       <c r="A168" t="s">
         <v>161</v>
       </c>
@@ -3348,7 +3717,7 @@
         <v>0.37663999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1">
       <c r="A169" t="s">
         <v>162</v>
       </c>
@@ -3359,7 +3728,7 @@
         <v>0.71209999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1">
       <c r="A170" t="s">
         <v>164</v>
       </c>
@@ -3370,7 +3739,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -3381,7 +3750,7 @@
         <v>7.6609999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -3392,7 +3761,7 @@
         <v>0.10367999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -3403,7 +3772,7 @@
         <v>0.15343999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -3414,7 +3783,7 @@
         <v>3.5360000000000003E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1">
       <c r="A175" t="s">
         <v>169</v>
       </c>
@@ -3425,7 +3794,7 @@
         <v>4.2880000000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -3436,7 +3805,7 @@
         <v>7.5230000000000005E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -3447,7 +3816,7 @@
         <v>7.4310000000000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1">
       <c r="A178" t="s">
         <v>170</v>
       </c>
@@ -3458,7 +3827,7 @@
         <v>6.2710000000000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1">
       <c r="A179" t="s">
         <v>171</v>
       </c>
@@ -3469,7 +3838,7 @@
         <v>8.43E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1">
       <c r="A180" t="s">
         <v>172</v>
       </c>
@@ -3480,7 +3849,7 @@
         <v>4.7399999999999998E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1">
       <c r="A181" t="s">
         <v>173</v>
       </c>
@@ -3491,7 +3860,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1">
       <c r="A182" t="s">
         <v>174</v>
       </c>
@@ -3502,7 +3871,7 @@
         <v>5.8099999999999999E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1">
       <c r="A183" t="s">
         <v>175</v>
       </c>
@@ -3513,7 +3882,7 @@
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1">
       <c r="A184" t="s">
         <v>128</v>
       </c>
@@ -3524,7 +3893,7 @@
         <v>5.9799999999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1">
       <c r="A185" t="s">
         <v>129</v>
       </c>
@@ -3535,7 +3904,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1">
       <c r="A186" t="s">
         <v>163</v>
       </c>
@@ -3546,7 +3915,7 @@
         <v>5.8400000000000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1">
       <c r="A187" t="s">
         <v>176</v>
       </c>
@@ -3557,7 +3926,7 @@
         <v>7.0599999999999996E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1">
       <c r="A188" t="s">
         <v>177</v>
       </c>
@@ -3568,7 +3937,7 @@
         <v>0.22586999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1">
       <c r="A189" t="s">
         <v>178</v>
       </c>
@@ -3579,7 +3948,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1">
       <c r="A190" t="s">
         <v>179</v>
       </c>
@@ -3590,7 +3959,7 @@
         <v>8.9149999999999993E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1">
       <c r="A191" t="s">
         <v>180</v>
       </c>
@@ -3601,7 +3970,7 @@
         <v>8.3659999999999998E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1">
       <c r="A192" t="s">
         <v>181</v>
       </c>
@@ -3612,7 +3981,7 @@
         <v>7.7130000000000004E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1">
       <c r="A193" t="s">
         <v>182</v>
       </c>
@@ -3623,7 +3992,7 @@
         <v>8.9370000000000005E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1">
       <c r="A194" t="s">
         <v>183</v>
       </c>
@@ -3634,7 +4003,7 @@
         <v>6.3960000000000003E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -3645,7 +4014,7 @@
         <v>8.5180000000000006E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -3656,7 +4025,7 @@
         <v>7.3099999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1">
       <c r="A197" t="s">
         <v>186</v>
       </c>
@@ -3667,7 +4036,7 @@
         <v>6.2640000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -3678,7 +4047,7 @@
         <v>6.4579999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1">
       <c r="A199" t="s">
         <v>188</v>
       </c>
@@ -3689,7 +4058,7 @@
         <v>6.6769999999999996E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1">
       <c r="A200" t="s">
         <v>189</v>
       </c>
@@ -3700,7 +4069,7 @@
         <v>2.452E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1">
       <c r="A201" t="s">
         <v>190</v>
       </c>
@@ -3711,7 +4080,7 @@
         <v>2.93E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1">
       <c r="A202" t="s">
         <v>191</v>
       </c>
@@ -3722,7 +4091,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1">
       <c r="A203" t="s">
         <v>192</v>
       </c>
@@ -3733,7 +4102,7 @@
         <v>8.4599999999999995E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1">
       <c r="A204" t="s">
         <v>193</v>
       </c>
@@ -3744,7 +4113,7 @@
         <v>2.828E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" hidden="1">
       <c r="A205" t="s">
         <v>194</v>
       </c>
@@ -3755,7 +4124,7 @@
         <v>5.246E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" hidden="1">
       <c r="A206" t="s">
         <v>195</v>
       </c>
@@ -3766,7 +4135,7 @@
         <v>3.517E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" hidden="1">
       <c r="A207" t="s">
         <v>196</v>
       </c>
@@ -3777,7 +4146,7 @@
         <v>5.3830000000000003E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" hidden="1">
       <c r="A208" t="s">
         <v>197</v>
       </c>
@@ -3788,7 +4157,7 @@
         <v>6.4130000000000006E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1">
       <c r="A209" t="s">
         <v>198</v>
       </c>
@@ -3799,7 +4168,7 @@
         <v>6.1170000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" hidden="1">
       <c r="A210" t="s">
         <v>76</v>
       </c>
@@ -3810,7 +4179,7 @@
         <v>6.0229999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -3821,7 +4190,7 @@
         <v>6.1469999999999997E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1">
       <c r="A212" t="s">
         <v>132</v>
       </c>
@@ -3832,7 +4201,7 @@
         <v>0.41488999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1">
       <c r="A213" t="s">
         <v>133</v>
       </c>
@@ -3843,7 +4212,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1">
       <c r="A214" t="s">
         <v>199</v>
       </c>
@@ -3854,7 +4223,7 @@
         <v>5.5590000000000001E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1">
       <c r="A215" t="s">
         <v>200</v>
       </c>
@@ -3865,7 +4234,7 @@
         <v>6.1019999999999998E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1">
       <c r="A216" t="s">
         <v>201</v>
       </c>
@@ -3876,7 +4245,7 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1">
       <c r="A217" t="s">
         <v>202</v>
       </c>
@@ -3887,7 +4256,7 @@
         <v>7.2040000000000007E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1">
       <c r="A218" t="s">
         <v>98</v>
       </c>
@@ -3898,7 +4267,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1">
       <c r="A219" t="s">
         <v>99</v>
       </c>
@@ -3909,7 +4278,7 @@
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1">
       <c r="A220" t="s">
         <v>203</v>
       </c>
@@ -3920,7 +4289,7 @@
         <v>0.13757</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1">
       <c r="A221" t="s">
         <v>204</v>
       </c>
@@ -3931,7 +4300,7 @@
         <v>0.13672999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1">
       <c r="A222" t="s">
         <v>205</v>
       </c>
@@ -3942,7 +4311,7 @@
         <v>6.5030000000000004E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" hidden="1">
       <c r="A223" t="s">
         <v>206</v>
       </c>
@@ -3953,7 +4322,7 @@
         <v>7.7950000000000005E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1">
       <c r="A224" t="s">
         <v>207</v>
       </c>
@@ -3964,7 +4333,7 @@
         <v>8.6669999999999997E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1">
       <c r="A225" t="s">
         <v>208</v>
       </c>
@@ -3975,7 +4344,7 @@
         <v>9.5200000000000007E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -3986,7 +4355,7 @@
         <v>3.2530000000000003E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1">
       <c r="A227" t="s">
         <v>117</v>
       </c>
@@ -3997,7 +4366,7 @@
         <v>5.0250000000000003E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -4008,7 +4377,7 @@
         <v>6.4630000000000007E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1">
       <c r="A229" t="s">
         <v>210</v>
       </c>
@@ -4019,7 +4388,7 @@
         <v>9.9790000000000004E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1">
       <c r="A230" t="s">
         <v>211</v>
       </c>
@@ -4030,7 +4399,7 @@
         <v>4.4339999999999997E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1">
       <c r="A231" t="s">
         <v>212</v>
       </c>
@@ -4041,7 +4410,7 @@
         <v>4.598E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1">
       <c r="A232" t="s">
         <v>70</v>
       </c>
@@ -4052,7 +4421,7 @@
         <v>0.56067</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1">
       <c r="A233" t="s">
         <v>71</v>
       </c>
@@ -4063,7 +4432,7 @@
         <v>0.78349999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1">
       <c r="A234" t="s">
         <v>100</v>
       </c>
@@ -4074,7 +4443,7 @@
         <v>0.10165</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1">
       <c r="A235" t="s">
         <v>101</v>
       </c>
@@ -4085,7 +4454,7 @@
         <v>9.5829999999999999E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -4096,7 +4465,7 @@
         <v>5.457E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1">
       <c r="A237" t="s">
         <v>214</v>
       </c>
@@ -4107,7 +4476,7 @@
         <v>9.4490000000000005E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1">
       <c r="A238" t="s">
         <v>215</v>
       </c>
@@ -4118,7 +4487,7 @@
         <v>8.4070000000000006E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1">
       <c r="A239" t="s">
         <v>216</v>
       </c>
@@ -4129,7 +4498,7 @@
         <v>0.10272000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1">
       <c r="A240" t="s">
         <v>217</v>
       </c>
@@ -4140,7 +4509,7 @@
         <v>1.8360000000000001E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1">
       <c r="A241" t="s">
         <v>218</v>
       </c>
@@ -4151,7 +4520,7 @@
         <v>3.2649999999999998E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" hidden="1">
       <c r="A242" t="s">
         <v>219</v>
       </c>
@@ -4162,7 +4531,7 @@
         <v>7.8289999999999998E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" hidden="1">
       <c r="A243" t="s">
         <v>220</v>
       </c>
@@ -4173,7 +4542,7 @@
         <v>7.4079999999999993E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" hidden="1">
       <c r="A244" t="s">
         <v>221</v>
       </c>
@@ -4184,7 +4553,7 @@
         <v>3.2980000000000002E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" hidden="1">
       <c r="A245" t="s">
         <v>222</v>
       </c>
@@ -4195,7 +4564,7 @@
         <v>3.7440000000000001E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" hidden="1">
       <c r="A246" t="s">
         <v>223</v>
       </c>
@@ -4206,7 +4575,7 @@
         <v>0.11504</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1">
       <c r="A247" t="s">
         <v>224</v>
       </c>
@@ -4217,7 +4586,7 @@
         <v>0.19739999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" hidden="1">
       <c r="A248" t="s">
         <v>225</v>
       </c>
@@ -4228,7 +4597,7 @@
         <v>3.1620000000000002E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" hidden="1">
       <c r="A249" t="s">
         <v>226</v>
       </c>
@@ -4239,7 +4608,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" hidden="1">
       <c r="A250" t="s">
         <v>227</v>
       </c>
@@ -4250,7 +4619,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" hidden="1">
       <c r="A251" t="s">
         <v>228</v>
       </c>
@@ -4261,7 +4630,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" hidden="1">
       <c r="A252" t="s">
         <v>229</v>
       </c>
@@ -4272,7 +4641,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" hidden="1">
       <c r="A253" t="s">
         <v>230</v>
       </c>
@@ -4283,7 +4652,7 @@
         <v>0.77354999999999996</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" hidden="1">
       <c r="A254" t="s">
         <v>231</v>
       </c>
@@ -4294,7 +4663,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" hidden="1">
       <c r="A255" t="s">
         <v>232</v>
       </c>
@@ -4305,7 +4674,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" hidden="1">
       <c r="A256" t="s">
         <v>233</v>
       </c>
@@ -4316,7 +4685,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1">
       <c r="A257" t="s">
         <v>234</v>
       </c>
@@ -4327,7 +4696,7 @@
         <v>0.6038</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1">
       <c r="A258" t="s">
         <v>235</v>
       </c>
@@ -4338,7 +4707,7 @@
         <v>0.43169999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1">
       <c r="A259" t="s">
         <v>236</v>
       </c>
@@ -4349,7 +4718,7 @@
         <v>0.43569999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1">
       <c r="A260" t="s">
         <v>45</v>
       </c>
@@ -4360,7 +4729,7 @@
         <v>0.70094000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1">
       <c r="A261" t="s">
         <v>46</v>
       </c>
@@ -4371,7 +4740,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1">
       <c r="A262" t="s">
         <v>237</v>
       </c>
@@ -4382,7 +4751,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1">
       <c r="A263" t="s">
         <v>238</v>
       </c>
@@ -4393,7 +4762,7 @@
         <v>1.0084</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -4404,7 +4773,7 @@
         <v>0.27010000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1">
       <c r="A265" t="s">
         <v>240</v>
       </c>
@@ -4415,7 +4784,7 @@
         <v>0.28236</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -4426,7 +4795,7 @@
         <v>0.43636000000000003</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -4437,7 +4806,7 @@
         <v>0.42949999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1">
       <c r="A268" t="s">
         <v>43</v>
       </c>
@@ -4448,7 +4817,7 @@
         <v>0.15989999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1">
       <c r="A269" t="s">
         <v>44</v>
       </c>
@@ -4459,7 +4828,7 @@
         <v>0.16647000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1">
       <c r="A270" t="s">
         <v>241</v>
       </c>
@@ -4470,7 +4839,7 @@
         <v>0.6714</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1">
       <c r="A271" t="s">
         <v>242</v>
       </c>
@@ -4481,7 +4850,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1">
       <c r="A272" t="s">
         <v>51</v>
       </c>
@@ -4492,7 +4861,7 @@
         <v>0.17810999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1">
       <c r="A273" t="s">
         <v>52</v>
       </c>
@@ -4503,7 +4872,7 @@
         <v>0.21096000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -4514,7 +4883,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -4525,7 +4894,7 @@
         <v>0.79979999999999996</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1">
       <c r="A276" t="s">
         <v>243</v>
       </c>
@@ -4536,7 +4905,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1">
       <c r="A277" t="s">
         <v>244</v>
       </c>
@@ -4547,7 +4916,7 @@
         <v>0.48043999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1">
       <c r="A278" t="s">
         <v>245</v>
       </c>
@@ -4558,7 +4927,7 @@
         <v>0.38150000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1">
       <c r="A279" t="s">
         <v>246</v>
       </c>
@@ -4569,7 +4938,7 @@
         <v>0.43758999999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1">
       <c r="A280" t="s">
         <v>247</v>
       </c>
@@ -4580,7 +4949,7 @@
         <v>0.36170000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1">
       <c r="A281" t="s">
         <v>248</v>
       </c>
@@ -4591,7 +4960,7 @@
         <v>0.39190999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1">
       <c r="A282" t="s">
         <v>21</v>
       </c>
@@ -4602,7 +4971,7 @@
         <v>0.21812999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -4613,7 +4982,7 @@
         <v>0.27305000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1">
       <c r="A284" t="s">
         <v>249</v>
       </c>
@@ -4624,7 +4993,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" hidden="1">
       <c r="A285" t="s">
         <v>250</v>
       </c>
@@ -4635,7 +5004,7 @@
         <v>0.55620000000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" hidden="1">
       <c r="A286" t="s">
         <v>251</v>
       </c>
@@ -4646,7 +5015,7 @@
         <v>0.40629999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" hidden="1">
       <c r="A287" t="s">
         <v>252</v>
       </c>
@@ -4657,7 +5026,7 @@
         <v>0.45184000000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" hidden="1">
       <c r="A288" t="s">
         <v>257</v>
       </c>
@@ -4668,7 +5037,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" hidden="1">
       <c r="A289" t="s">
         <v>258</v>
       </c>
@@ -4679,7 +5048,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" hidden="1">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -4690,7 +5059,7 @@
         <v>0.14118</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" hidden="1">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -4701,7 +5070,7 @@
         <v>0.29243000000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" hidden="1">
       <c r="A292" t="s">
         <v>239</v>
       </c>
@@ -4712,7 +5081,7 @@
         <v>0.29933999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" hidden="1">
       <c r="A293" t="s">
         <v>240</v>
       </c>
@@ -4723,7 +5092,7 @@
         <v>0.33484999999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" hidden="1">
       <c r="A294" t="s">
         <v>255</v>
       </c>
@@ -4734,7 +5103,7 @@
         <v>0.1764</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" hidden="1">
       <c r="A295" t="s">
         <v>256</v>
       </c>
@@ -4745,7 +5114,7 @@
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" hidden="1">
       <c r="A296" t="s">
         <v>39</v>
       </c>
@@ -4756,7 +5125,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" hidden="1">
       <c r="A297" t="s">
         <v>40</v>
       </c>
@@ -4767,7 +5136,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" hidden="1">
       <c r="A298" t="s">
         <v>147</v>
       </c>
@@ -4778,7 +5147,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" hidden="1">
       <c r="A299" t="s">
         <v>146</v>
       </c>
@@ -4789,7 +5158,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" hidden="1">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -4800,7 +5169,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" hidden="1">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -4811,7 +5180,7 @@
         <v>0.42393999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" hidden="1">
       <c r="A302" t="s">
         <v>13</v>
       </c>
@@ -4822,7 +5191,7 @@
         <v>0.27007999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" hidden="1">
       <c r="A303" t="s">
         <v>14</v>
       </c>
@@ -4833,7 +5202,7 @@
         <v>0.29982999999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" hidden="1">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -4844,7 +5213,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" hidden="1">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -4855,7 +5224,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" hidden="1">
       <c r="A306" t="s">
         <v>259</v>
       </c>
@@ -4866,7 +5235,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" hidden="1">
       <c r="A307" t="s">
         <v>260</v>
       </c>
@@ -4877,7 +5246,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" hidden="1">
       <c r="A308" t="s">
         <v>261</v>
       </c>
@@ -4888,7 +5257,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" hidden="1">
       <c r="A309" t="s">
         <v>262</v>
       </c>
@@ -4899,7 +5268,7 @@
         <v>0.74092999999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" hidden="1">
       <c r="A310" t="s">
         <v>263</v>
       </c>
@@ -4910,7 +5279,7 @@
         <v>0.31220999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" hidden="1">
       <c r="A311" t="s">
         <v>264</v>
       </c>
@@ -4921,7 +5290,7 @@
         <v>0.57650000000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" hidden="1">
       <c r="A312" t="s">
         <v>251</v>
       </c>
@@ -4932,7 +5301,7 @@
         <v>0.54859999999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" hidden="1">
       <c r="A313" t="s">
         <v>252</v>
       </c>
@@ -4943,7 +5312,7 @@
         <v>0.66569999999999996</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" hidden="1">
       <c r="A314" t="s">
         <v>265</v>
       </c>
@@ -4954,7 +5323,7 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" hidden="1">
       <c r="A315" t="s">
         <v>265</v>
       </c>
@@ -4965,7 +5334,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" hidden="1">
       <c r="A316" t="s">
         <v>266</v>
       </c>
@@ -4976,7 +5345,7 @@
         <v>0.72440000000000004</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" hidden="1">
       <c r="A317" t="s">
         <v>267</v>
       </c>
@@ -4987,7 +5356,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" hidden="1">
       <c r="A318" t="s">
         <v>155</v>
       </c>
@@ -4998,7 +5367,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" hidden="1">
       <c r="A319" t="s">
         <v>156</v>
       </c>
@@ -5009,7 +5378,7 @@
         <v>0.46626000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" hidden="1">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -5020,7 +5389,7 @@
         <v>0.27156999999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" hidden="1">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -5031,7 +5400,7 @@
         <v>0.33933999999999997</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" hidden="1">
       <c r="A322" t="s">
         <v>268</v>
       </c>
@@ -5042,7 +5411,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" hidden="1">
       <c r="A323" t="s">
         <v>269</v>
       </c>
@@ -5053,7 +5422,7 @@
         <v>0.52590000000000003</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" hidden="1">
       <c r="A324" t="s">
         <v>270</v>
       </c>
@@ -5064,7 +5433,7 @@
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" hidden="1">
       <c r="A325" t="s">
         <v>271</v>
       </c>
@@ -5075,7 +5444,7 @@
         <v>0.8669</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" hidden="1">
       <c r="A326" t="s">
         <v>272</v>
       </c>
@@ -5086,7 +5455,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" hidden="1">
       <c r="A327" t="s">
         <v>273</v>
       </c>
@@ -5097,7 +5466,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" hidden="1">
       <c r="A328" t="s">
         <v>274</v>
       </c>
@@ -5108,7 +5477,7 @@
         <v>0.72823000000000004</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" hidden="1">
       <c r="A329" t="s">
         <v>275</v>
       </c>
@@ -5119,7 +5488,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" hidden="1">
       <c r="A330" t="s">
         <v>276</v>
       </c>
@@ -5130,7 +5499,7 @@
         <v>0.23796999999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" hidden="1">
       <c r="A331" t="s">
         <v>277</v>
       </c>
@@ -5141,7 +5510,7 @@
         <v>0.31441999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" hidden="1">
       <c r="A332" t="s">
         <v>253</v>
       </c>
@@ -5152,7 +5521,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" hidden="1">
       <c r="A333" t="s">
         <v>254</v>
       </c>
@@ -5163,7 +5532,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" hidden="1">
       <c r="A334" t="s">
         <v>278</v>
       </c>
@@ -5174,7 +5543,7 @@
         <v>0.70540000000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" hidden="1">
       <c r="A335" t="s">
         <v>279</v>
       </c>
@@ -5185,7 +5554,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" hidden="1">
       <c r="A336" t="s">
         <v>282</v>
       </c>
@@ -5196,7 +5565,7 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" hidden="1">
       <c r="A337" t="s">
         <v>281</v>
       </c>
@@ -5207,7 +5576,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" hidden="1">
       <c r="A338" t="s">
         <v>280</v>
       </c>
@@ -5218,7 +5587,7 @@
         <v>0.6694</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" hidden="1">
       <c r="A339" t="s">
         <v>283</v>
       </c>
@@ -5229,7 +5598,7 @@
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" hidden="1">
       <c r="A340" t="s">
         <v>247</v>
       </c>
@@ -5240,7 +5609,7 @@
         <v>0.69359999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" hidden="1">
       <c r="A341" t="s">
         <v>248</v>
       </c>
@@ -5251,7 +5620,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" hidden="1">
       <c r="A342" t="s">
         <v>284</v>
       </c>
@@ -5262,7 +5631,7 @@
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" hidden="1">
       <c r="A343" t="s">
         <v>285</v>
       </c>
@@ -5273,7 +5642,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" hidden="1">
       <c r="A344" t="s">
         <v>148</v>
       </c>
@@ -5284,7 +5653,7 @@
         <v>0.42670000000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" hidden="1">
       <c r="A345" t="s">
         <v>149</v>
       </c>
@@ -5295,7 +5664,7 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" hidden="1">
       <c r="A346" t="s">
         <v>286</v>
       </c>
@@ -5306,7 +5675,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" hidden="1">
       <c r="A347" t="s">
         <v>287</v>
       </c>
@@ -5317,7 +5686,7 @@
         <v>1.383</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" hidden="1">
       <c r="A348" t="s">
         <v>261</v>
       </c>
@@ -5328,7 +5697,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" hidden="1">
       <c r="A349" t="s">
         <v>262</v>
       </c>
@@ -5339,7 +5708,7 @@
         <v>0.61129999999999995</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>183</v>
       </c>
@@ -5350,7 +5719,7 @@
         <v>3.7629999999999997E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>184</v>
       </c>
@@ -5361,7 +5730,7 @@
         <v>3.2910000000000002E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>289</v>
       </c>
@@ -5372,7 +5741,7 @@
         <v>7.2020000000000001E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>288</v>
       </c>
@@ -5383,7 +5752,7 @@
         <v>6.6269999999999996E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>290</v>
       </c>
@@ -5394,7 +5763,7 @@
         <v>1.7639999999999999E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>291</v>
       </c>
@@ -5405,7 +5774,7 @@
         <v>4.8939999999999997E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>292</v>
       </c>
@@ -5416,7 +5785,7 @@
         <v>6.9269999999999998E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>293</v>
       </c>
@@ -5427,7 +5796,7 @@
         <v>8.9249999999999996E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>116</v>
       </c>
@@ -5438,7 +5807,7 @@
         <v>4.4830000000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>117</v>
       </c>
@@ -5449,7 +5818,7 @@
         <v>4.734E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>294</v>
       </c>
@@ -5460,7 +5829,7 @@
         <v>3.5450000000000002E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>295</v>
       </c>
@@ -5471,7 +5840,7 @@
         <v>5.0650000000000001E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>296</v>
       </c>
@@ -5482,7 +5851,7 @@
         <v>1.389E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>297</v>
       </c>
@@ -5493,7 +5862,7 @@
         <v>5.509E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>298</v>
       </c>
@@ -5504,7 +5873,7 @@
         <v>1.6240000000000001E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>299</v>
       </c>
@@ -5515,7 +5884,7 @@
         <v>1.882E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>300</v>
       </c>
@@ -5526,7 +5895,7 @@
         <v>7.3700000000000002E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>301</v>
       </c>
@@ -5537,7 +5906,7 @@
         <v>8.1850000000000006E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>302</v>
       </c>
@@ -5548,7 +5917,7 @@
         <v>7.7770000000000006E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>303</v>
       </c>
@@ -5559,7 +5928,7 @@
         <v>0.10082000000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>304</v>
       </c>
@@ -5570,7 +5939,7 @@
         <v>6.447E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>305</v>
       </c>
@@ -5581,7 +5950,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>132</v>
       </c>
@@ -5592,7 +5961,7 @@
         <v>0.40227000000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>133</v>
       </c>
@@ -5603,7 +5972,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>128</v>
       </c>
@@ -5614,7 +5983,7 @@
         <v>6.0089999999999998E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>129</v>
       </c>
@@ -5625,7 +5994,7 @@
         <v>0.10811999999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>61</v>
       </c>
@@ -5636,7 +6005,7 @@
         <v>5.2839999999999998E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>62</v>
       </c>
@@ -5647,7 +6016,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>306</v>
       </c>
@@ -5658,7 +6027,7 @@
         <v>4.4010000000000001E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>307</v>
       </c>
@@ -5669,7 +6038,7 @@
         <v>5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>308</v>
       </c>
@@ -5680,7 +6049,7 @@
         <v>0.14635000000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>309</v>
       </c>
@@ -5691,26 +6060,1737 @@
         <v>0.22664000000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>310</v>
       </c>
       <c r="B382">
         <v>11</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C382">
+        <v>0.3417</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>311</v>
       </c>
       <c r="B383">
         <v>11</v>
       </c>
+      <c r="C383">
+        <v>0.40339999999999998</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" hidden="1">
+      <c r="A384" t="s">
+        <v>341</v>
+      </c>
+      <c r="B384">
+        <v>7</v>
+      </c>
+      <c r="C384">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" hidden="1">
+      <c r="A385" t="s">
+        <v>342</v>
+      </c>
+      <c r="B385">
+        <v>7</v>
+      </c>
+      <c r="C385">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" hidden="1">
+      <c r="A386" t="s">
+        <v>343</v>
+      </c>
+      <c r="B386">
+        <v>7</v>
+      </c>
+      <c r="C386">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" hidden="1">
+      <c r="A387" t="s">
+        <v>344</v>
+      </c>
+      <c r="B387">
+        <v>7</v>
+      </c>
+      <c r="C387">
+        <v>2.661</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" hidden="1">
+      <c r="A388" t="s">
+        <v>345</v>
+      </c>
+      <c r="B388">
+        <v>7</v>
+      </c>
+      <c r="C388">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" hidden="1">
+      <c r="A389" t="s">
+        <v>346</v>
+      </c>
+      <c r="B389">
+        <v>7</v>
+      </c>
+      <c r="C389">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" hidden="1">
+      <c r="A390" t="s">
+        <v>347</v>
+      </c>
+      <c r="B390">
+        <v>7</v>
+      </c>
+      <c r="C390">
+        <v>1.4430000000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" hidden="1">
+      <c r="A391" t="s">
+        <v>348</v>
+      </c>
+      <c r="B391">
+        <v>7</v>
+      </c>
+      <c r="C391">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" hidden="1">
+      <c r="A392" t="s">
+        <v>349</v>
+      </c>
+      <c r="B392">
+        <v>7</v>
+      </c>
+      <c r="C392">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" hidden="1">
+      <c r="A393" t="s">
+        <v>350</v>
+      </c>
+      <c r="B393">
+        <v>7</v>
+      </c>
+      <c r="C393">
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" hidden="1">
+      <c r="A394" t="s">
+        <v>352</v>
+      </c>
+      <c r="B394">
+        <v>7</v>
+      </c>
+      <c r="C394">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" hidden="1">
+      <c r="A395" t="s">
+        <v>351</v>
+      </c>
+      <c r="B395">
+        <v>7</v>
+      </c>
+      <c r="C395">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" hidden="1">
+      <c r="A396" t="s">
+        <v>353</v>
+      </c>
+      <c r="B396">
+        <v>7</v>
+      </c>
+      <c r="C396">
+        <v>3.7170000000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" hidden="1">
+      <c r="A397" t="s">
+        <v>354</v>
+      </c>
+      <c r="B397">
+        <v>7</v>
+      </c>
+      <c r="C397">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" hidden="1">
+      <c r="A398" t="s">
+        <v>355</v>
+      </c>
+      <c r="B398">
+        <v>7</v>
+      </c>
+      <c r="C398">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" hidden="1">
+      <c r="A399" t="s">
+        <v>356</v>
+      </c>
+      <c r="B399">
+        <v>7</v>
+      </c>
+      <c r="C399">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" hidden="1">
+      <c r="A400" t="s">
+        <v>357</v>
+      </c>
+      <c r="B400">
+        <v>7</v>
+      </c>
+      <c r="C400">
+        <v>0.37669999999999998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" hidden="1">
+      <c r="A401" t="s">
+        <v>358</v>
+      </c>
+      <c r="B401">
+        <v>7</v>
+      </c>
+      <c r="C401">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" hidden="1">
+      <c r="A402" t="s">
+        <v>360</v>
+      </c>
+      <c r="B402">
+        <v>7</v>
+      </c>
+      <c r="C402">
+        <v>1.5369999999999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" hidden="1">
+      <c r="A403" t="s">
+        <v>359</v>
+      </c>
+      <c r="B403">
+        <v>7</v>
+      </c>
+      <c r="C403">
+        <v>0.98560000000000003</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" hidden="1">
+      <c r="A404" t="s">
+        <v>361</v>
+      </c>
+      <c r="B404">
+        <v>7</v>
+      </c>
+      <c r="C404">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" hidden="1">
+      <c r="A405" t="s">
+        <v>362</v>
+      </c>
+      <c r="B405">
+        <v>7</v>
+      </c>
+      <c r="C405">
+        <v>0.63719999999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" hidden="1">
+      <c r="A406" t="s">
+        <v>363</v>
+      </c>
+      <c r="B406">
+        <v>7</v>
+      </c>
+      <c r="C406">
+        <v>0.51680000000000004</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" hidden="1">
+      <c r="A407" t="s">
+        <v>364</v>
+      </c>
+      <c r="B407">
+        <v>7</v>
+      </c>
+      <c r="C407">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" hidden="1">
+      <c r="A408" t="s">
+        <v>365</v>
+      </c>
+      <c r="B408">
+        <v>7</v>
+      </c>
+      <c r="C408">
+        <v>0.25274999999999997</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" hidden="1">
+      <c r="A409" t="s">
+        <v>366</v>
+      </c>
+      <c r="B409">
+        <v>7</v>
+      </c>
+      <c r="C409">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" hidden="1">
+      <c r="A410" t="s">
+        <v>367</v>
+      </c>
+      <c r="B410">
+        <v>7</v>
+      </c>
+      <c r="C410">
+        <v>0.40961999999999998</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" hidden="1">
+      <c r="A411" t="s">
+        <v>368</v>
+      </c>
+      <c r="B411">
+        <v>7</v>
+      </c>
+      <c r="C411">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" hidden="1">
+      <c r="A412" t="s">
+        <v>369</v>
+      </c>
+      <c r="B412">
+        <v>7</v>
+      </c>
+      <c r="C412">
+        <v>0.41139999999999999</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" hidden="1">
+      <c r="A413" t="s">
+        <v>370</v>
+      </c>
+      <c r="B413">
+        <v>7</v>
+      </c>
+      <c r="C413">
+        <v>0.56203000000000003</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" hidden="1">
+      <c r="A414" t="s">
+        <v>372</v>
+      </c>
+      <c r="B414">
+        <v>7</v>
+      </c>
+      <c r="C414">
+        <v>0.29588999999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" hidden="1">
+      <c r="A415" t="s">
+        <v>371</v>
+      </c>
+      <c r="B415">
+        <v>7</v>
+      </c>
+      <c r="C415">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" hidden="1">
+      <c r="A416" t="s">
+        <v>373</v>
+      </c>
+      <c r="B416">
+        <v>7</v>
+      </c>
+      <c r="C416">
+        <v>0.32380999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" hidden="1">
+      <c r="A417" t="s">
+        <v>374</v>
+      </c>
+      <c r="B417">
+        <v>7</v>
+      </c>
+      <c r="C417">
+        <v>0.4425</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" hidden="1">
+      <c r="A418" t="s">
+        <v>375</v>
+      </c>
+      <c r="B418">
+        <v>7</v>
+      </c>
+      <c r="C418">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" hidden="1">
+      <c r="A419" t="s">
+        <v>376</v>
+      </c>
+      <c r="B419">
+        <v>7</v>
+      </c>
+      <c r="C419">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" hidden="1">
+      <c r="A420" t="s">
+        <v>377</v>
+      </c>
+      <c r="B420">
+        <v>7</v>
+      </c>
+      <c r="C420">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" hidden="1">
+      <c r="A421" t="s">
+        <v>378</v>
+      </c>
+      <c r="B421">
+        <v>7</v>
+      </c>
+      <c r="C421">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" hidden="1">
+      <c r="A422" t="s">
+        <v>379</v>
+      </c>
+      <c r="B422">
+        <v>7</v>
+      </c>
+      <c r="C422">
+        <v>1.5720000000000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" hidden="1">
+      <c r="A423" t="s">
+        <v>380</v>
+      </c>
+      <c r="B423">
+        <v>7</v>
+      </c>
+      <c r="C423">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" hidden="1">
+      <c r="A424" t="s">
+        <v>381</v>
+      </c>
+      <c r="B424">
+        <v>7</v>
+      </c>
+      <c r="C424">
+        <v>0.31669999999999998</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" hidden="1">
+      <c r="A425" t="s">
+        <v>382</v>
+      </c>
+      <c r="B425">
+        <v>7</v>
+      </c>
+      <c r="C425">
+        <v>0.78239999999999998</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" hidden="1">
+      <c r="A426" t="s">
+        <v>383</v>
+      </c>
+      <c r="B426">
+        <v>7</v>
+      </c>
+      <c r="C426">
+        <v>0.34370000000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" hidden="1">
+      <c r="A427" t="s">
+        <v>384</v>
+      </c>
+      <c r="B427">
+        <v>7</v>
+      </c>
+      <c r="C427">
+        <v>0.35570000000000002</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" hidden="1">
+      <c r="A428" t="s">
+        <v>385</v>
+      </c>
+      <c r="B428">
+        <v>13</v>
+      </c>
+      <c r="C428">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" hidden="1">
+      <c r="A429" t="s">
+        <v>386</v>
+      </c>
+      <c r="B429">
+        <v>13</v>
+      </c>
+      <c r="C429">
+        <v>2.907</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" hidden="1">
+      <c r="A430" t="s">
+        <v>387</v>
+      </c>
+      <c r="B430">
+        <v>13</v>
+      </c>
+      <c r="C430">
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" hidden="1">
+      <c r="A431" t="s">
+        <v>388</v>
+      </c>
+      <c r="B431">
+        <v>13</v>
+      </c>
+      <c r="C431">
+        <v>2.5420000000000002E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" hidden="1">
+      <c r="A432" t="s">
+        <v>389</v>
+      </c>
+      <c r="B432">
+        <v>13</v>
+      </c>
+      <c r="C432">
+        <v>0.25369999999999998</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" hidden="1">
+      <c r="A433" t="s">
+        <v>390</v>
+      </c>
+      <c r="B433">
+        <v>13</v>
+      </c>
+      <c r="C433">
+        <v>0.4118</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" hidden="1">
+      <c r="A434" t="s">
+        <v>391</v>
+      </c>
+      <c r="B434">
+        <v>13</v>
+      </c>
+      <c r="C434">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" hidden="1">
+      <c r="A435" t="s">
+        <v>392</v>
+      </c>
+      <c r="B435">
+        <v>13</v>
+      </c>
+      <c r="C435">
+        <v>3.1319900000000001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" hidden="1">
+      <c r="A436" t="s">
+        <v>393</v>
+      </c>
+      <c r="B436">
+        <v>13</v>
+      </c>
+      <c r="C436">
+        <v>2.7230000000000001E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" hidden="1">
+      <c r="A437" t="s">
+        <v>394</v>
+      </c>
+      <c r="B437">
+        <v>13</v>
+      </c>
+      <c r="C437">
+        <v>2.8590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" hidden="1">
+      <c r="A438" t="s">
+        <v>395</v>
+      </c>
+      <c r="B438">
+        <v>13</v>
+      </c>
+      <c r="C438">
+        <v>5.7250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" hidden="1">
+      <c r="A439" t="s">
+        <v>396</v>
+      </c>
+      <c r="B439">
+        <v>13</v>
+      </c>
+      <c r="C439">
+        <v>0.26629999999999998</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" hidden="1">
+      <c r="A440" t="s">
+        <v>398</v>
+      </c>
+      <c r="B440">
+        <v>13</v>
+      </c>
+      <c r="C440">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" hidden="1">
+      <c r="A441" t="s">
+        <v>397</v>
+      </c>
+      <c r="B441">
+        <v>13</v>
+      </c>
+      <c r="C441">
+        <v>0.63380000000000003</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" hidden="1">
+      <c r="A442" t="s">
+        <v>399</v>
+      </c>
+      <c r="B442">
+        <v>13</v>
+      </c>
+      <c r="C442">
+        <v>1.1950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" hidden="1">
+      <c r="A443" t="s">
+        <v>400</v>
+      </c>
+      <c r="B443">
+        <v>13</v>
+      </c>
+      <c r="C443">
+        <v>7.3099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" hidden="1">
+      <c r="A444" t="s">
+        <v>401</v>
+      </c>
+      <c r="B444">
+        <v>13</v>
+      </c>
+      <c r="C444">
+        <v>1.4578</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" hidden="1">
+      <c r="A445" t="s">
+        <v>402</v>
+      </c>
+      <c r="B445">
+        <v>13</v>
+      </c>
+      <c r="C445">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" hidden="1">
+      <c r="A446" t="s">
+        <v>403</v>
+      </c>
+      <c r="B446">
+        <v>13</v>
+      </c>
+      <c r="C446">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" hidden="1">
+      <c r="A447" t="s">
+        <v>404</v>
+      </c>
+      <c r="B447">
+        <v>13</v>
+      </c>
+      <c r="C447">
+        <v>0.27029999999999998</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" hidden="1">
+      <c r="A448" t="s">
+        <v>405</v>
+      </c>
+      <c r="B448">
+        <v>13</v>
+      </c>
+      <c r="C448">
+        <v>0.31412000000000001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" hidden="1">
+      <c r="A449" t="s">
+        <v>406</v>
+      </c>
+      <c r="B449">
+        <v>13</v>
+      </c>
+      <c r="C449">
+        <v>0.26987</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" hidden="1">
+      <c r="A450" t="s">
+        <v>407</v>
+      </c>
+      <c r="B450">
+        <v>13</v>
+      </c>
+      <c r="C450">
+        <v>0.25589000000000001</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" hidden="1">
+      <c r="A451" t="s">
+        <v>408</v>
+      </c>
+      <c r="B451">
+        <v>13</v>
+      </c>
+      <c r="C451">
+        <v>0.5887</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" hidden="1">
+      <c r="A452" t="s">
+        <v>409</v>
+      </c>
+      <c r="B452">
+        <v>13</v>
+      </c>
+      <c r="C452">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" hidden="1">
+      <c r="A453" t="s">
+        <v>410</v>
+      </c>
+      <c r="B453">
+        <v>13</v>
+      </c>
+      <c r="C453">
+        <v>2.0505</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" hidden="1">
+      <c r="A454" t="s">
+        <v>411</v>
+      </c>
+      <c r="B454">
+        <v>13</v>
+      </c>
+      <c r="C454">
+        <v>0.27052999999999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" hidden="1">
+      <c r="A455" t="s">
+        <v>412</v>
+      </c>
+      <c r="B455">
+        <v>13</v>
+      </c>
+      <c r="C455">
+        <v>0.44579999999999997</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" hidden="1">
+      <c r="A456" t="s">
+        <v>413</v>
+      </c>
+      <c r="B456">
+        <v>13</v>
+      </c>
+      <c r="C456">
+        <v>2.5779999999999998</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" hidden="1">
+      <c r="A457" t="s">
+        <v>414</v>
+      </c>
+      <c r="B457">
+        <v>13</v>
+      </c>
+      <c r="C457">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" hidden="1">
+      <c r="A458" t="s">
+        <v>415</v>
+      </c>
+      <c r="B458">
+        <v>13</v>
+      </c>
+      <c r="C458">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" hidden="1">
+      <c r="A459" t="s">
+        <v>416</v>
+      </c>
+      <c r="B459">
+        <v>13</v>
+      </c>
+      <c r="C459">
+        <v>3.0680000000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" hidden="1">
+      <c r="A460" t="s">
+        <v>417</v>
+      </c>
+      <c r="B460">
+        <v>13</v>
+      </c>
+      <c r="C460">
+        <v>2.0219999999999998E-2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" hidden="1">
+      <c r="A461" t="s">
+        <v>418</v>
+      </c>
+      <c r="B461">
+        <v>13</v>
+      </c>
+      <c r="C461">
+        <v>3.6519999999999997E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" hidden="1">
+      <c r="A462" t="s">
+        <v>419</v>
+      </c>
+      <c r="B462">
+        <v>13</v>
+      </c>
+      <c r="C462">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" hidden="1">
+      <c r="A463" t="s">
+        <v>420</v>
+      </c>
+      <c r="B463">
+        <v>13</v>
+      </c>
+      <c r="C463">
+        <v>0.33879999999999999</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" hidden="1">
+      <c r="A464" t="s">
+        <v>421</v>
+      </c>
+      <c r="B464">
+        <v>13</v>
+      </c>
+      <c r="C464">
+        <v>0.22883999999999999</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" hidden="1">
+      <c r="A465" t="s">
+        <v>422</v>
+      </c>
+      <c r="B465">
+        <v>13</v>
+      </c>
+      <c r="C465">
+        <v>0.3352</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" hidden="1">
+      <c r="A466" t="s">
+        <v>367</v>
+      </c>
+      <c r="B466">
+        <v>13</v>
+      </c>
+      <c r="C466">
+        <v>0.27907999999999999</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" hidden="1">
+      <c r="A467" t="s">
+        <v>368</v>
+      </c>
+      <c r="B467">
+        <v>13</v>
+      </c>
+      <c r="C467">
+        <v>0.21009</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" hidden="1">
+      <c r="A468" t="s">
+        <v>360</v>
+      </c>
+      <c r="B468">
+        <v>13</v>
+      </c>
+      <c r="C468">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" hidden="1">
+      <c r="A469" t="s">
+        <v>359</v>
+      </c>
+      <c r="B469">
+        <v>13</v>
+      </c>
+      <c r="C469">
+        <v>0.64849999999999997</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" hidden="1">
+      <c r="A470" t="s">
+        <v>423</v>
+      </c>
+      <c r="B470">
+        <v>13</v>
+      </c>
+      <c r="C470">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" hidden="1">
+      <c r="A471" t="s">
+        <v>424</v>
+      </c>
+      <c r="B471">
+        <v>13</v>
+      </c>
+      <c r="C471">
+        <v>0.51541000000000003</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" hidden="1">
+      <c r="A472" t="s">
+        <v>391</v>
+      </c>
+      <c r="B472">
+        <v>10</v>
+      </c>
+      <c r="C472">
+        <v>2.7509999999999999</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" hidden="1">
+      <c r="A473" t="s">
+        <v>392</v>
+      </c>
+      <c r="B473">
+        <v>10</v>
+      </c>
+      <c r="C473">
+        <v>3.5142000000000002</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" hidden="1">
+      <c r="A474" t="s">
+        <v>425</v>
+      </c>
+      <c r="B474">
+        <v>10</v>
+      </c>
+      <c r="C474">
+        <v>0.47749000000000003</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" hidden="1">
+      <c r="A475" t="s">
+        <v>426</v>
+      </c>
+      <c r="B475">
+        <v>10</v>
+      </c>
+      <c r="C475">
+        <v>0.38290000000000002</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" hidden="1">
+      <c r="A476" t="s">
+        <v>385</v>
+      </c>
+      <c r="B476">
+        <v>10</v>
+      </c>
+      <c r="C476">
+        <v>3.5089999999999999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" hidden="1">
+      <c r="A477" t="s">
+        <v>386</v>
+      </c>
+      <c r="B477">
+        <v>10</v>
+      </c>
+      <c r="C477">
+        <v>2.8460000000000001</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" hidden="1">
+      <c r="A478" t="s">
+        <v>427</v>
+      </c>
+      <c r="B478">
+        <v>10</v>
+      </c>
+      <c r="C478">
+        <v>0.82630000000000003</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" hidden="1">
+      <c r="A479" t="s">
+        <v>428</v>
+      </c>
+      <c r="B479">
+        <v>10</v>
+      </c>
+      <c r="C479">
+        <v>0.69230000000000003</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" hidden="1">
+      <c r="A480" t="s">
+        <v>429</v>
+      </c>
+      <c r="B480">
+        <v>10</v>
+      </c>
+      <c r="C480">
+        <v>0.70909999999999995</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" hidden="1">
+      <c r="A481" t="s">
+        <v>430</v>
+      </c>
+      <c r="B481">
+        <v>10</v>
+      </c>
+      <c r="C481">
+        <v>0.79320000000000002</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" hidden="1">
+      <c r="A482" t="s">
+        <v>431</v>
+      </c>
+      <c r="B482">
+        <v>10</v>
+      </c>
+      <c r="C482">
+        <v>6.5250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" hidden="1">
+      <c r="A483" t="s">
+        <v>432</v>
+      </c>
+      <c r="B483">
+        <v>10</v>
+      </c>
+      <c r="C483">
+        <v>0.27443000000000001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" hidden="1">
+      <c r="A484" t="s">
+        <v>433</v>
+      </c>
+      <c r="B484">
+        <v>10</v>
+      </c>
+      <c r="C484">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" hidden="1">
+      <c r="A485" t="s">
+        <v>434</v>
+      </c>
+      <c r="B485">
+        <v>10</v>
+      </c>
+      <c r="C485">
+        <v>0.41150999999999999</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" hidden="1">
+      <c r="A486" t="s">
+        <v>435</v>
+      </c>
+      <c r="B486">
+        <v>10</v>
+      </c>
+      <c r="C486">
+        <v>5.389E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" hidden="1">
+      <c r="A487" t="s">
+        <v>436</v>
+      </c>
+      <c r="B487">
+        <v>10</v>
+      </c>
+      <c r="C487">
+        <v>0.12278</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" hidden="1">
+      <c r="A488" t="s">
+        <v>375</v>
+      </c>
+      <c r="B488">
+        <v>10</v>
+      </c>
+      <c r="C488">
+        <v>0.28103</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" hidden="1">
+      <c r="A489" t="s">
+        <v>376</v>
+      </c>
+      <c r="B489">
+        <v>10</v>
+      </c>
+      <c r="C489">
+        <v>0.36337000000000003</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" hidden="1">
+      <c r="A490" t="s">
+        <v>361</v>
+      </c>
+      <c r="B490">
+        <v>10</v>
+      </c>
+      <c r="C490">
+        <v>0.99741999999999997</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" hidden="1">
+      <c r="A491" t="s">
+        <v>362</v>
+      </c>
+      <c r="B491">
+        <v>10</v>
+      </c>
+      <c r="C491">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" hidden="1">
+      <c r="A492" t="s">
+        <v>266</v>
+      </c>
+      <c r="B492">
+        <v>12</v>
+      </c>
+      <c r="C492">
+        <v>0.77614000000000005</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" hidden="1">
+      <c r="A493" t="s">
+        <v>267</v>
+      </c>
+      <c r="B493">
+        <v>12</v>
+      </c>
+      <c r="C493">
+        <v>0.65720000000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" hidden="1">
+      <c r="A494" t="s">
+        <v>53</v>
+      </c>
+      <c r="B494">
+        <v>12</v>
+      </c>
+      <c r="C494">
+        <v>1.2170000000000001</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" hidden="1">
+      <c r="A495" t="s">
+        <v>54</v>
+      </c>
+      <c r="B495">
+        <v>12</v>
+      </c>
+      <c r="C495">
+        <v>1.2855000000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" hidden="1">
+      <c r="A496" t="s">
+        <v>437</v>
+      </c>
+      <c r="B496">
+        <v>12</v>
+      </c>
+      <c r="C496">
+        <v>0.63939999999999997</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" hidden="1">
+      <c r="A497" t="s">
+        <v>438</v>
+      </c>
+      <c r="B497">
+        <v>12</v>
+      </c>
+      <c r="C497">
+        <v>0.84209999999999996</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" hidden="1">
+      <c r="A498" t="s">
+        <v>439</v>
+      </c>
+      <c r="B498">
+        <v>12</v>
+      </c>
+      <c r="C498">
+        <v>0.25790999999999997</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" hidden="1">
+      <c r="A499" t="s">
+        <v>440</v>
+      </c>
+      <c r="B499">
+        <v>12</v>
+      </c>
+      <c r="C499">
+        <v>0.51287000000000005</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" hidden="1">
+      <c r="A500" t="s">
+        <v>235</v>
+      </c>
+      <c r="B500">
+        <v>12</v>
+      </c>
+      <c r="C500">
+        <v>0.38386999999999999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" hidden="1">
+      <c r="A501" t="s">
+        <v>236</v>
+      </c>
+      <c r="B501">
+        <v>12</v>
+      </c>
+      <c r="C501">
+        <v>0.56845000000000001</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" hidden="1">
+      <c r="A502" t="s">
+        <v>7</v>
+      </c>
+      <c r="B502">
+        <v>12</v>
+      </c>
+      <c r="C502">
+        <v>0.2016</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" hidden="1">
+      <c r="A503" t="s">
+        <v>8</v>
+      </c>
+      <c r="B503">
+        <v>12</v>
+      </c>
+      <c r="C503">
+        <v>0.72062000000000004</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" hidden="1">
+      <c r="A504" t="s">
+        <v>57</v>
+      </c>
+      <c r="B504">
+        <v>12</v>
+      </c>
+      <c r="C504">
+        <v>0.39378000000000002</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" hidden="1">
+      <c r="A505" t="s">
+        <v>58</v>
+      </c>
+      <c r="B505">
+        <v>12</v>
+      </c>
+      <c r="C505">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" hidden="1">
+      <c r="A506" t="s">
+        <v>21</v>
+      </c>
+      <c r="B506">
+        <v>12</v>
+      </c>
+      <c r="C506">
+        <v>0.3024</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" hidden="1">
+      <c r="A507" t="s">
+        <v>22</v>
+      </c>
+      <c r="B507">
+        <v>12</v>
+      </c>
+      <c r="C507">
+        <v>0.42201</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" hidden="1">
+      <c r="A508" t="s">
+        <v>441</v>
+      </c>
+      <c r="B508">
+        <v>12</v>
+      </c>
+      <c r="C508">
+        <v>0.1832</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" hidden="1">
+      <c r="A509" t="s">
+        <v>442</v>
+      </c>
+      <c r="B509">
+        <v>12</v>
+      </c>
+      <c r="C509">
+        <v>0.37813999999999998</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" hidden="1">
+      <c r="A510" t="s">
+        <v>41</v>
+      </c>
+      <c r="B510">
+        <v>12</v>
+      </c>
+      <c r="C510">
+        <v>0.45279999999999998</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" hidden="1">
+      <c r="A511" t="s">
+        <v>42</v>
+      </c>
+      <c r="B511">
+        <v>12</v>
+      </c>
+      <c r="C511">
+        <v>0.38067000000000001</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>120</v>
+      </c>
+      <c r="B512">
+        <v>11</v>
+      </c>
+      <c r="C512">
+        <v>0.45540000000000003</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>121</v>
+      </c>
+      <c r="B513">
+        <v>11</v>
+      </c>
+      <c r="C513">
+        <v>0.70538999999999996</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>443</v>
+      </c>
+      <c r="B514">
+        <v>11</v>
+      </c>
+      <c r="C514">
+        <v>0.39810000000000001</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>444</v>
+      </c>
+      <c r="B515">
+        <v>11</v>
+      </c>
+      <c r="C515">
+        <v>4.6330000000000003E-2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>65</v>
+      </c>
+      <c r="B516">
+        <v>11</v>
+      </c>
+      <c r="C516">
+        <v>0.3785</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>152</v>
+      </c>
+      <c r="B517">
+        <v>11</v>
+      </c>
+      <c r="C517">
+        <v>0.45540000000000003</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>445</v>
+      </c>
+      <c r="B518">
+        <v>11</v>
+      </c>
+      <c r="C518">
+        <v>3.2070000000000001E-2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>446</v>
+      </c>
+      <c r="B519">
+        <v>11</v>
+      </c>
+      <c r="C519">
+        <v>4.888E-2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>447</v>
+      </c>
+      <c r="B520">
+        <v>11</v>
+      </c>
+      <c r="C520">
+        <v>1.188E-2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>448</v>
+      </c>
+      <c r="B521">
+        <v>11</v>
+      </c>
+      <c r="C521">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>166</v>
+      </c>
+      <c r="B522">
+        <v>11</v>
+      </c>
+      <c r="C522">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>167</v>
+      </c>
+      <c r="B523">
+        <v>11</v>
+      </c>
+      <c r="C523">
+        <v>0.15287000000000001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>449</v>
+      </c>
+      <c r="B524">
+        <v>11</v>
+      </c>
+      <c r="C524">
+        <v>0.16391</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>450</v>
+      </c>
+      <c r="B525">
+        <v>11</v>
+      </c>
+      <c r="C525">
+        <v>0.29032999999999998</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
+        <v>451</v>
+      </c>
+      <c r="B526">
+        <v>11</v>
+      </c>
+      <c r="C526">
+        <v>4.2529999999999998E-2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
+        <v>452</v>
+      </c>
+      <c r="B527">
+        <v>11</v>
+      </c>
+      <c r="C527">
+        <v>0.1069</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>453</v>
+      </c>
+      <c r="B528">
+        <v>11</v>
+      </c>
+      <c r="C528">
+        <v>3.083E-2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
+        <v>454</v>
+      </c>
+      <c r="B529">
+        <v>11</v>
+      </c>
+      <c r="C529">
+        <v>6.3799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>161</v>
+      </c>
+      <c r="B530">
+        <v>11</v>
+      </c>
+      <c r="C530">
+        <v>0.57410000000000005</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
+        <v>162</v>
+      </c>
+      <c r="B531">
+        <v>11</v>
+      </c>
+      <c r="C531">
+        <v>0.55911</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>455</v>
+      </c>
+      <c r="B532">
+        <v>11</v>
+      </c>
+      <c r="C532">
+        <v>5.8220000000000001E-2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
+        <v>456</v>
+      </c>
+      <c r="B533">
+        <v>11</v>
+      </c>
+      <c r="C533">
+        <v>4.8579999999999998E-2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
+        <v>457</v>
+      </c>
+      <c r="B534">
+        <v>11</v>
+      </c>
+      <c r="C534">
+        <v>0.25821</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
+        <v>458</v>
+      </c>
+      <c r="B535">
+        <v>11</v>
+      </c>
+      <c r="C535">
+        <v>0.42663000000000001</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" t="s">
+        <v>459</v>
+      </c>
+      <c r="B536">
+        <v>11</v>
+      </c>
+      <c r="C536">
+        <v>6.9940000000000002E-2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
+        <v>460</v>
+      </c>
+      <c r="B537">
+        <v>11</v>
+      </c>
+      <c r="C537">
+        <v>7.4329999999999993E-2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F383"/>
+  <autoFilter ref="A1:F511">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="11"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5722,9 +7802,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>312</v>
       </c>
@@ -5732,7 +7812,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>321</v>
       </c>
@@ -5740,7 +7820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>322</v>
       </c>
@@ -5748,7 +7828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>323</v>
       </c>
@@ -5756,7 +7836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -5764,7 +7844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>324</v>
       </c>
@@ -5772,7 +7852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>326</v>
       </c>
@@ -5780,7 +7860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -5788,7 +7868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>328</v>
       </c>
@@ -5796,7 +7876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>329</v>
       </c>
@@ -5804,7 +7884,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>330</v>
       </c>
@@ -5812,7 +7892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>331</v>
       </c>
@@ -5820,7 +7900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>332</v>
       </c>
@@ -5828,7 +7908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>333</v>
       </c>
@@ -5836,7 +7916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -5844,7 +7924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>335</v>
       </c>
@@ -5852,7 +7932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -5860,7 +7940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -5868,7 +7948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>338</v>
       </c>
@@ -5878,6 +7958,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5889,9 +7974,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>314</v>
       </c>
@@ -5899,12 +7984,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>316</v>
       </c>
@@ -5915,7 +8000,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -5923,7 +8008,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -5933,5 +8018,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/CG_SLA.xlsx
+++ b/CG_SLA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="500">
   <si>
     <t>IND</t>
   </si>
@@ -1410,6 +1410,123 @@
   </si>
   <si>
     <t>AROMEL_HF_8B_2</t>
+  </si>
+  <si>
+    <t>QUERUB_HF_99_1</t>
+  </si>
+  <si>
+    <t>QUERUB_HF_99_2</t>
+  </si>
+  <si>
+    <t>QUERUB_GR_9_1</t>
+  </si>
+  <si>
+    <t>QUERUB_GR_9_2</t>
+  </si>
+  <si>
+    <t>BETPOP_WM_8_1</t>
+  </si>
+  <si>
+    <t>BETPOP_WM_8_2</t>
+  </si>
+  <si>
+    <t>QUEALB_HF_4A_1</t>
+  </si>
+  <si>
+    <t>QUEALB_HF_4A_2</t>
+  </si>
+  <si>
+    <t>QUEALB_HF_4B_1</t>
+  </si>
+  <si>
+    <t>QUEALB_HF_4B_2</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_3_1</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_3_2</t>
+  </si>
+  <si>
+    <t>BETALL_SH_7_1</t>
+  </si>
+  <si>
+    <t>BETALL_SH_7_2</t>
+  </si>
+  <si>
+    <t>BETALL_GR_14_1</t>
+  </si>
+  <si>
+    <t>BETALL_GR_14_2</t>
+  </si>
+  <si>
+    <t>AMECAN_SH_3_1</t>
+  </si>
+  <si>
+    <t>AMECAN_SH_3_2</t>
+  </si>
+  <si>
+    <t>ALNINC_SH_4_2</t>
+  </si>
+  <si>
+    <t>BETPOP_WM_9_1</t>
+  </si>
+  <si>
+    <t>BETPOP_WM_9_2</t>
+  </si>
+  <si>
+    <t>QUEALB_HF_4_1</t>
+  </si>
+  <si>
+    <t>QUEALB_HF_4_2</t>
+  </si>
+  <si>
+    <t>MYRGAL_WM_6_1</t>
+  </si>
+  <si>
+    <t>MYRGAL_WM_6_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_WM_7_1</t>
+  </si>
+  <si>
+    <t>VIBCAS_WM_7_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_HF_7_2</t>
+  </si>
+  <si>
+    <t>VIBCAS_HF_7_1</t>
+  </si>
+  <si>
+    <t>VIBCAS_GR_3_1</t>
+  </si>
+  <si>
+    <t>VIBCAS_GR_3_2</t>
+  </si>
+  <si>
+    <t>AROMEL_HF_13_1</t>
+  </si>
+  <si>
+    <t>AROMEL_HF_13_2</t>
+  </si>
+  <si>
+    <t>DIELON_GR_6_1</t>
+  </si>
+  <si>
+    <t>DIELON_GR_6_2</t>
+  </si>
+  <si>
+    <t>DIELON_GR_2_1</t>
+  </si>
+  <si>
+    <t>DIELON_GR_2_2</t>
+  </si>
+  <si>
+    <t>MYRGAL_SH_99_1</t>
+  </si>
+  <si>
+    <t>MYRGAL_SH_99_2</t>
   </si>
 </sst>
 </file>
@@ -1831,13 +1948,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G537"/>
+  <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B517" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B597" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C538" sqref="C538"/>
+      <selection pane="bottomRight" activeCell="C610" sqref="C610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -7774,6 +7891,798 @@
       </c>
       <c r="C537">
         <v>7.4329999999999993E-2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
+        <v>461</v>
+      </c>
+      <c r="B538">
+        <v>5</v>
+      </c>
+      <c r="C538">
+        <v>0.57140000000000002</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
+        <v>462</v>
+      </c>
+      <c r="B539">
+        <v>5</v>
+      </c>
+      <c r="C539">
+        <v>1.1574800000000001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
+        <v>463</v>
+      </c>
+      <c r="B540">
+        <v>5</v>
+      </c>
+      <c r="C540">
+        <v>0.64554999999999996</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
+        <v>464</v>
+      </c>
+      <c r="B541">
+        <v>5</v>
+      </c>
+      <c r="C541">
+        <v>0.69989999999999997</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
+        <v>465</v>
+      </c>
+      <c r="B542">
+        <v>16</v>
+      </c>
+      <c r="C542">
+        <v>0.37859999999999999</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
+        <v>466</v>
+      </c>
+      <c r="B543">
+        <v>16</v>
+      </c>
+      <c r="C543">
+        <v>0.52059999999999995</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
+        <v>467</v>
+      </c>
+      <c r="B544">
+        <v>16</v>
+      </c>
+      <c r="C544">
+        <v>0.36959999999999998</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
+        <v>468</v>
+      </c>
+      <c r="B545">
+        <v>16</v>
+      </c>
+      <c r="C545">
+        <v>0.51459999999999995</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>469</v>
+      </c>
+      <c r="B546">
+        <v>16</v>
+      </c>
+      <c r="C546">
+        <v>0.52005999999999997</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" t="s">
+        <v>470</v>
+      </c>
+      <c r="B547">
+        <v>16</v>
+      </c>
+      <c r="C547">
+        <v>0.48520000000000002</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" t="s">
+        <v>237</v>
+      </c>
+      <c r="B548">
+        <v>16</v>
+      </c>
+      <c r="C548">
+        <v>0.57272000000000001</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" t="s">
+        <v>238</v>
+      </c>
+      <c r="B549">
+        <v>16</v>
+      </c>
+      <c r="C549">
+        <v>0.60045000000000004</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" t="s">
+        <v>259</v>
+      </c>
+      <c r="B550">
+        <v>16</v>
+      </c>
+      <c r="C550">
+        <v>0.52549000000000001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" t="s">
+        <v>260</v>
+      </c>
+      <c r="B551">
+        <v>16</v>
+      </c>
+      <c r="C551">
+        <v>0.63165000000000004</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>29</v>
+      </c>
+      <c r="B552">
+        <v>16</v>
+      </c>
+      <c r="C552">
+        <v>0.34847</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" t="s">
+        <v>30</v>
+      </c>
+      <c r="B553">
+        <v>16</v>
+      </c>
+      <c r="C553">
+        <v>0.31190000000000001</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" t="s">
+        <v>471</v>
+      </c>
+      <c r="B554">
+        <v>16</v>
+      </c>
+      <c r="C554">
+        <v>0.57054000000000005</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" t="s">
+        <v>472</v>
+      </c>
+      <c r="B555">
+        <v>16</v>
+      </c>
+      <c r="C555">
+        <v>0.58545000000000003</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" t="s">
+        <v>473</v>
+      </c>
+      <c r="B556">
+        <v>16</v>
+      </c>
+      <c r="C556">
+        <v>0.46877000000000002</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" t="s">
+        <v>474</v>
+      </c>
+      <c r="B557">
+        <v>16</v>
+      </c>
+      <c r="C557">
+        <v>0.66905999999999999</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" t="s">
+        <v>280</v>
+      </c>
+      <c r="B558">
+        <v>16</v>
+      </c>
+      <c r="C558">
+        <v>0.47161999999999998</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" t="s">
+        <v>283</v>
+      </c>
+      <c r="B559">
+        <v>16</v>
+      </c>
+      <c r="C559">
+        <v>0.57823999999999998</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>475</v>
+      </c>
+      <c r="B560">
+        <v>16</v>
+      </c>
+      <c r="C560">
+        <v>0.30863000000000002</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" t="s">
+        <v>476</v>
+      </c>
+      <c r="B561">
+        <v>16</v>
+      </c>
+      <c r="C561">
+        <v>0.1852</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" t="s">
+        <v>257</v>
+      </c>
+      <c r="B562">
+        <v>16</v>
+      </c>
+      <c r="C562">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" t="s">
+        <v>258</v>
+      </c>
+      <c r="B563">
+        <v>16</v>
+      </c>
+      <c r="C563">
+        <v>0.45527000000000001</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" t="s">
+        <v>261</v>
+      </c>
+      <c r="B564">
+        <v>15</v>
+      </c>
+      <c r="C564">
+        <v>0.22475999999999999</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" t="s">
+        <v>262</v>
+      </c>
+      <c r="B565">
+        <v>15</v>
+      </c>
+      <c r="C565">
+        <v>0.22148999999999999</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" t="s">
+        <v>477</v>
+      </c>
+      <c r="B566">
+        <v>15</v>
+      </c>
+      <c r="C566">
+        <v>0.13177</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" t="s">
+        <v>478</v>
+      </c>
+      <c r="B567">
+        <v>15</v>
+      </c>
+      <c r="C567">
+        <v>0.20632</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" t="s">
+        <v>475</v>
+      </c>
+      <c r="B568">
+        <v>15</v>
+      </c>
+      <c r="C568">
+        <v>0.23355000000000001</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" t="s">
+        <v>476</v>
+      </c>
+      <c r="B569">
+        <v>15</v>
+      </c>
+      <c r="C569">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" t="s">
+        <v>265</v>
+      </c>
+      <c r="B570">
+        <v>15</v>
+      </c>
+      <c r="C570">
+        <v>0.57479999999999998</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" t="s">
+        <v>479</v>
+      </c>
+      <c r="B571">
+        <v>15</v>
+      </c>
+      <c r="C571">
+        <v>0.6452</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" t="s">
+        <v>480</v>
+      </c>
+      <c r="B572">
+        <v>15</v>
+      </c>
+      <c r="C572">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" t="s">
+        <v>481</v>
+      </c>
+      <c r="B573">
+        <v>15</v>
+      </c>
+      <c r="C573">
+        <v>0.35571999999999998</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" t="s">
+        <v>272</v>
+      </c>
+      <c r="B574">
+        <v>15</v>
+      </c>
+      <c r="C574">
+        <v>0.8054</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" t="s">
+        <v>273</v>
+      </c>
+      <c r="B575">
+        <v>15</v>
+      </c>
+      <c r="C575">
+        <v>0.71469000000000005</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" t="s">
+        <v>147</v>
+      </c>
+      <c r="B576">
+        <v>15</v>
+      </c>
+      <c r="C576">
+        <v>0.69720000000000004</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" t="s">
+        <v>146</v>
+      </c>
+      <c r="B577">
+        <v>15</v>
+      </c>
+      <c r="C577">
+        <v>0.71519999999999995</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" t="s">
+        <v>482</v>
+      </c>
+      <c r="B578">
+        <v>15</v>
+      </c>
+      <c r="C578">
+        <v>0.26496999999999998</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" t="s">
+        <v>483</v>
+      </c>
+      <c r="B579">
+        <v>15</v>
+      </c>
+      <c r="C579">
+        <v>0.66105000000000003</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" t="s">
+        <v>4</v>
+      </c>
+      <c r="B580">
+        <v>15</v>
+      </c>
+      <c r="C580">
+        <v>0.35120000000000001</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>5</v>
+      </c>
+      <c r="B581">
+        <v>15</v>
+      </c>
+      <c r="C581">
+        <v>0.40135999999999999</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>465</v>
+      </c>
+      <c r="B582">
+        <v>15</v>
+      </c>
+      <c r="C582">
+        <v>0.21906999999999999</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" t="s">
+        <v>466</v>
+      </c>
+      <c r="B583">
+        <v>15</v>
+      </c>
+      <c r="C583">
+        <v>0.30590000000000001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" t="s">
+        <v>484</v>
+      </c>
+      <c r="B584">
+        <v>14</v>
+      </c>
+      <c r="C584">
+        <v>4.7759999999999997E-2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" t="s">
+        <v>485</v>
+      </c>
+      <c r="B585">
+        <v>14</v>
+      </c>
+      <c r="C585">
+        <v>6.8309999999999996E-2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>486</v>
+      </c>
+      <c r="B586">
+        <v>14</v>
+      </c>
+      <c r="C586">
+        <v>8.5550000000000001E-2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>487</v>
+      </c>
+      <c r="B587">
+        <v>14</v>
+      </c>
+      <c r="C587">
+        <v>0.11147</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" t="s">
+        <v>343</v>
+      </c>
+      <c r="B588">
+        <v>14</v>
+      </c>
+      <c r="C588">
+        <v>0.4854</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" t="s">
+        <v>344</v>
+      </c>
+      <c r="B589">
+        <v>14</v>
+      </c>
+      <c r="C589">
+        <v>0.27033000000000001</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" t="s">
+        <v>177</v>
+      </c>
+      <c r="B590">
+        <v>14</v>
+      </c>
+      <c r="C590">
+        <v>0.14149999999999999</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" t="s">
+        <v>178</v>
+      </c>
+      <c r="B591">
+        <v>14</v>
+      </c>
+      <c r="C591">
+        <v>0.13986999999999999</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" t="s">
+        <v>489</v>
+      </c>
+      <c r="B592">
+        <v>14</v>
+      </c>
+      <c r="C592">
+        <v>0.42691000000000001</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" t="s">
+        <v>488</v>
+      </c>
+      <c r="B593">
+        <v>14</v>
+      </c>
+      <c r="C593">
+        <v>0.58216000000000001</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" t="s">
+        <v>490</v>
+      </c>
+      <c r="B594">
+        <v>14</v>
+      </c>
+      <c r="C594">
+        <v>0.26669999999999999</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" t="s">
+        <v>491</v>
+      </c>
+      <c r="B595">
+        <v>14</v>
+      </c>
+      <c r="C595">
+        <v>0.32826</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" t="s">
+        <v>492</v>
+      </c>
+      <c r="B596">
+        <v>14</v>
+      </c>
+      <c r="C596">
+        <v>0.26695000000000002</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" t="s">
+        <v>493</v>
+      </c>
+      <c r="B597">
+        <v>14</v>
+      </c>
+      <c r="C597">
+        <v>0.26308999999999999</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" t="s">
+        <v>494</v>
+      </c>
+      <c r="B598">
+        <v>14</v>
+      </c>
+      <c r="C598">
+        <v>0.25314999999999999</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" t="s">
+        <v>495</v>
+      </c>
+      <c r="B599">
+        <v>14</v>
+      </c>
+      <c r="C599">
+        <v>0.25253999999999999</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" t="s">
+        <v>496</v>
+      </c>
+      <c r="B600">
+        <v>14</v>
+      </c>
+      <c r="C600">
+        <v>0.26413999999999999</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" t="s">
+        <v>497</v>
+      </c>
+      <c r="B601">
+        <v>14</v>
+      </c>
+      <c r="C601">
+        <v>0.50971999999999995</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" t="s">
+        <v>308</v>
+      </c>
+      <c r="B602">
+        <v>14</v>
+      </c>
+      <c r="C602">
+        <v>0.2772</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" t="s">
+        <v>309</v>
+      </c>
+      <c r="B603">
+        <v>14</v>
+      </c>
+      <c r="C603">
+        <v>0.34029999999999999</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" t="s">
+        <v>498</v>
+      </c>
+      <c r="B604">
+        <v>14</v>
+      </c>
+      <c r="C604">
+        <v>4.546E-2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" t="s">
+        <v>499</v>
+      </c>
+      <c r="B605">
+        <v>14</v>
+      </c>
+      <c r="C605">
+        <v>5.058E-2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" t="s">
+        <v>367</v>
+      </c>
+      <c r="B606">
+        <v>14</v>
+      </c>
+      <c r="C606">
+        <v>5.4890000000000001E-2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" t="s">
+        <v>368</v>
+      </c>
+      <c r="B607">
+        <v>14</v>
+      </c>
+      <c r="C607">
+        <v>6.4530000000000004E-2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" t="s">
+        <v>360</v>
+      </c>
+      <c r="B608">
+        <v>14</v>
+      </c>
+      <c r="C608">
+        <v>0.32839000000000002</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" t="s">
+        <v>359</v>
+      </c>
+      <c r="B609">
+        <v>14</v>
+      </c>
+      <c r="C609">
+        <v>0.33277000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/CG_SLA.xlsx
+++ b/CG_SLA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$511</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$609</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="502">
   <si>
     <t>IND</t>
   </si>
@@ -662,12 +662,6 @@
     <t>SPIALB_GR_7_2</t>
   </si>
   <si>
-    <t>SPIALB_GR_4B_1</t>
-  </si>
-  <si>
-    <t>SPIALB_GR_4B_2</t>
-  </si>
-  <si>
     <t>MYRGAL_GR_8C_1</t>
   </si>
   <si>
@@ -1527,6 +1521,18 @@
   </si>
   <si>
     <t>MYRGAL_SH_99_2</t>
+  </si>
+  <si>
+    <t>SPITOM_GR_1B_1</t>
+  </si>
+  <si>
+    <t>SPITOM_GR_1B_2</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_4B_1</t>
+  </si>
+  <si>
+    <t>SPIALB_SH_4B_2</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1545,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1578,8 +1583,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1598,7 +1607,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1606,6 +1615,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1613,6 +1624,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1951,10 +1964,10 @@
   <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B597" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C610" sqref="C610"/>
+      <selection pane="bottomRight" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1982,7 +1995,7 @@
         <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1">
@@ -1995,6 +2008,9 @@
       <c r="C2">
         <v>0.38679999999999998</v>
       </c>
+      <c r="E2">
+        <v>0.13753000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:7" hidden="1">
       <c r="A3" t="s">
@@ -2006,6 +2022,9 @@
       <c r="C3">
         <v>0.32601999999999998</v>
       </c>
+      <c r="E3">
+        <v>0.11472</v>
+      </c>
     </row>
     <row r="4" spans="1:7" hidden="1">
       <c r="A4" t="s">
@@ -2017,6 +2036,9 @@
       <c r="C4">
         <v>0.34300000000000003</v>
       </c>
+      <c r="E4">
+        <v>0.13888</v>
+      </c>
     </row>
     <row r="5" spans="1:7" hidden="1">
       <c r="A5" t="s">
@@ -2028,6 +2050,9 @@
       <c r="C5">
         <v>0.26169999999999999</v>
       </c>
+      <c r="E5">
+        <v>0.10971</v>
+      </c>
     </row>
     <row r="6" spans="1:7" hidden="1">
       <c r="A6" t="s">
@@ -2039,6 +2064,9 @@
       <c r="C6">
         <v>8.3799999999999999E-2</v>
       </c>
+      <c r="E6">
+        <v>3.456E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" hidden="1">
       <c r="A7" t="s">
@@ -2050,6 +2078,9 @@
       <c r="C7">
         <v>7.6600000000000001E-2</v>
       </c>
+      <c r="E7">
+        <v>2.9479999999999999E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
@@ -2061,6 +2092,9 @@
       <c r="C8">
         <v>0.36170000000000002</v>
       </c>
+      <c r="E8">
+        <v>0.11919</v>
+      </c>
     </row>
     <row r="9" spans="1:7" hidden="1">
       <c r="A9" t="s">
@@ -2072,6 +2106,9 @@
       <c r="C9">
         <v>0.48370000000000002</v>
       </c>
+      <c r="E9">
+        <v>0.16156999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:7" hidden="1">
       <c r="A10" t="s">
@@ -2083,6 +2120,9 @@
       <c r="C10">
         <v>0.63829999999999998</v>
       </c>
+      <c r="E10">
+        <v>0.20782</v>
+      </c>
     </row>
     <row r="11" spans="1:7" hidden="1">
       <c r="A11" t="s">
@@ -2094,6 +2134,9 @@
       <c r="C11">
         <v>0.81200000000000006</v>
       </c>
+      <c r="E11">
+        <v>0.27263999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:7" hidden="1">
       <c r="A12" t="s">
@@ -2105,6 +2148,9 @@
       <c r="C12">
         <v>0.70479999999999998</v>
       </c>
+      <c r="E12">
+        <v>0.21348</v>
+      </c>
     </row>
     <row r="13" spans="1:7" hidden="1">
       <c r="A13" t="s">
@@ -2116,6 +2162,9 @@
       <c r="C13">
         <v>0.45900000000000002</v>
       </c>
+      <c r="E13">
+        <v>0.13841000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:7" hidden="1">
       <c r="A14" t="s">
@@ -2127,6 +2176,9 @@
       <c r="C14">
         <v>0.51749999999999996</v>
       </c>
+      <c r="E14">
+        <v>0.15295</v>
+      </c>
     </row>
     <row r="15" spans="1:7" hidden="1">
       <c r="A15" t="s">
@@ -2138,6 +2190,9 @@
       <c r="C15">
         <v>0.3402</v>
       </c>
+      <c r="E15">
+        <v>0.10874</v>
+      </c>
     </row>
     <row r="16" spans="1:7" hidden="1">
       <c r="A16" t="s">
@@ -2149,6 +2204,9 @@
       <c r="C16">
         <v>0.55559999999999998</v>
       </c>
+      <c r="E16">
+        <v>0.17002</v>
+      </c>
     </row>
     <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
@@ -2160,6 +2218,9 @@
       <c r="C17">
         <v>0.75890000000000002</v>
       </c>
+      <c r="E17">
+        <v>0.24712999999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
@@ -2171,6 +2232,9 @@
       <c r="C18">
         <v>0.26379999999999998</v>
       </c>
+      <c r="E18">
+        <v>9.4619999999999996E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
@@ -2182,6 +2246,9 @@
       <c r="C19">
         <v>0.221</v>
       </c>
+      <c r="E19">
+        <v>7.578E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
@@ -2193,6 +2260,9 @@
       <c r="C20">
         <v>0.34010000000000001</v>
       </c>
+      <c r="E20">
+        <v>0.12723000000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
@@ -2204,6 +2274,9 @@
       <c r="C21">
         <v>0.33100000000000002</v>
       </c>
+      <c r="E21">
+        <v>0.11176999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
@@ -2215,6 +2288,9 @@
       <c r="C22">
         <v>0.43099999999999999</v>
       </c>
+      <c r="E22">
+        <v>0.15967999999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
@@ -2226,6 +2302,9 @@
       <c r="C23">
         <v>0.43</v>
       </c>
+      <c r="E23">
+        <v>0.15803</v>
+      </c>
     </row>
     <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
@@ -2237,6 +2316,9 @@
       <c r="C24">
         <v>0.21690000000000001</v>
       </c>
+      <c r="E24">
+        <v>7.7079999999999996E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
@@ -2248,6 +2330,9 @@
       <c r="C25">
         <v>0.43340000000000001</v>
       </c>
+      <c r="E25">
+        <v>0.12814999999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
@@ -2259,6 +2344,9 @@
       <c r="C26">
         <v>0.38400000000000001</v>
       </c>
+      <c r="E26">
+        <v>0.12877</v>
+      </c>
     </row>
     <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
@@ -2270,6 +2358,9 @@
       <c r="C27">
         <v>0.43469999999999998</v>
       </c>
+      <c r="E27">
+        <v>0.14662</v>
+      </c>
     </row>
     <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
@@ -2281,6 +2372,9 @@
       <c r="C28">
         <v>0.38879999999999998</v>
       </c>
+      <c r="E28">
+        <v>0.13564000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
@@ -2292,6 +2386,9 @@
       <c r="C29">
         <v>0.36480000000000001</v>
       </c>
+      <c r="E29">
+        <v>0.12533</v>
+      </c>
     </row>
     <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
@@ -2303,6 +2400,9 @@
       <c r="C30">
         <v>0.51639999999999997</v>
       </c>
+      <c r="E30">
+        <v>0.16034999999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
@@ -2314,6 +2414,9 @@
       <c r="C31">
         <v>0.502</v>
       </c>
+      <c r="E31">
+        <v>0.15765999999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
@@ -2325,6 +2428,9 @@
       <c r="C32">
         <v>0.88519999999999999</v>
       </c>
+      <c r="E32">
+        <v>0.28188999999999997</v>
+      </c>
       <c r="F32" t="s">
         <v>38</v>
       </c>
@@ -2339,6 +2445,9 @@
       <c r="C33">
         <v>0.85199999999999998</v>
       </c>
+      <c r="E33">
+        <v>0.28216000000000002</v>
+      </c>
       <c r="F33" t="s">
         <v>38</v>
       </c>
@@ -2353,6 +2462,9 @@
       <c r="C34">
         <v>0.48349999999999999</v>
       </c>
+      <c r="E34">
+        <v>0.14576</v>
+      </c>
       <c r="F34" t="s">
         <v>38</v>
       </c>
@@ -2367,6 +2479,9 @@
       <c r="C35">
         <v>0.81369999999999998</v>
       </c>
+      <c r="E35">
+        <v>0.24607999999999999</v>
+      </c>
       <c r="F35" t="s">
         <v>38</v>
       </c>
@@ -2381,6 +2496,9 @@
       <c r="C36">
         <v>1.1559999999999999</v>
       </c>
+      <c r="E36">
+        <v>0.36726999999999999</v>
+      </c>
     </row>
     <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
@@ -2392,6 +2510,9 @@
       <c r="C37">
         <v>1.341</v>
       </c>
+      <c r="E37">
+        <v>0.41997000000000001</v>
+      </c>
     </row>
     <row r="38" spans="1:6" hidden="1">
       <c r="A38" t="s">
@@ -2403,6 +2524,9 @@
       <c r="C38">
         <v>1.083</v>
       </c>
+      <c r="E38">
+        <v>0.34489999999999998</v>
+      </c>
     </row>
     <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
@@ -2414,6 +2538,9 @@
       <c r="C39">
         <v>1.135</v>
       </c>
+      <c r="E39">
+        <v>0.36325000000000002</v>
+      </c>
     </row>
     <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
@@ -2425,6 +2552,9 @@
       <c r="C40">
         <v>0.79300000000000004</v>
       </c>
+      <c r="E40">
+        <v>0.2407</v>
+      </c>
     </row>
     <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
@@ -2436,6 +2566,9 @@
       <c r="C41">
         <v>0.90200000000000002</v>
       </c>
+      <c r="E41">
+        <v>0.2727</v>
+      </c>
     </row>
     <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
@@ -2447,6 +2580,9 @@
       <c r="C42">
         <v>0.17610000000000001</v>
       </c>
+      <c r="E42">
+        <v>6.59E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
@@ -2458,6 +2594,9 @@
       <c r="C43">
         <v>0.1447</v>
       </c>
+      <c r="E43">
+        <v>5.2580000000000002E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
@@ -2469,6 +2608,9 @@
       <c r="C44">
         <v>0.50560000000000005</v>
       </c>
+      <c r="E44">
+        <v>0.16880999999999999</v>
+      </c>
     </row>
     <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
@@ -2480,6 +2622,9 @@
       <c r="C45">
         <v>0.38812999999999998</v>
       </c>
+      <c r="E45">
+        <v>0.13478999999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
@@ -2491,6 +2636,9 @@
       <c r="C46">
         <v>0.73070000000000002</v>
       </c>
+      <c r="E46">
+        <v>0.23386999999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
@@ -2502,6 +2650,9 @@
       <c r="C47">
         <v>0.99580000000000002</v>
       </c>
+      <c r="E47">
+        <v>0.32157999999999998</v>
+      </c>
     </row>
     <row r="48" spans="1:6" hidden="1">
       <c r="A48" t="s">
@@ -2513,8 +2664,11 @@
       <c r="C48">
         <v>0.58799999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1">
+      <c r="E48">
+        <v>0.21592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -2524,8 +2678,11 @@
       <c r="C49">
         <v>0.48499999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1">
+      <c r="E49">
+        <v>0.16986000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2535,8 +2692,11 @@
       <c r="C50">
         <v>0.94699999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1">
+      <c r="E50">
+        <v>0.21618000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2546,8 +2706,11 @@
       <c r="C51">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1">
+      <c r="E51">
+        <v>3.3848999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2557,8 +2720,11 @@
       <c r="C52">
         <v>0.51300000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1">
+      <c r="E52">
+        <v>0.18331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2568,8 +2734,11 @@
       <c r="C53">
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1">
+      <c r="E53">
+        <v>0.24690000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2579,8 +2748,11 @@
       <c r="C54">
         <v>0.14399999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1">
+      <c r="E54">
+        <v>5.5259999999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2590,8 +2762,11 @@
       <c r="C55">
         <v>0.16600000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1">
+      <c r="E55">
+        <v>6.2390000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2601,8 +2776,11 @@
       <c r="C56">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1">
+      <c r="E56">
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2612,8 +2790,11 @@
       <c r="C57">
         <v>0.17399999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1">
+      <c r="E57">
+        <v>4.6269999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2623,8 +2804,11 @@
       <c r="C58">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1">
+      <c r="E58">
+        <v>5.7020000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2634,8 +2818,11 @@
       <c r="C59">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1">
+      <c r="E59">
+        <v>9.1389999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2645,8 +2832,11 @@
       <c r="C60">
         <v>0.17699999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1">
+      <c r="E60">
+        <v>4.965E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -2656,8 +2846,11 @@
       <c r="C61">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1">
+      <c r="E61">
+        <v>0.14504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -2667,8 +2860,11 @@
       <c r="C62">
         <v>0.34799999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1">
+      <c r="E62">
+        <v>0.11971</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -2678,8 +2874,11 @@
       <c r="C63">
         <v>0.41899999999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1">
+      <c r="E63">
+        <v>0.10001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2689,8 +2888,11 @@
       <c r="C64">
         <v>0.75700000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1">
+      <c r="E64">
+        <v>0.22509000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2700,8 +2902,11 @@
       <c r="C65">
         <v>0.501</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1">
+      <c r="E65">
+        <v>0.1525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -2711,8 +2916,11 @@
       <c r="C66">
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1">
+      <c r="E66">
+        <v>2.0219999999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2722,8 +2930,11 @@
       <c r="C67">
         <v>2.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1">
+      <c r="E67">
+        <v>7.9900000000000006E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2733,8 +2944,11 @@
       <c r="C68">
         <v>5.8900000000000001E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1">
+      <c r="E68">
+        <v>2.1059999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2744,8 +2958,11 @@
       <c r="C69">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1">
+      <c r="E69">
+        <v>2.0920000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2755,8 +2972,11 @@
       <c r="C70">
         <v>0.67800000000000005</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1">
+      <c r="E70">
+        <v>0.19822000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -2766,8 +2986,11 @@
       <c r="C71">
         <v>0.52700000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1">
+      <c r="E71">
+        <v>0.15053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -2777,8 +3000,11 @@
       <c r="C72">
         <v>4.0800000000000003E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1">
+      <c r="E72">
+        <v>1.468E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2788,8 +3014,11 @@
       <c r="C73">
         <v>4.53E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1">
+      <c r="E73">
+        <v>1.559E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2799,8 +3028,11 @@
       <c r="C74">
         <v>5.5599999999999997E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1">
+      <c r="E74">
+        <v>2.2890000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2810,8 +3042,11 @@
       <c r="C75">
         <v>7.6399999999999996E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1">
+      <c r="E75">
+        <v>2.3529999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -2821,8 +3056,11 @@
       <c r="C76">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1">
+      <c r="E76">
+        <v>0.15511</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3070,11 @@
       <c r="C77">
         <v>0.92100000000000004</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1">
+      <c r="E77">
+        <v>0.30923</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2843,8 +3084,11 @@
       <c r="C78">
         <v>1.52E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1">
+      <c r="E78">
+        <v>7.2399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2854,8 +3098,11 @@
       <c r="C79">
         <v>2.3300000000000001E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1">
+      <c r="E79">
+        <v>1.0410000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -2865,8 +3112,11 @@
       <c r="C80">
         <v>5.2699999999999997E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1">
+      <c r="E80">
+        <v>1.521E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2876,8 +3126,11 @@
       <c r="C81">
         <v>4.2099999999999999E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1">
+      <c r="E81">
+        <v>1.225E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2887,8 +3140,11 @@
       <c r="C82">
         <v>7.1800000000000003E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1">
+      <c r="E82">
+        <v>2.102E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2898,8 +3154,11 @@
       <c r="C83">
         <v>6.4600000000000005E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1">
+      <c r="E83">
+        <v>1.6279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -2909,8 +3168,11 @@
       <c r="C84">
         <v>6.9699999999999998E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1">
+      <c r="E84">
+        <v>2.265E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2920,8 +3182,11 @@
       <c r="C85">
         <v>5.4399999999999997E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1">
+      <c r="E85">
+        <v>1.7149999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2931,8 +3196,11 @@
       <c r="C86">
         <v>4.9500000000000002E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1">
+      <c r="E86">
+        <v>1.6039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2942,8 +3210,11 @@
       <c r="C87">
         <v>6.8199999999999997E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1">
+      <c r="E87">
+        <v>2.443E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -2953,8 +3224,11 @@
       <c r="C88">
         <v>4.7300000000000002E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1">
+      <c r="E88">
+        <v>1.721E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -2964,8 +3238,11 @@
       <c r="C89">
         <v>3.4500000000000003E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1">
+      <c r="E89">
+        <v>1.8780000000000002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -2975,8 +3252,11 @@
       <c r="C90">
         <v>4.7100000000000003E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1">
+      <c r="E90">
+        <v>1.7270000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -2986,8 +3266,11 @@
       <c r="C91">
         <v>3.2300000000000002E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1">
+      <c r="E91">
+        <v>1.189E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -2997,8 +3280,11 @@
       <c r="C92">
         <v>4.0599999999999997E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1">
+      <c r="E92">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3294,11 @@
       <c r="C93">
         <v>7.3300000000000004E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1">
+      <c r="E93">
+        <v>2.128E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -3019,8 +3308,11 @@
       <c r="C94">
         <v>2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1">
+      <c r="E94">
+        <v>7.5399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -3030,8 +3322,11 @@
       <c r="C95">
         <v>6.8699999999999997E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1">
+      <c r="E95">
+        <v>2.2370000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3041,8 +3336,11 @@
       <c r="C96">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1">
+      <c r="E96">
+        <v>5.1200000000000004E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -3052,8 +3350,11 @@
       <c r="C97">
         <v>3.9600000000000003E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1">
+      <c r="E97">
+        <v>1.2449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" t="s">
         <v>88</v>
       </c>
@@ -3063,8 +3364,11 @@
       <c r="C98">
         <v>6.54E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1">
+      <c r="E98">
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -3074,8 +3378,11 @@
       <c r="C99">
         <v>6.93E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1">
+      <c r="E99">
+        <v>2.291E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -3085,8 +3392,11 @@
       <c r="C100">
         <v>0.66700000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1">
+      <c r="E100">
+        <v>0.22731999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -3096,8 +3406,11 @@
       <c r="C101">
         <v>0.52239999999999998</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1">
+      <c r="E101">
+        <v>0.17918000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -3107,8 +3420,11 @@
       <c r="C102">
         <v>6.4699999999999994E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1">
+      <c r="E102">
+        <v>2.0809999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -3118,8 +3434,11 @@
       <c r="C103">
         <v>7.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1">
+      <c r="E103">
+        <v>2.0060000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -3129,8 +3448,11 @@
       <c r="C104">
         <v>1.9099999999999999E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1">
+      <c r="E104">
+        <v>7.5100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -3140,8 +3462,11 @@
       <c r="C105">
         <v>3.6200000000000003E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1">
+      <c r="E105">
+        <v>1.222E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" t="s">
         <v>82</v>
       </c>
@@ -3151,8 +3476,11 @@
       <c r="C106">
         <v>5.16E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1">
+      <c r="E106">
+        <v>1.7909999999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -3162,8 +3490,11 @@
       <c r="C107">
         <v>5.5300000000000002E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1">
+      <c r="E107">
+        <v>1.1820000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -3173,8 +3504,11 @@
       <c r="C108">
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1">
+      <c r="E108">
+        <v>0.18176999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -3184,8 +3518,11 @@
       <c r="C109">
         <v>0.67800000000000005</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1">
+      <c r="E109">
+        <v>0.20447000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -3195,8 +3532,11 @@
       <c r="C110">
         <v>9.7600000000000006E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1">
+      <c r="E110">
+        <v>2.7390000000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -3206,8 +3546,11 @@
       <c r="C111">
         <v>6.0900000000000003E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1">
+      <c r="E111">
+        <v>1.8110000000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -3217,8 +3560,11 @@
       <c r="C112">
         <v>0.81599999999999995</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1">
+      <c r="E112">
+        <v>0.23558000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -3228,8 +3574,11 @@
       <c r="C113">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1">
+      <c r="E113">
+        <v>0.18911</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -3239,8 +3588,11 @@
       <c r="C114">
         <v>0.115</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1">
+      <c r="E114">
+        <v>4.2889999999999998E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -3250,8 +3602,11 @@
       <c r="C115">
         <v>0.27200000000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1">
+      <c r="E115">
+        <v>8.5419999999999996E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -3261,8 +3616,11 @@
       <c r="C116">
         <v>0.18260000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1">
+      <c r="E116">
+        <v>6.1240000000000003E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -3272,8 +3630,11 @@
       <c r="C117">
         <v>0.19620000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1">
+      <c r="E117">
+        <v>6.2269999999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -3283,8 +3644,11 @@
       <c r="C118">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1">
+      <c r="E118">
+        <v>1.438E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -3294,8 +3658,11 @@
       <c r="C119">
         <v>5.3499999999999999E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" hidden="1">
+      <c r="E119">
+        <v>1.4330000000000001E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -3305,8 +3672,11 @@
       <c r="C120">
         <v>3.2199999999999999E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1">
+      <c r="E120">
+        <v>1.192E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -3316,8 +3686,11 @@
       <c r="C121">
         <v>6.0600000000000001E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1">
+      <c r="E121">
+        <v>1.8769999999999998E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -3327,8 +3700,11 @@
       <c r="C122">
         <v>8.0799999999999997E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1">
+      <c r="E122">
+        <v>2.061E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" t="s">
         <v>113</v>
       </c>
@@ -3338,8 +3714,11 @@
       <c r="C123">
         <v>9.5699999999999993E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1">
+      <c r="E123">
+        <v>2.6790000000000001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -3349,8 +3728,11 @@
       <c r="C124">
         <v>5.4699999999999999E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1">
+      <c r="E124">
+        <v>1.5709999999999998E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -3360,8 +3742,11 @@
       <c r="C125">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1">
+      <c r="E125">
+        <v>2.8830000000000001E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -3371,8 +3756,11 @@
       <c r="C126">
         <v>0.1075</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1">
+      <c r="E126">
+        <v>2.811E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -3382,8 +3770,11 @@
       <c r="C127">
         <v>7.7899999999999997E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1">
+      <c r="E127">
+        <v>2.2259999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -3393,8 +3784,11 @@
       <c r="C128">
         <v>6.9940000000000002E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1">
+      <c r="E128">
+        <v>1.8839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -3404,8 +3798,11 @@
       <c r="C129">
         <v>8.4570000000000006E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1">
+      <c r="E129">
+        <v>2.215E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -3415,8 +3812,11 @@
       <c r="C130">
         <v>0.52029999999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1">
+      <c r="E130">
+        <v>0.16156999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -3426,8 +3826,11 @@
       <c r="C131">
         <v>0.62329999999999997</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1">
+      <c r="E131">
+        <v>0.18174000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -3437,8 +3840,11 @@
       <c r="C132">
         <v>2.53E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1">
+      <c r="E132">
+        <v>9.6100000000000005E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -3448,8 +3854,11 @@
       <c r="C133">
         <v>6.8400000000000002E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1">
+      <c r="E133">
+        <v>2.324E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -3459,8 +3868,11 @@
       <c r="C134">
         <v>0.40899999999999997</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1">
+      <c r="E134">
+        <v>0.11971999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -3470,8 +3882,11 @@
       <c r="C135">
         <v>0.77100000000000002</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1">
+      <c r="E135">
+        <v>0.21859000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" t="s">
         <v>124</v>
       </c>
@@ -3481,8 +3896,11 @@
       <c r="C136">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1">
+      <c r="E136">
+        <v>6.6890000000000005E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" t="s">
         <v>125</v>
       </c>
@@ -3492,8 +3910,11 @@
       <c r="C137">
         <v>0.308</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1">
+      <c r="E137">
+        <v>9.5019999999999993E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -3503,8 +3924,11 @@
       <c r="C138">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1">
+      <c r="E138">
+        <v>0.10115</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -3514,8 +3938,11 @@
       <c r="C139">
         <v>0.35399999999999998</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1">
+      <c r="E139">
+        <v>0.11027000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" t="s">
         <v>128</v>
       </c>
@@ -3525,8 +3952,11 @@
       <c r="C140">
         <v>7.1400000000000005E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1">
+      <c r="E140">
+        <v>2.0590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" t="s">
         <v>129</v>
       </c>
@@ -3536,8 +3966,11 @@
       <c r="C141">
         <v>6.7339999999999997E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1">
+      <c r="E141">
+        <v>1.933E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -3547,8 +3980,11 @@
       <c r="C142">
         <v>0.61560000000000004</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1">
+      <c r="E142">
+        <v>0.19814999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" t="s">
         <v>131</v>
       </c>
@@ -3558,8 +3994,11 @@
       <c r="C143">
         <v>0.5121</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1">
+      <c r="E143">
+        <v>0.16063</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -3569,8 +4008,11 @@
       <c r="C144">
         <v>0.73599999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1">
+      <c r="E144">
+        <v>0.22477</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" t="s">
         <v>133</v>
       </c>
@@ -3580,8 +4022,11 @@
       <c r="C145">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1">
+      <c r="E145">
+        <v>0.21346999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -3591,8 +4036,11 @@
       <c r="C146">
         <v>0.34699999999999998</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1">
+      <c r="E146">
+        <v>0.11339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -3602,8 +4050,11 @@
       <c r="C147">
         <v>0.34849999999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1">
+      <c r="E147">
+        <v>0.11249000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3613,8 +4064,11 @@
       <c r="C148">
         <v>0.29110000000000003</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1">
+      <c r="E148">
+        <v>8.5940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -3624,8 +4078,11 @@
       <c r="C149">
         <v>0.39269999999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1">
+      <c r="E149">
+        <v>0.11433</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>140</v>
       </c>
@@ -3635,8 +4092,11 @@
       <c r="C150">
         <v>0.91469999999999996</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1">
+      <c r="E150">
+        <v>0.28326000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>141</v>
       </c>
@@ -3646,8 +4106,11 @@
       <c r="C151">
         <v>0.91110000000000002</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1">
+      <c r="E151">
+        <v>0.28649000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -3657,8 +4120,11 @@
       <c r="C152">
         <v>0.30409999999999998</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1">
+      <c r="E152">
+        <v>9.1730000000000006E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -3668,8 +4134,11 @@
       <c r="C153">
         <v>0.3831</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1">
+      <c r="E153">
+        <v>0.12197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3679,8 +4148,11 @@
       <c r="C154">
         <v>0.50380000000000003</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1">
+      <c r="E154">
+        <v>0.16231000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3690,8 +4162,11 @@
       <c r="C155">
         <v>0.49509999999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1">
+      <c r="E155">
+        <v>0.15414</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -3701,8 +4176,11 @@
       <c r="C156">
         <v>0.62160000000000004</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1">
+      <c r="E156">
+        <v>0.15611</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -3712,8 +4190,11 @@
       <c r="C157">
         <v>0.64300000000000002</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1">
+      <c r="E157">
+        <v>0.16045000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>142</v>
       </c>
@@ -3723,8 +4204,11 @@
       <c r="C158">
         <v>0.15559999999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1">
+      <c r="E158">
+        <v>5.0549999999999998E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>143</v>
       </c>
@@ -3734,8 +4218,11 @@
       <c r="C159">
         <v>0.189</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1">
+      <c r="E159">
+        <v>6.2129999999999998E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>144</v>
       </c>
@@ -3745,8 +4232,11 @@
       <c r="C160">
         <v>0.31619999999999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1">
+      <c r="E160">
+        <v>8.5500000000000007E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -3756,8 +4246,11 @@
       <c r="C161">
         <v>0.32763999999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1">
+      <c r="E161">
+        <v>8.8910000000000003E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -3767,8 +4260,11 @@
       <c r="C162">
         <v>0.45304</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1">
+      <c r="E162">
+        <v>0.14657000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>146</v>
       </c>
@@ -3778,8 +4274,11 @@
       <c r="C163">
         <v>0.48233999999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" hidden="1">
+      <c r="E163">
+        <v>0.15289</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>157</v>
       </c>
@@ -3789,8 +4288,11 @@
       <c r="C164">
         <v>0.21459</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" hidden="1">
+      <c r="E164">
+        <v>7.3300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>158</v>
       </c>
@@ -3800,8 +4302,11 @@
       <c r="C165">
         <v>0.25752999999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1">
+      <c r="E165">
+        <v>8.7970000000000007E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -3811,8 +4316,11 @@
       <c r="C166">
         <v>0.49186000000000002</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" hidden="1">
+      <c r="E166">
+        <v>0.14452000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" t="s">
         <v>160</v>
       </c>
@@ -3822,8 +4330,11 @@
       <c r="C167">
         <v>0.92889999999999995</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" hidden="1">
+      <c r="E167">
+        <v>0.26002999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" t="s">
         <v>161</v>
       </c>
@@ -3833,8 +4344,11 @@
       <c r="C168">
         <v>0.37663999999999997</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1">
+      <c r="E168">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" t="s">
         <v>162</v>
       </c>
@@ -3844,8 +4358,11 @@
       <c r="C169">
         <v>0.71209999999999996</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" hidden="1">
+      <c r="E169">
+        <v>0.20246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" t="s">
         <v>164</v>
       </c>
@@ -3855,8 +4372,11 @@
       <c r="C170">
         <v>5.4399999999999997E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" hidden="1">
+      <c r="E170">
+        <v>1.805E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -3866,8 +4386,11 @@
       <c r="C171">
         <v>7.6609999999999998E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" hidden="1">
+      <c r="E171">
+        <v>2.0670000000000001E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -3877,8 +4400,11 @@
       <c r="C172">
         <v>0.10367999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" hidden="1">
+      <c r="E172">
+        <v>3.6080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -3888,8 +4414,11 @@
       <c r="C173">
         <v>0.15343999999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1">
+      <c r="E173">
+        <v>5.1110000000000003E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -3899,8 +4428,11 @@
       <c r="C174">
         <v>3.5360000000000003E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1">
+      <c r="E174">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175" t="s">
         <v>169</v>
       </c>
@@ -3910,8 +4442,11 @@
       <c r="C175">
         <v>4.2880000000000001E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1">
+      <c r="E175">
+        <v>1.354E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -3921,8 +4456,11 @@
       <c r="C176">
         <v>7.5230000000000005E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" hidden="1">
+      <c r="E176">
+        <v>2.3539999999999998E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -3932,8 +4470,11 @@
       <c r="C177">
         <v>7.4310000000000001E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" hidden="1">
+      <c r="E177">
+        <v>2.146E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178" t="s">
         <v>170</v>
       </c>
@@ -3943,8 +4484,11 @@
       <c r="C178">
         <v>6.2710000000000002E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" hidden="1">
+      <c r="E178">
+        <v>1.7930000000000001E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179" t="s">
         <v>171</v>
       </c>
@@ -3954,8 +4498,11 @@
       <c r="C179">
         <v>8.43E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1">
+      <c r="E179">
+        <v>2.6579999999999999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180" t="s">
         <v>172</v>
       </c>
@@ -3965,8 +4512,11 @@
       <c r="C180">
         <v>4.7399999999999998E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" hidden="1">
+      <c r="E180">
+        <v>1.076E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181" t="s">
         <v>173</v>
       </c>
@@ -3976,8 +4526,11 @@
       <c r="C181">
         <v>5.3499999999999999E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" hidden="1">
+      <c r="E181">
+        <v>1.4290000000000001E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182" t="s">
         <v>174</v>
       </c>
@@ -3987,8 +4540,11 @@
       <c r="C182">
         <v>5.8099999999999999E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" hidden="1">
+      <c r="E182">
+        <v>1.7950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183" t="s">
         <v>175</v>
       </c>
@@ -3998,8 +4554,11 @@
       <c r="C183">
         <v>6.5500000000000003E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" hidden="1">
+      <c r="E183">
+        <v>1.8350000000000002E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184" t="s">
         <v>128</v>
       </c>
@@ -4009,8 +4568,11 @@
       <c r="C184">
         <v>5.9799999999999999E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" hidden="1">
+      <c r="E184">
+        <v>1.789E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185" t="s">
         <v>129</v>
       </c>
@@ -4020,8 +4582,11 @@
       <c r="C185">
         <v>7.8899999999999998E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" hidden="1">
+      <c r="E185">
+        <v>2.164E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186" t="s">
         <v>163</v>
       </c>
@@ -4031,8 +4596,11 @@
       <c r="C186">
         <v>5.8400000000000001E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" hidden="1">
+      <c r="E186">
+        <v>1.4840000000000001E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187" t="s">
         <v>176</v>
       </c>
@@ -4042,8 +4610,11 @@
       <c r="C187">
         <v>7.0599999999999996E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" hidden="1">
+      <c r="E187">
+        <v>1.9390000000000001E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188" t="s">
         <v>177</v>
       </c>
@@ -4053,8 +4624,11 @@
       <c r="C188">
         <v>0.22586999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" hidden="1">
+      <c r="E188">
+        <v>6.8510000000000001E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" t="s">
         <v>178</v>
       </c>
@@ -4064,8 +4638,11 @@
       <c r="C189">
         <v>0.254</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" hidden="1">
+      <c r="E189">
+        <v>7.6880000000000004E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" t="s">
         <v>179</v>
       </c>
@@ -4075,8 +4652,11 @@
       <c r="C190">
         <v>8.9149999999999993E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" hidden="1">
+      <c r="E190">
+        <v>2.5610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" t="s">
         <v>180</v>
       </c>
@@ -4086,8 +4666,11 @@
       <c r="C191">
         <v>8.3659999999999998E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" hidden="1">
+      <c r="E191">
+        <v>2.3120000000000002E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192" t="s">
         <v>181</v>
       </c>
@@ -4097,8 +4680,11 @@
       <c r="C192">
         <v>7.7130000000000004E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" hidden="1">
+      <c r="E192">
+        <v>2.0490000000000001E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" t="s">
         <v>182</v>
       </c>
@@ -4108,8 +4694,11 @@
       <c r="C193">
         <v>8.9370000000000005E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" hidden="1">
+      <c r="E193">
+        <v>2.4140000000000002E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194" t="s">
         <v>183</v>
       </c>
@@ -4119,8 +4708,11 @@
       <c r="C194">
         <v>6.3960000000000003E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1">
+      <c r="E194">
+        <v>1.487E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -4130,8 +4722,11 @@
       <c r="C195">
         <v>8.5180000000000006E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" hidden="1">
+      <c r="E195">
+        <v>2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -4141,8 +4736,11 @@
       <c r="C196">
         <v>7.3099999999999998E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" hidden="1">
+      <c r="E196">
+        <v>2.1409999999999998E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" t="s">
         <v>186</v>
       </c>
@@ -4152,8 +4750,11 @@
       <c r="C197">
         <v>6.2640000000000001E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" hidden="1">
+      <c r="E197">
+        <v>1.643E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -4163,8 +4764,11 @@
       <c r="C198">
         <v>6.4579999999999999E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" hidden="1">
+      <c r="E198">
+        <v>1.7309999999999999E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" t="s">
         <v>188</v>
       </c>
@@ -4174,8 +4778,11 @@
       <c r="C199">
         <v>6.6769999999999996E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" hidden="1">
+      <c r="E199">
+        <v>1.729E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200" t="s">
         <v>189</v>
       </c>
@@ -4185,8 +4792,11 @@
       <c r="C200">
         <v>2.452E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" hidden="1">
+      <c r="E200">
+        <v>8.5500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201" t="s">
         <v>190</v>
       </c>
@@ -4196,8 +4806,11 @@
       <c r="C201">
         <v>2.93E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1">
+      <c r="E201">
+        <v>9.5099999999999994E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202" t="s">
         <v>191</v>
       </c>
@@ -4207,8 +4820,11 @@
       <c r="C202">
         <v>8.1900000000000001E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" hidden="1">
+      <c r="E202">
+        <v>2.0979999999999999E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" t="s">
         <v>192</v>
       </c>
@@ -4218,8 +4834,11 @@
       <c r="C203">
         <v>8.4599999999999995E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" hidden="1">
+      <c r="E203">
+        <v>2.264E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204" t="s">
         <v>193</v>
       </c>
@@ -4229,8 +4848,11 @@
       <c r="C204">
         <v>2.828E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" hidden="1">
+      <c r="E204">
+        <v>1.0840000000000001E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205" t="s">
         <v>194</v>
       </c>
@@ -4240,8 +4862,11 @@
       <c r="C205">
         <v>5.246E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" hidden="1">
+      <c r="E205">
+        <v>1.366E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206" t="s">
         <v>195</v>
       </c>
@@ -4251,8 +4876,11 @@
       <c r="C206">
         <v>3.517E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" hidden="1">
+      <c r="E206">
+        <v>1.142E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207" t="s">
         <v>196</v>
       </c>
@@ -4262,8 +4890,11 @@
       <c r="C207">
         <v>5.3830000000000003E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" hidden="1">
+      <c r="E207">
+        <v>1.6310000000000002E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208" t="s">
         <v>197</v>
       </c>
@@ -4273,8 +4904,11 @@
       <c r="C208">
         <v>6.4130000000000006E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" hidden="1">
+      <c r="E208">
+        <v>1.8710000000000001E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" t="s">
         <v>198</v>
       </c>
@@ -4284,8 +4918,11 @@
       <c r="C209">
         <v>6.1170000000000002E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" hidden="1">
+      <c r="E209">
+        <v>1.8030000000000001E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" t="s">
         <v>76</v>
       </c>
@@ -4295,8 +4932,11 @@
       <c r="C210">
         <v>6.0229999999999999E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" hidden="1">
+      <c r="E210">
+        <v>1.6219999999999998E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -4306,8 +4946,11 @@
       <c r="C211">
         <v>6.1469999999999997E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" hidden="1">
+      <c r="E211">
+        <v>1.5740000000000001E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212" t="s">
         <v>132</v>
       </c>
@@ -4317,8 +4960,11 @@
       <c r="C212">
         <v>0.41488999999999998</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" hidden="1">
+      <c r="E212">
+        <v>9.4039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" t="s">
         <v>133</v>
       </c>
@@ -4328,8 +4974,11 @@
       <c r="C213">
         <v>0.75600000000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" hidden="1">
+      <c r="E213">
+        <v>0.18326000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" t="s">
         <v>199</v>
       </c>
@@ -4339,8 +4988,11 @@
       <c r="C214">
         <v>5.5590000000000001E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" hidden="1">
+      <c r="E214">
+        <v>1.8180000000000002E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215" t="s">
         <v>200</v>
       </c>
@@ -4350,8 +5002,11 @@
       <c r="C215">
         <v>6.1019999999999998E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" hidden="1">
+      <c r="E215">
+        <v>1.924E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216" t="s">
         <v>201</v>
       </c>
@@ -4361,8 +5016,11 @@
       <c r="C216">
         <v>6.0499999999999998E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" hidden="1">
+      <c r="E216">
+        <v>1.644E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217" t="s">
         <v>202</v>
       </c>
@@ -4372,8 +5030,11 @@
       <c r="C217">
         <v>7.2040000000000007E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" hidden="1">
+      <c r="E217">
+        <v>1.9689999999999999E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218" t="s">
         <v>98</v>
       </c>
@@ -4383,8 +5044,11 @@
       <c r="C218">
         <v>0.77800000000000002</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" hidden="1">
+      <c r="E218">
+        <v>0.21597</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219" t="s">
         <v>99</v>
       </c>
@@ -4394,8 +5058,11 @@
       <c r="C219">
         <v>0.79190000000000005</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" hidden="1">
+      <c r="E219">
+        <v>0.21668999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220" t="s">
         <v>203</v>
       </c>
@@ -4405,8 +5072,11 @@
       <c r="C220">
         <v>0.13757</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" hidden="1">
+      <c r="E220">
+        <v>4.0869999999999997E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" t="s">
         <v>204</v>
       </c>
@@ -4416,8 +5086,11 @@
       <c r="C221">
         <v>0.13672999999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" hidden="1">
+      <c r="E221">
+        <v>3.9149999999999997E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1">
       <c r="A222" t="s">
         <v>205</v>
       </c>
@@ -4427,8 +5100,11 @@
       <c r="C222">
         <v>6.5030000000000004E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" hidden="1">
+      <c r="E222">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" hidden="1">
       <c r="A223" t="s">
         <v>206</v>
       </c>
@@ -4438,8 +5114,11 @@
       <c r="C223">
         <v>7.7950000000000005E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" hidden="1">
+      <c r="E223">
+        <v>2.5739999999999999E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" hidden="1">
       <c r="A224" t="s">
         <v>207</v>
       </c>
@@ -4449,8 +5128,11 @@
       <c r="C224">
         <v>8.6669999999999997E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" hidden="1">
+      <c r="E224">
+        <v>2.3789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" hidden="1">
       <c r="A225" t="s">
         <v>208</v>
       </c>
@@ -4460,8 +5142,11 @@
       <c r="C225">
         <v>9.5200000000000007E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" hidden="1">
+      <c r="E225">
+        <v>2.7629999999999998E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" hidden="1">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -4471,8 +5156,11 @@
       <c r="C226">
         <v>3.2530000000000003E-2</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" hidden="1">
+      <c r="E226">
+        <v>1.153E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" hidden="1">
       <c r="A227" t="s">
         <v>117</v>
       </c>
@@ -4482,8 +5170,11 @@
       <c r="C227">
         <v>5.0250000000000003E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" hidden="1">
+      <c r="E227">
+        <v>1.417E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" hidden="1">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -4493,8 +5184,11 @@
       <c r="C228">
         <v>6.4630000000000007E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" hidden="1">
+      <c r="E228">
+        <v>2.121E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" hidden="1">
       <c r="A229" t="s">
         <v>210</v>
       </c>
@@ -4504,10 +5198,13 @@
       <c r="C229">
         <v>9.9790000000000004E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" hidden="1">
+      <c r="E229">
+        <v>3.1949999999999999E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" hidden="1">
       <c r="A230" t="s">
-        <v>211</v>
+        <v>500</v>
       </c>
       <c r="B230">
         <v>4</v>
@@ -4515,10 +5212,13 @@
       <c r="C230">
         <v>4.4339999999999997E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" hidden="1">
+      <c r="E230">
+        <v>1.359E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" hidden="1">
       <c r="A231" t="s">
-        <v>212</v>
+        <v>501</v>
       </c>
       <c r="B231">
         <v>4</v>
@@ -4526,8 +5226,11 @@
       <c r="C231">
         <v>4.598E-2</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1">
+      <c r="E231">
+        <v>1.4489999999999999E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" hidden="1">
       <c r="A232" t="s">
         <v>70</v>
       </c>
@@ -4537,8 +5240,11 @@
       <c r="C232">
         <v>0.56067</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" hidden="1">
+      <c r="E232">
+        <v>0.13633000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" hidden="1">
       <c r="A233" t="s">
         <v>71</v>
       </c>
@@ -4548,8 +5254,11 @@
       <c r="C233">
         <v>0.78349999999999997</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" hidden="1">
+      <c r="E233">
+        <v>0.20746000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" hidden="1">
       <c r="A234" t="s">
         <v>100</v>
       </c>
@@ -4559,8 +5268,11 @@
       <c r="C234">
         <v>0.10165</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" hidden="1">
+      <c r="E234">
+        <v>2.7890000000000002E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" hidden="1">
       <c r="A235" t="s">
         <v>101</v>
       </c>
@@ -4570,10 +5282,13 @@
       <c r="C235">
         <v>9.5829999999999999E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" hidden="1">
+      <c r="E235">
+        <v>2.665E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" hidden="1">
       <c r="A236" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B236">
         <v>4</v>
@@ -4581,10 +5296,13 @@
       <c r="C236">
         <v>5.457E-2</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" hidden="1">
+      <c r="E236">
+        <v>1.5389999999999999E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" hidden="1">
       <c r="A237" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B237">
         <v>4</v>
@@ -4592,10 +5310,13 @@
       <c r="C237">
         <v>9.4490000000000005E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" hidden="1">
+      <c r="E237">
+        <v>2.443E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" hidden="1">
       <c r="A238" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B238">
         <v>4</v>
@@ -4603,10 +5324,13 @@
       <c r="C238">
         <v>8.4070000000000006E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" hidden="1">
+      <c r="E238">
+        <v>2.776E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" hidden="1">
       <c r="A239" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B239">
         <v>4</v>
@@ -4614,10 +5338,13 @@
       <c r="C239">
         <v>0.10272000000000001</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" hidden="1">
+      <c r="E239">
+        <v>3.4750000000000003E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" hidden="1">
       <c r="A240" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B240">
         <v>4</v>
@@ -4625,10 +5352,13 @@
       <c r="C240">
         <v>1.8360000000000001E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" hidden="1">
+      <c r="E240">
+        <v>7.2199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" hidden="1">
       <c r="A241" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B241">
         <v>4</v>
@@ -4636,10 +5366,13 @@
       <c r="C241">
         <v>3.2649999999999998E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" hidden="1">
+      <c r="E241">
+        <v>1.217E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" hidden="1">
       <c r="A242" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B242">
         <v>4</v>
@@ -4647,10 +5380,13 @@
       <c r="C242">
         <v>7.8289999999999998E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" hidden="1">
+      <c r="E242">
+        <v>2.3939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" hidden="1">
       <c r="A243" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B243">
         <v>4</v>
@@ -4658,10 +5394,13 @@
       <c r="C243">
         <v>7.4079999999999993E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" hidden="1">
+      <c r="E243">
+        <v>2.1309999999999999E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" hidden="1">
       <c r="A244" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B244">
         <v>4</v>
@@ -4669,10 +5408,13 @@
       <c r="C244">
         <v>3.2980000000000002E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" hidden="1">
+      <c r="E244">
+        <v>9.0100000000000006E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" hidden="1">
       <c r="A245" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B245">
         <v>4</v>
@@ -4680,10 +5422,13 @@
       <c r="C245">
         <v>3.7440000000000001E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" hidden="1">
+      <c r="E245">
+        <v>1.048E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" hidden="1">
       <c r="A246" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B246">
         <v>4</v>
@@ -4691,10 +5436,13 @@
       <c r="C246">
         <v>0.11504</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" hidden="1">
+      <c r="E246">
+        <v>2.6759999999999999E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" hidden="1">
       <c r="A247" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B247">
         <v>4</v>
@@ -4702,10 +5450,13 @@
       <c r="C247">
         <v>0.19739999999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" hidden="1">
+      <c r="E247">
+        <v>5.2740000000000002E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" hidden="1">
       <c r="A248" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B248">
         <v>4</v>
@@ -4713,10 +5464,13 @@
       <c r="C248">
         <v>3.1620000000000002E-2</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" hidden="1">
+      <c r="E248">
+        <v>1.1140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" hidden="1">
       <c r="A249" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B249">
         <v>4</v>
@@ -4724,10 +5478,13 @@
       <c r="C249">
         <v>6.0199999999999997E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" hidden="1">
+      <c r="E249">
+        <v>1.711E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" hidden="1">
       <c r="A250" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B250">
         <v>4</v>
@@ -4735,10 +5492,13 @@
       <c r="C250">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1">
+      <c r="E250">
+        <v>0.18048</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" hidden="1">
       <c r="A251" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B251">
         <v>4</v>
@@ -4746,10 +5506,13 @@
       <c r="C251">
         <v>0.69599999999999995</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" hidden="1">
+      <c r="E251">
+        <v>0.19156999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" hidden="1">
       <c r="A252" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B252">
         <v>4</v>
@@ -4757,10 +5520,13 @@
       <c r="C252">
         <v>0.64200000000000002</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" hidden="1">
+      <c r="E252">
+        <v>0.16854</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" hidden="1">
       <c r="A253" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B253">
         <v>4</v>
@@ -4768,10 +5534,13 @@
       <c r="C253">
         <v>0.77354999999999996</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" hidden="1">
+      <c r="E253">
+        <v>0.21546000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" hidden="1">
       <c r="A254" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B254">
         <v>3</v>
@@ -4779,10 +5548,13 @@
       <c r="C254">
         <v>0.54400000000000004</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" hidden="1">
+      <c r="E254">
+        <v>0.14233799999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" hidden="1">
       <c r="A255" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B255">
         <v>3</v>
@@ -4790,10 +5562,13 @@
       <c r="C255">
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" hidden="1">
+      <c r="E255">
+        <v>0.15511</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" hidden="1">
       <c r="A256" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -4801,10 +5576,13 @@
       <c r="C256">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" hidden="1">
+      <c r="E256">
+        <v>0.16597999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" hidden="1">
       <c r="A257" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -4812,10 +5590,13 @@
       <c r="C257">
         <v>0.6038</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" hidden="1">
+      <c r="E257">
+        <v>0.17818000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" hidden="1">
       <c r="A258" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B258">
         <v>3</v>
@@ -4823,10 +5604,13 @@
       <c r="C258">
         <v>0.43169999999999997</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" hidden="1">
+      <c r="E258">
+        <v>0.12995000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1">
       <c r="A259" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B259">
         <v>3</v>
@@ -4834,8 +5618,11 @@
       <c r="C259">
         <v>0.43569999999999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" hidden="1">
+      <c r="E259">
+        <v>0.12299</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" hidden="1">
       <c r="A260" t="s">
         <v>45</v>
       </c>
@@ -4845,8 +5632,11 @@
       <c r="C260">
         <v>0.70094000000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" hidden="1">
+      <c r="E260">
+        <v>0.20029</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" hidden="1">
       <c r="A261" t="s">
         <v>46</v>
       </c>
@@ -4856,10 +5646,13 @@
       <c r="C261">
         <v>0.746</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" hidden="1">
+      <c r="E261">
+        <v>0.20497000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" hidden="1">
       <c r="A262" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B262">
         <v>3</v>
@@ -4867,10 +5660,13 @@
       <c r="C262">
         <v>0.82399999999999995</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" hidden="1">
+      <c r="E262">
+        <v>0.26221</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" hidden="1">
       <c r="A263" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -4878,10 +5674,13 @@
       <c r="C263">
         <v>1.0084</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" hidden="1">
+      <c r="E263">
+        <v>0.33265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" hidden="1">
       <c r="A264" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B264">
         <v>3</v>
@@ -4889,10 +5688,13 @@
       <c r="C264">
         <v>0.27010000000000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" hidden="1">
+      <c r="E264">
+        <v>7.7869999999999995E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" hidden="1">
       <c r="A265" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -4900,8 +5702,11 @@
       <c r="C265">
         <v>0.28236</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" hidden="1">
+      <c r="E265">
+        <v>8.473E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" hidden="1">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -4911,8 +5716,11 @@
       <c r="C266">
         <v>0.43636000000000003</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" hidden="1">
+      <c r="E266">
+        <v>0.13012000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" hidden="1">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -4922,8 +5730,11 @@
       <c r="C267">
         <v>0.42949999999999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" hidden="1">
+      <c r="E267">
+        <v>0.12167</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" hidden="1">
       <c r="A268" t="s">
         <v>43</v>
       </c>
@@ -4933,8 +5744,11 @@
       <c r="C268">
         <v>0.15989999999999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" hidden="1">
+      <c r="E268">
+        <v>5.3960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" hidden="1">
       <c r="A269" t="s">
         <v>44</v>
       </c>
@@ -4944,10 +5758,13 @@
       <c r="C269">
         <v>0.16647000000000001</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" hidden="1">
+      <c r="E269">
+        <v>6.0049999999999999E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" hidden="1">
       <c r="A270" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -4955,10 +5772,13 @@
       <c r="C270">
         <v>0.6714</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" hidden="1">
+      <c r="E270">
+        <v>0.20283999999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" hidden="1">
       <c r="A271" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -4966,8 +5786,11 @@
       <c r="C271">
         <v>0.80100000000000005</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" hidden="1">
+      <c r="E271">
+        <v>0.23113</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" hidden="1">
       <c r="A272" t="s">
         <v>51</v>
       </c>
@@ -4977,8 +5800,11 @@
       <c r="C272">
         <v>0.17810999999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" hidden="1">
+      <c r="E272">
+        <v>6.4750000000000002E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" hidden="1">
       <c r="A273" t="s">
         <v>52</v>
       </c>
@@ -4988,8 +5814,11 @@
       <c r="C273">
         <v>0.21096000000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" hidden="1">
+      <c r="E273">
+        <v>7.9189999999999997E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" hidden="1">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -4999,8 +5828,11 @@
       <c r="C274">
         <v>0.68799999999999994</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" hidden="1">
+      <c r="E274">
+        <v>0.16836000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" hidden="1">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -5010,10 +5842,13 @@
       <c r="C275">
         <v>0.79979999999999996</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" hidden="1">
+      <c r="E275">
+        <v>0.18905</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" hidden="1">
       <c r="A276" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -5021,10 +5856,13 @@
       <c r="C276">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" hidden="1">
+      <c r="E276">
+        <v>0.10752</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" hidden="1">
       <c r="A277" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -5032,10 +5870,13 @@
       <c r="C277">
         <v>0.48043999999999998</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" hidden="1">
+      <c r="E277">
+        <v>0.13123000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" hidden="1">
       <c r="A278" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -5043,10 +5884,13 @@
       <c r="C278">
         <v>0.38150000000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" hidden="1">
+      <c r="E278">
+        <v>0.12164999999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B279">
         <v>3</v>
@@ -5054,10 +5898,13 @@
       <c r="C279">
         <v>0.43758999999999998</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" hidden="1">
+      <c r="E279">
+        <v>0.12797</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B280">
         <v>3</v>
@@ -5065,10 +5912,13 @@
       <c r="C280">
         <v>0.36170000000000002</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" hidden="1">
+      <c r="E280">
+        <v>0.10749</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B281">
         <v>3</v>
@@ -5076,8 +5926,11 @@
       <c r="C281">
         <v>0.39190999999999998</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" hidden="1">
+      <c r="E281">
+        <v>0.11749</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" hidden="1">
       <c r="A282" t="s">
         <v>21</v>
       </c>
@@ -5087,8 +5940,11 @@
       <c r="C282">
         <v>0.21812999999999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" hidden="1">
+      <c r="E282">
+        <v>7.0349999999999996E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -5098,10 +5954,13 @@
       <c r="C283">
         <v>0.27305000000000001</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" hidden="1">
+      <c r="E283">
+        <v>8.8690000000000005E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B284">
         <v>3</v>
@@ -5109,10 +5968,13 @@
       <c r="C284">
         <v>0.39600000000000002</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" hidden="1">
+      <c r="E284">
+        <v>0.11303000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B285">
         <v>3</v>
@@ -5120,10 +5982,13 @@
       <c r="C285">
         <v>0.55620000000000003</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" hidden="1">
+      <c r="E285">
+        <v>0.16241</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B286">
         <v>3</v>
@@ -5131,10 +5996,13 @@
       <c r="C286">
         <v>0.40629999999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" hidden="1">
+      <c r="E286">
+        <v>0.13142999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -5142,10 +6010,13 @@
       <c r="C287">
         <v>0.45184000000000002</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" hidden="1">
+      <c r="E287">
+        <v>0.15171999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -5153,10 +6024,13 @@
       <c r="C288">
         <v>0.58099999999999996</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" hidden="1">
+      <c r="E288">
+        <v>0.19314000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B289">
         <v>2</v>
@@ -5164,8 +6038,11 @@
       <c r="C289">
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" hidden="1">
+      <c r="E289">
+        <v>0.21287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -5175,8 +6052,11 @@
       <c r="C290">
         <v>0.14118</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" hidden="1">
+      <c r="E290">
+        <v>4.6510000000000003E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -5186,10 +6066,13 @@
       <c r="C291">
         <v>0.29243000000000002</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" hidden="1">
+      <c r="E291">
+        <v>9.6140000000000003E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B292">
         <v>2</v>
@@ -5197,10 +6080,13 @@
       <c r="C292">
         <v>0.29933999999999999</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" hidden="1">
+      <c r="E292">
+        <v>8.5790000000000005E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B293">
         <v>2</v>
@@ -5208,10 +6094,13 @@
       <c r="C293">
         <v>0.33484999999999998</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" hidden="1">
+      <c r="E293">
+        <v>9.708E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B294">
         <v>2</v>
@@ -5219,10 +6108,13 @@
       <c r="C294">
         <v>0.1764</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" hidden="1">
+      <c r="E294">
+        <v>4.9880000000000001E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B295">
         <v>2</v>
@@ -5230,8 +6122,11 @@
       <c r="C295">
         <v>0.34300000000000003</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" hidden="1">
+      <c r="E295">
+        <v>0.10205</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" t="s">
         <v>39</v>
       </c>
@@ -5241,8 +6136,11 @@
       <c r="C296">
         <v>0.76500000000000001</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" hidden="1">
+      <c r="E296">
+        <v>0.21104999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297" t="s">
         <v>40</v>
       </c>
@@ -5252,8 +6150,11 @@
       <c r="C297">
         <v>0.88400000000000001</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" hidden="1">
+      <c r="E297">
+        <v>0.24274999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298" t="s">
         <v>147</v>
       </c>
@@ -5263,8 +6164,11 @@
       <c r="C298">
         <v>0.56899999999999995</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" hidden="1">
+      <c r="E298">
+        <v>0.16993</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299" t="s">
         <v>146</v>
       </c>
@@ -5274,8 +6178,11 @@
       <c r="C299">
         <v>0.71899999999999997</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" hidden="1">
+      <c r="E299">
+        <v>0.22594</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -5285,8 +6192,11 @@
       <c r="C300">
         <v>0.378</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" hidden="1">
+      <c r="E300">
+        <v>9.9180000000000004E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" hidden="1">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -5296,8 +6206,11 @@
       <c r="C301">
         <v>0.42393999999999998</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" hidden="1">
+      <c r="E301">
+        <v>0.11792999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302" t="s">
         <v>13</v>
       </c>
@@ -5307,8 +6220,11 @@
       <c r="C302">
         <v>0.27007999999999999</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" hidden="1">
+      <c r="E302">
+        <v>7.7359999999999998E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" t="s">
         <v>14</v>
       </c>
@@ -5318,8 +6234,11 @@
       <c r="C303">
         <v>0.29982999999999999</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" hidden="1">
+      <c r="E303">
+        <v>8.6169999999999997E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -5329,8 +6248,11 @@
       <c r="C304">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" hidden="1">
+      <c r="E304">
+        <v>0.38027</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" hidden="1">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -5340,10 +6262,13 @@
       <c r="C305">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" hidden="1">
+      <c r="E305">
+        <v>0.50056</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" hidden="1">
       <c r="A306" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -5351,10 +6276,13 @@
       <c r="C306">
         <v>0.496</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" hidden="1">
+      <c r="E306">
+        <v>0.16078000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" hidden="1">
       <c r="A307" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -5362,10 +6290,13 @@
       <c r="C307">
         <v>0.53800000000000003</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" hidden="1">
+      <c r="E307">
+        <v>0.15690999999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" hidden="1">
       <c r="A308" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -5373,10 +6304,13 @@
       <c r="C308">
         <v>0.44600000000000001</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" hidden="1">
+      <c r="E308">
+        <v>0.11326</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" hidden="1">
       <c r="A309" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -5384,10 +6318,13 @@
       <c r="C309">
         <v>0.74092999999999998</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" hidden="1">
+      <c r="E309">
+        <v>0.19403000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" hidden="1">
       <c r="A310" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B310">
         <v>2</v>
@@ -5395,10 +6332,13 @@
       <c r="C310">
         <v>0.31220999999999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" hidden="1">
+      <c r="E310">
+        <v>8.3919999999999995E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" hidden="1">
       <c r="A311" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -5406,10 +6346,13 @@
       <c r="C311">
         <v>0.57650000000000001</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" hidden="1">
+      <c r="E311">
+        <v>0.16682</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" hidden="1">
       <c r="A312" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -5417,10 +6360,13 @@
       <c r="C312">
         <v>0.54859999999999998</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" hidden="1">
+      <c r="E312">
+        <v>0.16425000000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" hidden="1">
       <c r="A313" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -5428,10 +6374,13 @@
       <c r="C313">
         <v>0.66569999999999996</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" hidden="1">
+      <c r="E313">
+        <v>0.19253000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" hidden="1">
       <c r="A314" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -5439,10 +6388,13 @@
       <c r="C314">
         <v>0.65900000000000003</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" hidden="1">
+      <c r="E314">
+        <v>0.21471999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" hidden="1">
       <c r="A315" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -5450,10 +6402,13 @@
       <c r="C315">
         <v>0.76700000000000002</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" hidden="1">
+      <c r="E315">
+        <v>0.22559000000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" hidden="1">
       <c r="A316" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -5461,10 +6416,13 @@
       <c r="C316">
         <v>0.72440000000000004</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" hidden="1">
+      <c r="E316">
+        <v>0.24129</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" hidden="1">
       <c r="A317" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -5472,8 +6430,11 @@
       <c r="C317">
         <v>0.86199999999999999</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" hidden="1">
+      <c r="E317">
+        <v>0.29038999999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" hidden="1">
       <c r="A318" t="s">
         <v>155</v>
       </c>
@@ -5483,8 +6444,11 @@
       <c r="C318">
         <v>0.379</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" hidden="1">
+      <c r="E318">
+        <v>9.5219999999999999E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" hidden="1">
       <c r="A319" t="s">
         <v>156</v>
       </c>
@@ -5494,8 +6458,11 @@
       <c r="C319">
         <v>0.46626000000000001</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" hidden="1">
+      <c r="E319">
+        <v>0.11946</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" hidden="1">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -5505,8 +6472,11 @@
       <c r="C320">
         <v>0.27156999999999998</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" hidden="1">
+      <c r="E320">
+        <v>7.3469999999999994E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" hidden="1">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -5516,10 +6486,13 @@
       <c r="C321">
         <v>0.33933999999999997</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" hidden="1">
+      <c r="E321">
+        <v>9.7290000000000001E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" hidden="1">
       <c r="A322" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -5527,10 +6500,13 @@
       <c r="C322">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" hidden="1">
+      <c r="E322">
+        <v>0.1653</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" hidden="1">
       <c r="A323" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -5538,10 +6514,13 @@
       <c r="C323">
         <v>0.52590000000000003</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" hidden="1">
+      <c r="E323">
+        <v>0.16245999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" hidden="1">
       <c r="A324" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -5549,10 +6528,13 @@
       <c r="C324">
         <v>0.60899999999999999</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" hidden="1">
+      <c r="E324">
+        <v>0.18411</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" hidden="1">
       <c r="A325" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -5560,10 +6542,13 @@
       <c r="C325">
         <v>0.8669</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" hidden="1">
+      <c r="E325">
+        <v>0.26217000000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" hidden="1">
       <c r="A326" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -5571,10 +6556,13 @@
       <c r="C326">
         <v>0.623</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" hidden="1">
+      <c r="E326">
+        <v>0.18901000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" hidden="1">
       <c r="A327" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -5582,10 +6570,13 @@
       <c r="C327">
         <v>0.81699999999999995</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" hidden="1">
+      <c r="E327">
+        <v>0.26006000000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" hidden="1">
       <c r="A328" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -5593,10 +6584,13 @@
       <c r="C328">
         <v>0.72823000000000004</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" hidden="1">
+      <c r="E328">
+        <v>0.17186999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" hidden="1">
       <c r="A329" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -5604,10 +6598,13 @@
       <c r="C329">
         <v>0.90300000000000002</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" hidden="1">
+      <c r="E329">
+        <v>0.22414999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" hidden="1">
       <c r="A330" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -5615,10 +6612,13 @@
       <c r="C330">
         <v>0.23796999999999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" hidden="1">
+      <c r="E330">
+        <v>7.6259999999999994E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" hidden="1">
       <c r="A331" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -5626,10 +6626,13 @@
       <c r="C331">
         <v>0.31441999999999998</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" hidden="1">
+      <c r="E331">
+        <v>0.10392</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" hidden="1">
       <c r="A332" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -5637,10 +6640,13 @@
       <c r="C332">
         <v>0.55800000000000005</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" hidden="1">
+      <c r="E332">
+        <v>0.17796999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" hidden="1">
       <c r="A333" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -5648,10 +6654,13 @@
       <c r="C333">
         <v>0.57899999999999996</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" hidden="1">
+      <c r="E333">
+        <v>0.18917</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" hidden="1">
       <c r="A334" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -5659,10 +6668,13 @@
       <c r="C334">
         <v>0.70540000000000003</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" hidden="1">
+      <c r="E334">
+        <v>0.21475</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" hidden="1">
       <c r="A335" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -5670,10 +6682,13 @@
       <c r="C335">
         <v>0.83299999999999996</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" hidden="1">
+      <c r="E335">
+        <v>0.21009</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" hidden="1">
       <c r="A336" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -5681,10 +6696,13 @@
       <c r="C336">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" hidden="1">
+      <c r="E336">
+        <v>0.15278</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" hidden="1">
       <c r="A337" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -5692,10 +6710,13 @@
       <c r="C337">
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" hidden="1">
+      <c r="E337">
+        <v>0.24706</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" hidden="1">
       <c r="A338" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -5703,10 +6724,13 @@
       <c r="C338">
         <v>0.6694</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" hidden="1">
+      <c r="E338">
+        <v>0.21939</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" hidden="1">
       <c r="A339" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -5714,10 +6738,13 @@
       <c r="C339">
         <v>0.69099999999999995</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" hidden="1">
+      <c r="E339">
+        <v>0.17649000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" hidden="1">
       <c r="A340" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -5725,10 +6752,13 @@
       <c r="C340">
         <v>0.69359999999999999</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" hidden="1">
+      <c r="E340">
+        <v>0.19861000000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" hidden="1">
       <c r="A341" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -5736,10 +6766,13 @@
       <c r="C341">
         <v>0.97399999999999998</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" hidden="1">
+      <c r="E341">
+        <v>0.27407999999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" hidden="1">
       <c r="A342" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -5747,10 +6780,13 @@
       <c r="C342">
         <v>0.52200000000000002</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" hidden="1">
+      <c r="E342">
+        <v>0.16891999999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" hidden="1">
       <c r="A343" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -5758,8 +6794,11 @@
       <c r="C343">
         <v>0.77400000000000002</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" hidden="1">
+      <c r="E343">
+        <v>0.25574999999999998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" hidden="1">
       <c r="A344" t="s">
         <v>148</v>
       </c>
@@ -5769,8 +6808,11 @@
       <c r="C344">
         <v>0.42670000000000002</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" hidden="1">
+      <c r="E344">
+        <v>0.12425</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" hidden="1">
       <c r="A345" t="s">
         <v>149</v>
       </c>
@@ -5780,10 +6822,13 @@
       <c r="C345">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" hidden="1">
+      <c r="E345">
+        <v>0.13735</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" hidden="1">
       <c r="A346" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -5791,10 +6836,13 @@
       <c r="C346">
         <v>0.80200000000000005</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" hidden="1">
+      <c r="E346">
+        <v>0.20055000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" hidden="1">
       <c r="A347" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -5802,10 +6850,13 @@
       <c r="C347">
         <v>1.383</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" hidden="1">
+      <c r="E347">
+        <v>0.36786999999999997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" hidden="1">
       <c r="A348" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -5813,10 +6864,13 @@
       <c r="C348">
         <v>0.505</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" hidden="1">
+      <c r="E348">
+        <v>0.15117</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" hidden="1">
       <c r="A349" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -5824,8 +6878,11 @@
       <c r="C349">
         <v>0.61129999999999995</v>
       </c>
-    </row>
-    <row r="350" spans="1:3">
+      <c r="E349">
+        <v>0.19486999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" hidden="1">
       <c r="A350" t="s">
         <v>183</v>
       </c>
@@ -5835,8 +6892,11 @@
       <c r="C350">
         <v>3.7629999999999997E-2</v>
       </c>
-    </row>
-    <row r="351" spans="1:3">
+      <c r="E350">
+        <v>1.129E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" hidden="1">
       <c r="A351" t="s">
         <v>184</v>
       </c>
@@ -5846,10 +6906,13 @@
       <c r="C351">
         <v>3.2910000000000002E-2</v>
       </c>
-    </row>
-    <row r="352" spans="1:3">
+      <c r="E351">
+        <v>1.0059999999999999E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" hidden="1">
       <c r="A352" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B352">
         <v>11</v>
@@ -5857,10 +6920,13 @@
       <c r="C352">
         <v>7.2020000000000001E-2</v>
       </c>
-    </row>
-    <row r="353" spans="1:3">
+      <c r="E352">
+        <v>2.3109999999999999E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" hidden="1">
       <c r="A353" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B353">
         <v>11</v>
@@ -5868,10 +6934,13 @@
       <c r="C353">
         <v>6.6269999999999996E-2</v>
       </c>
-    </row>
-    <row r="354" spans="1:3">
+      <c r="E353">
+        <v>2.0840000000000001E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" hidden="1">
       <c r="A354" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B354">
         <v>11</v>
@@ -5879,10 +6948,13 @@
       <c r="C354">
         <v>1.7639999999999999E-2</v>
       </c>
-    </row>
-    <row r="355" spans="1:3">
+      <c r="E354">
+        <v>7.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" hidden="1">
       <c r="A355" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B355">
         <v>11</v>
@@ -5890,10 +6962,13 @@
       <c r="C355">
         <v>4.8939999999999997E-2</v>
       </c>
-    </row>
-    <row r="356" spans="1:3">
+      <c r="E355">
+        <v>1.8450000000000001E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" hidden="1">
       <c r="A356" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B356">
         <v>11</v>
@@ -5901,10 +6976,13 @@
       <c r="C356">
         <v>6.9269999999999998E-2</v>
       </c>
-    </row>
-    <row r="357" spans="1:3">
+      <c r="E356">
+        <v>2.4539999999999999E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" hidden="1">
       <c r="A357" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B357">
         <v>11</v>
@@ -5912,8 +6990,11 @@
       <c r="C357">
         <v>8.9249999999999996E-2</v>
       </c>
-    </row>
-    <row r="358" spans="1:3">
+      <c r="E357">
+        <v>3.057E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" hidden="1">
       <c r="A358" t="s">
         <v>116</v>
       </c>
@@ -5923,8 +7004,11 @@
       <c r="C358">
         <v>4.4830000000000002E-2</v>
       </c>
-    </row>
-    <row r="359" spans="1:3">
+      <c r="E358">
+        <v>1.221E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" hidden="1">
       <c r="A359" t="s">
         <v>117</v>
       </c>
@@ -5934,10 +7018,13 @@
       <c r="C359">
         <v>4.734E-2</v>
       </c>
-    </row>
-    <row r="360" spans="1:3">
+      <c r="E359">
+        <v>1.375E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" hidden="1">
       <c r="A360" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B360">
         <v>11</v>
@@ -5945,10 +7032,13 @@
       <c r="C360">
         <v>3.5450000000000002E-2</v>
       </c>
-    </row>
-    <row r="361" spans="1:3">
+      <c r="E360">
+        <v>1.251E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" hidden="1">
       <c r="A361" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B361">
         <v>11</v>
@@ -5956,10 +7046,13 @@
       <c r="C361">
         <v>5.0650000000000001E-2</v>
       </c>
-    </row>
-    <row r="362" spans="1:3">
+      <c r="E361">
+        <v>1.7430000000000001E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" hidden="1">
       <c r="A362" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B362">
         <v>11</v>
@@ -5967,10 +7060,13 @@
       <c r="C362">
         <v>1.389E-2</v>
       </c>
-    </row>
-    <row r="363" spans="1:3">
+      <c r="E362">
+        <v>6.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" hidden="1">
       <c r="A363" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B363">
         <v>11</v>
@@ -5978,10 +7074,13 @@
       <c r="C363">
         <v>5.509E-2</v>
       </c>
-    </row>
-    <row r="364" spans="1:3">
+      <c r="E363">
+        <v>2.164E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" hidden="1">
       <c r="A364" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B364">
         <v>11</v>
@@ -5989,10 +7088,13 @@
       <c r="C364">
         <v>1.6240000000000001E-2</v>
       </c>
-    </row>
-    <row r="365" spans="1:3">
+      <c r="E364">
+        <v>6.6299999999999996E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" hidden="1">
       <c r="A365" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B365">
         <v>11</v>
@@ -6000,10 +7102,13 @@
       <c r="C365">
         <v>1.882E-2</v>
       </c>
-    </row>
-    <row r="366" spans="1:3">
+      <c r="E365">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" hidden="1">
       <c r="A366" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B366">
         <v>11</v>
@@ -6011,10 +7116,13 @@
       <c r="C366">
         <v>7.3700000000000002E-2</v>
       </c>
-    </row>
-    <row r="367" spans="1:3">
+      <c r="E366">
+        <v>2.5729999999999999E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" hidden="1">
       <c r="A367" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B367">
         <v>11</v>
@@ -6022,10 +7130,13 @@
       <c r="C367">
         <v>8.1850000000000006E-2</v>
       </c>
-    </row>
-    <row r="368" spans="1:3">
+      <c r="E367">
+        <v>2.9080000000000002E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" hidden="1">
       <c r="A368" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B368">
         <v>11</v>
@@ -6033,10 +7144,13 @@
       <c r="C368">
         <v>7.7770000000000006E-2</v>
       </c>
-    </row>
-    <row r="369" spans="1:3">
+      <c r="E368">
+        <v>2.6620000000000001E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" hidden="1">
       <c r="A369" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B369">
         <v>11</v>
@@ -6044,10 +7158,13 @@
       <c r="C369">
         <v>0.10082000000000001</v>
       </c>
-    </row>
-    <row r="370" spans="1:3">
+      <c r="E369">
+        <v>3.6679999999999997E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" hidden="1">
       <c r="A370" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B370">
         <v>11</v>
@@ -6055,10 +7172,13 @@
       <c r="C370">
         <v>6.447E-2</v>
       </c>
-    </row>
-    <row r="371" spans="1:3">
+      <c r="E370">
+        <v>1.9120000000000002E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" hidden="1">
       <c r="A371" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B371">
         <v>11</v>
@@ -6066,8 +7186,11 @@
       <c r="C371">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="372" spans="1:3">
+      <c r="E371">
+        <v>3.0759999999999999E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" hidden="1">
       <c r="A372" t="s">
         <v>132</v>
       </c>
@@ -6077,8 +7200,11 @@
       <c r="C372">
         <v>0.40227000000000002</v>
       </c>
-    </row>
-    <row r="373" spans="1:3">
+      <c r="E372">
+        <v>0.12837999999999999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" hidden="1">
       <c r="A373" t="s">
         <v>133</v>
       </c>
@@ -6088,8 +7214,11 @@
       <c r="C373">
         <v>0.496</v>
       </c>
-    </row>
-    <row r="374" spans="1:3">
+      <c r="E373">
+        <v>0.17587</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" hidden="1">
       <c r="A374" t="s">
         <v>128</v>
       </c>
@@ -6099,8 +7228,11 @@
       <c r="C374">
         <v>6.0089999999999998E-2</v>
       </c>
-    </row>
-    <row r="375" spans="1:3">
+      <c r="E374">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" hidden="1">
       <c r="A375" t="s">
         <v>129</v>
       </c>
@@ -6110,10 +7242,13 @@
       <c r="C375">
         <v>0.10811999999999999</v>
       </c>
-    </row>
-    <row r="376" spans="1:3">
+      <c r="E375">
+        <v>3.7039999999999997E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" hidden="1">
       <c r="A376" t="s">
-        <v>61</v>
+        <v>498</v>
       </c>
       <c r="B376">
         <v>11</v>
@@ -6121,10 +7256,13 @@
       <c r="C376">
         <v>5.2839999999999998E-2</v>
       </c>
-    </row>
-    <row r="377" spans="1:3">
+      <c r="E376">
+        <v>1.8429999999999998E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" hidden="1">
       <c r="A377" t="s">
-        <v>62</v>
+        <v>499</v>
       </c>
       <c r="B377">
         <v>11</v>
@@ -6132,10 +7270,13 @@
       <c r="C377">
         <v>5.8700000000000002E-2</v>
       </c>
-    </row>
-    <row r="378" spans="1:3">
+      <c r="E377">
+        <v>2.078E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" hidden="1">
       <c r="A378" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B378">
         <v>11</v>
@@ -6143,10 +7284,13 @@
       <c r="C378">
         <v>4.4010000000000001E-2</v>
       </c>
-    </row>
-    <row r="379" spans="1:3">
+      <c r="E378">
+        <v>1.502E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" hidden="1">
       <c r="A379" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B379">
         <v>11</v>
@@ -6154,10 +7298,13 @@
       <c r="C379">
         <v>5.5199999999999999E-2</v>
       </c>
-    </row>
-    <row r="380" spans="1:3">
+      <c r="E379">
+        <v>1.703E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" hidden="1">
       <c r="A380" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B380">
         <v>11</v>
@@ -6165,10 +7312,13 @@
       <c r="C380">
         <v>0.14635000000000001</v>
       </c>
-    </row>
-    <row r="381" spans="1:3">
+      <c r="E380">
+        <v>5.2650000000000002E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" hidden="1">
       <c r="A381" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B381">
         <v>11</v>
@@ -6176,10 +7326,13 @@
       <c r="C381">
         <v>0.22664000000000001</v>
       </c>
-    </row>
-    <row r="382" spans="1:3">
+      <c r="E381">
+        <v>7.6840000000000006E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" hidden="1">
       <c r="A382" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B382">
         <v>11</v>
@@ -6187,10 +7340,13 @@
       <c r="C382">
         <v>0.3417</v>
       </c>
-    </row>
-    <row r="383" spans="1:3">
+      <c r="E382">
+        <v>0.11239</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" hidden="1">
       <c r="A383" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B383">
         <v>11</v>
@@ -6198,10 +7354,13 @@
       <c r="C383">
         <v>0.40339999999999998</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" hidden="1">
+      <c r="E383">
+        <v>0.13935</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" hidden="1">
       <c r="A384" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B384">
         <v>7</v>
@@ -6209,10 +7368,13 @@
       <c r="C384">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" hidden="1">
+      <c r="E384">
+        <v>0.74761</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" hidden="1">
       <c r="A385" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B385">
         <v>7</v>
@@ -6220,10 +7382,13 @@
       <c r="C385">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" hidden="1">
+      <c r="E385">
+        <v>0.59269000000000005</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" hidden="1">
       <c r="A386" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B386">
         <v>7</v>
@@ -6231,10 +7396,13 @@
       <c r="C386">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" hidden="1">
+      <c r="E386">
+        <v>0.53007000000000004</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" hidden="1">
       <c r="A387" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B387">
         <v>7</v>
@@ -6242,10 +7410,13 @@
       <c r="C387">
         <v>2.661</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" hidden="1">
+      <c r="E387">
+        <v>0.59028000000000003</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" hidden="1">
       <c r="A388" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B388">
         <v>7</v>
@@ -6253,10 +7424,13 @@
       <c r="C388">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" hidden="1">
+      <c r="E388">
+        <v>9.2850000000000002E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" hidden="1">
       <c r="A389" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B389">
         <v>7</v>
@@ -6264,10 +7438,13 @@
       <c r="C389">
         <v>0.83399999999999996</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" hidden="1">
+      <c r="E389">
+        <v>0.22669</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" hidden="1">
       <c r="A390" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B390">
         <v>7</v>
@@ -6275,10 +7452,13 @@
       <c r="C390">
         <v>1.4430000000000001</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" hidden="1">
+      <c r="E390">
+        <v>0.33617000000000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" hidden="1">
       <c r="A391" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B391">
         <v>7</v>
@@ -6286,10 +7466,13 @@
       <c r="C391">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" hidden="1">
+      <c r="E391">
+        <v>0.71945999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" hidden="1">
       <c r="A392" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B392">
         <v>7</v>
@@ -6297,10 +7480,13 @@
       <c r="C392">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" hidden="1">
+      <c r="E392">
+        <v>5.8630000000000002E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" hidden="1">
       <c r="A393" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B393">
         <v>7</v>
@@ -6308,10 +7494,13 @@
       <c r="C393">
         <v>0.23749999999999999</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" hidden="1">
+      <c r="E393">
+        <v>7.5149999999999995E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" hidden="1">
       <c r="A394" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B394">
         <v>7</v>
@@ -6319,10 +7508,13 @@
       <c r="C394">
         <v>0.94899999999999995</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" hidden="1">
+      <c r="E394">
+        <v>0.30843999999999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" hidden="1">
       <c r="A395" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B395">
         <v>7</v>
@@ -6330,10 +7522,13 @@
       <c r="C395">
         <v>0.52900000000000003</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" hidden="1">
+      <c r="E395">
+        <v>0.16433</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" hidden="1">
       <c r="A396" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B396">
         <v>7</v>
@@ -6341,10 +7536,13 @@
       <c r="C396">
         <v>3.7170000000000001</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" hidden="1">
+      <c r="E396">
+        <v>0.88275000000000003</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" hidden="1">
       <c r="A397" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B397">
         <v>7</v>
@@ -6352,10 +7550,13 @@
       <c r="C397">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" hidden="1">
+      <c r="E397">
+        <v>0.83233999999999997</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" hidden="1">
       <c r="A398" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B398">
         <v>7</v>
@@ -6363,10 +7564,13 @@
       <c r="C398">
         <v>0.496</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" hidden="1">
+      <c r="E398">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" hidden="1">
       <c r="A399" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B399">
         <v>7</v>
@@ -6374,10 +7578,13 @@
       <c r="C399">
         <v>0.44700000000000001</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" hidden="1">
+      <c r="E399">
+        <v>0.14277000000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" hidden="1">
       <c r="A400" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B400">
         <v>7</v>
@@ -6385,10 +7592,13 @@
       <c r="C400">
         <v>0.37669999999999998</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" hidden="1">
+      <c r="E400">
+        <v>0.11686000000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" hidden="1">
       <c r="A401" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B401">
         <v>7</v>
@@ -6396,10 +7606,13 @@
       <c r="C401">
         <v>0.46100000000000002</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" hidden="1">
+      <c r="E401">
+        <v>0.15851999999999999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B402">
         <v>7</v>
@@ -6407,10 +7620,13 @@
       <c r="C402">
         <v>1.5369999999999999</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" hidden="1">
+      <c r="E402">
+        <v>0.54727000000000003</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B403">
         <v>7</v>
@@ -6418,10 +7634,13 @@
       <c r="C403">
         <v>0.98560000000000003</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" hidden="1">
+      <c r="E403">
+        <v>0.34809000000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" hidden="1">
       <c r="A404" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B404">
         <v>7</v>
@@ -6429,10 +7648,13 @@
       <c r="C404">
         <v>0.71599999999999997</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" hidden="1">
+      <c r="E404">
+        <v>0.23891000000000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" hidden="1">
       <c r="A405" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B405">
         <v>7</v>
@@ -6440,10 +7662,13 @@
       <c r="C405">
         <v>0.63719999999999999</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" hidden="1">
+      <c r="E405">
+        <v>0.20846000000000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" hidden="1">
       <c r="A406" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B406">
         <v>7</v>
@@ -6451,10 +7676,13 @@
       <c r="C406">
         <v>0.51680000000000004</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" hidden="1">
+      <c r="E406">
+        <v>0.15483</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B407">
         <v>7</v>
@@ -6462,10 +7690,13 @@
       <c r="C407">
         <v>0.51800000000000002</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" hidden="1">
+      <c r="E407">
+        <v>0.15245</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" hidden="1">
       <c r="A408" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B408">
         <v>7</v>
@@ -6473,10 +7704,13 @@
       <c r="C408">
         <v>0.25274999999999997</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" hidden="1">
+      <c r="E408">
+        <v>7.6100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" hidden="1">
       <c r="A409" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B409">
         <v>7</v>
@@ -6484,10 +7718,13 @@
       <c r="C409">
         <v>0.65600000000000003</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" hidden="1">
+      <c r="E409">
+        <v>0.21229999999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" hidden="1">
       <c r="A410" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B410">
         <v>7</v>
@@ -6495,10 +7732,13 @@
       <c r="C410">
         <v>0.40961999999999998</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" hidden="1">
+      <c r="E410">
+        <v>0.12684000000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B411">
         <v>7</v>
@@ -6506,10 +7746,13 @@
       <c r="C411">
         <v>0.621</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" hidden="1">
+      <c r="E411">
+        <v>0.16905999999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B412">
         <v>7</v>
@@ -6517,10 +7760,13 @@
       <c r="C412">
         <v>0.41139999999999999</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" hidden="1">
+      <c r="E412">
+        <v>0.10462</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" hidden="1">
       <c r="A413" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B413">
         <v>7</v>
@@ -6528,10 +7774,13 @@
       <c r="C413">
         <v>0.56203000000000003</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" hidden="1">
+      <c r="E413">
+        <v>0.17867</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B414">
         <v>7</v>
@@ -6539,10 +7788,13 @@
       <c r="C414">
         <v>0.29588999999999999</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" hidden="1">
+      <c r="E414">
+        <v>0.10596</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B415">
         <v>7</v>
@@ -6550,10 +7802,13 @@
       <c r="C415">
         <v>0.502</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" hidden="1">
+      <c r="E415">
+        <v>0.15851000000000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" hidden="1">
       <c r="A416" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B416">
         <v>7</v>
@@ -6561,10 +7816,13 @@
       <c r="C416">
         <v>0.32380999999999999</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" hidden="1">
+      <c r="E416">
+        <v>0.11004</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" hidden="1">
       <c r="A417" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B417">
         <v>7</v>
@@ -6572,10 +7830,13 @@
       <c r="C417">
         <v>0.4425</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" hidden="1">
+      <c r="E417">
+        <v>0.14535000000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" hidden="1">
       <c r="A418" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B418">
         <v>7</v>
@@ -6583,10 +7844,13 @@
       <c r="C418">
         <v>0.47699999999999998</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" hidden="1">
+      <c r="E418">
+        <v>0.14208999999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" hidden="1">
       <c r="A419" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B419">
         <v>7</v>
@@ -6594,10 +7858,13 @@
       <c r="C419">
         <v>0.66400000000000003</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" hidden="1">
+      <c r="E419">
+        <v>0.20301</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B420">
         <v>7</v>
@@ -6605,10 +7872,13 @@
       <c r="C420">
         <v>0.81399999999999995</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" hidden="1">
+      <c r="E420">
+        <v>0.26718999999999998</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" hidden="1">
       <c r="A421" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B421">
         <v>7</v>
@@ -6616,10 +7886,13 @@
       <c r="C421">
         <v>0.46100000000000002</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" hidden="1">
+      <c r="E421">
+        <v>0.14169000000000001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B422">
         <v>7</v>
@@ -6627,10 +7900,13 @@
       <c r="C422">
         <v>1.5720000000000001</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" hidden="1">
+      <c r="E422">
+        <v>0.3669</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" hidden="1">
       <c r="A423" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B423">
         <v>7</v>
@@ -6638,10 +7914,13 @@
       <c r="C423">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" hidden="1">
+      <c r="E423">
+        <v>0.45305000000000001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" hidden="1">
       <c r="A424" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B424">
         <v>7</v>
@@ -6649,10 +7928,13 @@
       <c r="C424">
         <v>0.31669999999999998</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" hidden="1">
+      <c r="E424">
+        <v>0.12182</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" hidden="1">
       <c r="A425" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B425">
         <v>7</v>
@@ -6660,10 +7942,13 @@
       <c r="C425">
         <v>0.78239999999999998</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" hidden="1">
+      <c r="E425">
+        <v>0.30096000000000001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B426">
         <v>7</v>
@@ -6671,10 +7956,13 @@
       <c r="C426">
         <v>0.34370000000000001</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" hidden="1">
+      <c r="E426">
+        <v>0.11133999999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B427">
         <v>7</v>
@@ -6682,10 +7970,13 @@
       <c r="C427">
         <v>0.35570000000000002</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" hidden="1">
+      <c r="E427">
+        <v>0.11206000000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" hidden="1">
       <c r="A428" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B428">
         <v>13</v>
@@ -6693,10 +7984,13 @@
       <c r="C428">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" hidden="1">
+      <c r="E428">
+        <v>0.70438000000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" hidden="1">
       <c r="A429" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B429">
         <v>13</v>
@@ -6704,10 +7998,13 @@
       <c r="C429">
         <v>2.907</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" hidden="1">
+      <c r="E429">
+        <v>0.73585999999999996</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B430">
         <v>13</v>
@@ -6715,10 +8012,13 @@
       <c r="C430">
         <v>1.7299999999999999E-2</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" hidden="1">
+      <c r="E430">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B431">
         <v>13</v>
@@ -6726,10 +8026,13 @@
       <c r="C431">
         <v>2.5420000000000002E-2</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" hidden="1">
+      <c r="E431">
+        <v>7.7400000000000004E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B432">
         <v>13</v>
@@ -6737,10 +8040,13 @@
       <c r="C432">
         <v>0.25369999999999998</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" hidden="1">
+      <c r="E432">
+        <v>7.7670000000000003E-2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" hidden="1">
       <c r="A433" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B433">
         <v>13</v>
@@ -6748,10 +8054,13 @@
       <c r="C433">
         <v>0.4118</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" hidden="1">
+      <c r="E433">
+        <v>0.12288</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" hidden="1">
       <c r="A434" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B434">
         <v>13</v>
@@ -6759,10 +8068,13 @@
       <c r="C434">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" hidden="1">
+      <c r="E434">
+        <v>0.95243999999999995</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" hidden="1">
       <c r="A435" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B435">
         <v>13</v>
@@ -6770,10 +8082,13 @@
       <c r="C435">
         <v>3.1319900000000001</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" hidden="1">
+      <c r="E435">
+        <v>0.68959999999999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" hidden="1">
       <c r="A436" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B436">
         <v>13</v>
@@ -6781,10 +8096,13 @@
       <c r="C436">
         <v>2.7230000000000001E-2</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" hidden="1">
+      <c r="E436">
+        <v>1.1639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" hidden="1">
       <c r="A437" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B437">
         <v>13</v>
@@ -6792,10 +8110,13 @@
       <c r="C437">
         <v>2.8590000000000001E-2</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" hidden="1">
+      <c r="E437">
+        <v>1.227E-2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" hidden="1">
       <c r="A438" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B438">
         <v>13</v>
@@ -6803,10 +8124,13 @@
       <c r="C438">
         <v>5.7250000000000002E-2</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" hidden="1">
+      <c r="E438">
+        <v>2.0289999999999999E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" hidden="1">
       <c r="A439" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B439">
         <v>13</v>
@@ -6814,10 +8138,13 @@
       <c r="C439">
         <v>0.26629999999999998</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" hidden="1">
+      <c r="E439">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" hidden="1">
       <c r="A440" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B440">
         <v>13</v>
@@ -6825,10 +8152,13 @@
       <c r="C440">
         <v>0.95399999999999996</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" hidden="1">
+      <c r="E440">
+        <v>0.33276</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" hidden="1">
       <c r="A441" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B441">
         <v>13</v>
@@ -6836,10 +8166,13 @@
       <c r="C441">
         <v>0.63380000000000003</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" hidden="1">
+      <c r="E441">
+        <v>0.22325</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" hidden="1">
       <c r="A442" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B442">
         <v>13</v>
@@ -6847,10 +8180,13 @@
       <c r="C442">
         <v>1.1950000000000001E-2</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" hidden="1">
+      <c r="E442">
+        <v>5.0200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" hidden="1">
       <c r="A443" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B443">
         <v>13</v>
@@ -6858,10 +8194,13 @@
       <c r="C443">
         <v>7.3099999999999997E-3</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" hidden="1">
+      <c r="E443">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" hidden="1">
       <c r="A444" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B444">
         <v>13</v>
@@ -6869,10 +8208,13 @@
       <c r="C444">
         <v>1.4578</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" hidden="1">
+      <c r="E444">
+        <v>0.50832999999999995</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" hidden="1">
       <c r="A445" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B445">
         <v>13</v>
@@ -6880,10 +8222,13 @@
       <c r="C445">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" hidden="1">
+      <c r="E445">
+        <v>0.39215</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" hidden="1">
       <c r="A446" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B446">
         <v>13</v>
@@ -6891,10 +8236,13 @@
       <c r="C446">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" hidden="1">
+      <c r="E446">
+        <v>7.1910000000000002E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" hidden="1">
       <c r="A447" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B447">
         <v>13</v>
@@ -6902,10 +8250,13 @@
       <c r="C447">
         <v>0.27029999999999998</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" hidden="1">
+      <c r="E447">
+        <v>9.1469999999999996E-2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" hidden="1">
       <c r="A448" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B448">
         <v>13</v>
@@ -6913,10 +8264,13 @@
       <c r="C448">
         <v>0.31412000000000001</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" hidden="1">
+      <c r="E448">
+        <v>9.4520000000000007E-2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" hidden="1">
       <c r="A449" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B449">
         <v>13</v>
@@ -6924,10 +8278,13 @@
       <c r="C449">
         <v>0.26987</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" hidden="1">
+      <c r="E449">
+        <v>8.0629999999999993E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" hidden="1">
       <c r="A450" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B450">
         <v>13</v>
@@ -6935,10 +8292,13 @@
       <c r="C450">
         <v>0.25589000000000001</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" hidden="1">
+      <c r="E450">
+        <v>7.2489999999999999E-2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" hidden="1">
       <c r="A451" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B451">
         <v>13</v>
@@ -6946,10 +8306,13 @@
       <c r="C451">
         <v>0.5887</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" hidden="1">
+      <c r="E451">
+        <v>0.17904</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" hidden="1">
       <c r="A452" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B452">
         <v>13</v>
@@ -6957,10 +8320,13 @@
       <c r="C452">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" hidden="1">
+      <c r="E452">
+        <v>0.92491000000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" hidden="1">
       <c r="A453" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B453">
         <v>13</v>
@@ -6968,10 +8334,13 @@
       <c r="C453">
         <v>2.0505</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" hidden="1">
+      <c r="E453">
+        <v>0.44506000000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" hidden="1">
       <c r="A454" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B454">
         <v>13</v>
@@ -6979,10 +8348,13 @@
       <c r="C454">
         <v>0.27052999999999999</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" hidden="1">
+      <c r="E454">
+        <v>9.2520000000000005E-2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" hidden="1">
       <c r="A455" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B455">
         <v>13</v>
@@ -6990,10 +8362,13 @@
       <c r="C455">
         <v>0.44579999999999997</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" hidden="1">
+      <c r="E455">
+        <v>0.14265</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" hidden="1">
       <c r="A456" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B456">
         <v>13</v>
@@ -7001,10 +8376,13 @@
       <c r="C456">
         <v>2.5779999999999998</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" hidden="1">
+      <c r="E456">
+        <v>0.5645</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" hidden="1">
       <c r="A457" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B457">
         <v>13</v>
@@ -7012,10 +8390,13 @@
       <c r="C457">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" hidden="1">
+      <c r="E457">
+        <v>0.45272000000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" hidden="1">
       <c r="A458" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B458">
         <v>13</v>
@@ -7023,10 +8404,13 @@
       <c r="C458">
         <v>3.01</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" hidden="1">
+      <c r="E458">
+        <v>0.67486999999999997</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" hidden="1">
       <c r="A459" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B459">
         <v>13</v>
@@ -7034,10 +8418,13 @@
       <c r="C459">
         <v>3.0680000000000001</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" hidden="1">
+      <c r="E459">
+        <v>0.69494</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" hidden="1">
       <c r="A460" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B460">
         <v>13</v>
@@ -7045,10 +8432,13 @@
       <c r="C460">
         <v>2.0219999999999998E-2</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" hidden="1">
+      <c r="E460">
+        <v>7.9399999999999991E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" hidden="1">
       <c r="A461" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B461">
         <v>13</v>
@@ -7056,10 +8446,13 @@
       <c r="C461">
         <v>3.6519999999999997E-2</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" hidden="1">
+      <c r="E461">
+        <v>1.4189999999999999E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" hidden="1">
       <c r="A462" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B462">
         <v>13</v>
@@ -7067,10 +8460,13 @@
       <c r="C462">
         <v>0.25800000000000001</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" hidden="1">
+      <c r="E462">
+        <v>9.0539999999999995E-2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" hidden="1">
       <c r="A463" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B463">
         <v>13</v>
@@ -7078,10 +8474,13 @@
       <c r="C463">
         <v>0.33879999999999999</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" hidden="1">
+      <c r="E463">
+        <v>0.11568000000000001</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" hidden="1">
       <c r="A464" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B464">
         <v>13</v>
@@ -7089,10 +8488,13 @@
       <c r="C464">
         <v>0.22883999999999999</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" hidden="1">
+      <c r="E464">
+        <v>7.0749999999999993E-2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" hidden="1">
       <c r="A465" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B465">
         <v>13</v>
@@ -7100,10 +8502,13 @@
       <c r="C465">
         <v>0.3352</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" hidden="1">
+      <c r="E465">
+        <v>9.536E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" hidden="1">
       <c r="A466" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B466">
         <v>13</v>
@@ -7111,10 +8516,13 @@
       <c r="C466">
         <v>0.27907999999999999</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" hidden="1">
+      <c r="E466">
+        <v>9.3630000000000005E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" hidden="1">
       <c r="A467" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B467">
         <v>13</v>
@@ -7122,10 +8530,13 @@
       <c r="C467">
         <v>0.21009</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" hidden="1">
+      <c r="E467">
+        <v>7.9619999999999996E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" hidden="1">
       <c r="A468" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B468">
         <v>13</v>
@@ -7133,10 +8544,13 @@
       <c r="C468">
         <v>0.34599999999999997</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" hidden="1">
+      <c r="E468">
+        <v>0.10012</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" hidden="1">
       <c r="A469" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B469">
         <v>13</v>
@@ -7144,10 +8558,13 @@
       <c r="C469">
         <v>0.64849999999999997</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" hidden="1">
+      <c r="E469">
+        <v>0.20394000000000001</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" hidden="1">
       <c r="A470" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B470">
         <v>13</v>
@@ -7155,10 +8572,13 @@
       <c r="C470">
         <v>0.29799999999999999</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" hidden="1">
+      <c r="E470">
+        <v>9.5740000000000006E-2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" hidden="1">
       <c r="A471" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B471">
         <v>13</v>
@@ -7166,10 +8586,13 @@
       <c r="C471">
         <v>0.51541000000000003</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" hidden="1">
+      <c r="E471">
+        <v>0.15275</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" hidden="1">
       <c r="A472" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B472">
         <v>10</v>
@@ -7177,10 +8600,13 @@
       <c r="C472">
         <v>2.7509999999999999</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" hidden="1">
+      <c r="E472">
+        <v>0.60009999999999997</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" hidden="1">
       <c r="A473" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B473">
         <v>10</v>
@@ -7188,10 +8614,13 @@
       <c r="C473">
         <v>3.5142000000000002</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" hidden="1">
+      <c r="E473">
+        <v>0.79107000000000005</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" hidden="1">
       <c r="A474" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B474">
         <v>10</v>
@@ -7199,10 +8628,13 @@
       <c r="C474">
         <v>0.47749000000000003</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" hidden="1">
+      <c r="E474">
+        <v>0.12734999999999999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" hidden="1">
       <c r="A475" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B475">
         <v>10</v>
@@ -7210,10 +8642,13 @@
       <c r="C475">
         <v>0.38290000000000002</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" hidden="1">
+      <c r="E475">
+        <v>8.5120000000000001E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" hidden="1">
       <c r="A476" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B476">
         <v>10</v>
@@ -7221,10 +8656,13 @@
       <c r="C476">
         <v>3.5089999999999999</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" hidden="1">
+      <c r="E476">
+        <v>0.65012000000000003</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" hidden="1">
       <c r="A477" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B477">
         <v>10</v>
@@ -7232,10 +8670,13 @@
       <c r="C477">
         <v>2.8460000000000001</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" hidden="1">
+      <c r="E477">
+        <v>0.55066000000000004</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" hidden="1">
       <c r="A478" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B478">
         <v>10</v>
@@ -7243,10 +8684,13 @@
       <c r="C478">
         <v>0.82630000000000003</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" hidden="1">
+      <c r="E478">
+        <v>0.20003000000000001</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" hidden="1">
       <c r="A479" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B479">
         <v>10</v>
@@ -7254,10 +8698,13 @@
       <c r="C479">
         <v>0.69230000000000003</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" hidden="1">
+      <c r="E479">
+        <v>0.16546</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" hidden="1">
       <c r="A480" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B480">
         <v>10</v>
@@ -7265,10 +8712,13 @@
       <c r="C480">
         <v>0.70909999999999995</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" hidden="1">
+      <c r="E480">
+        <v>0.25124000000000002</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" hidden="1">
       <c r="A481" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B481">
         <v>10</v>
@@ -7276,10 +8726,13 @@
       <c r="C481">
         <v>0.79320000000000002</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" hidden="1">
+      <c r="E481">
+        <v>0.29086000000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" hidden="1">
       <c r="A482" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B482">
         <v>10</v>
@@ -7287,10 +8740,13 @@
       <c r="C482">
         <v>6.5250000000000002E-2</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" hidden="1">
+      <c r="E482">
+        <v>2.7519999999999999E-2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" hidden="1">
       <c r="A483" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B483">
         <v>10</v>
@@ -7298,10 +8754,13 @@
       <c r="C483">
         <v>0.27443000000000001</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" hidden="1">
+      <c r="E483">
+        <v>9.8409999999999997E-2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" hidden="1">
       <c r="A484" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B484">
         <v>10</v>
@@ -7309,10 +8768,13 @@
       <c r="C484">
         <v>0.48680000000000001</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" hidden="1">
+      <c r="E484">
+        <v>0.16825000000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" hidden="1">
       <c r="A485" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B485">
         <v>10</v>
@@ -7320,10 +8782,13 @@
       <c r="C485">
         <v>0.41150999999999999</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" hidden="1">
+      <c r="E485">
+        <v>0.14049</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" hidden="1">
       <c r="A486" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B486">
         <v>10</v>
@@ -7331,10 +8796,13 @@
       <c r="C486">
         <v>5.389E-2</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" hidden="1">
+      <c r="E486">
+        <v>2.0879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" hidden="1">
       <c r="A487" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B487">
         <v>10</v>
@@ -7342,10 +8810,13 @@
       <c r="C487">
         <v>0.12278</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" hidden="1">
+      <c r="E487">
+        <v>4.7530000000000003E-2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" hidden="1">
       <c r="A488" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B488">
         <v>10</v>
@@ -7353,10 +8824,13 @@
       <c r="C488">
         <v>0.28103</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" hidden="1">
+      <c r="E488">
+        <v>9.4070000000000001E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" hidden="1">
       <c r="A489" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B489">
         <v>10</v>
@@ -7364,10 +8838,13 @@
       <c r="C489">
         <v>0.36337000000000003</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" hidden="1">
+      <c r="E489">
+        <v>0.12581000000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" hidden="1">
       <c r="A490" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B490">
         <v>10</v>
@@ -7375,10 +8852,13 @@
       <c r="C490">
         <v>0.99741999999999997</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" hidden="1">
+      <c r="E490">
+        <v>0.35615999999999998</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" hidden="1">
       <c r="A491" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B491">
         <v>10</v>
@@ -7386,10 +8866,13 @@
       <c r="C491">
         <v>0.40899999999999997</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" hidden="1">
+      <c r="E491">
+        <v>0.12377000000000001</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" hidden="1">
       <c r="A492" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B492">
         <v>12</v>
@@ -7397,10 +8880,13 @@
       <c r="C492">
         <v>0.77614000000000005</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" hidden="1">
+      <c r="E492">
+        <v>0.21784999999999999</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" hidden="1">
       <c r="A493" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B493">
         <v>12</v>
@@ -7408,8 +8894,11 @@
       <c r="C493">
         <v>0.65720000000000001</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" hidden="1">
+      <c r="E493">
+        <v>0.19366</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" hidden="1">
       <c r="A494" t="s">
         <v>53</v>
       </c>
@@ -7419,8 +8908,11 @@
       <c r="C494">
         <v>1.2170000000000001</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" hidden="1">
+      <c r="E494">
+        <v>0.37059999999999998</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" hidden="1">
       <c r="A495" t="s">
         <v>54</v>
       </c>
@@ -7430,10 +8922,13 @@
       <c r="C495">
         <v>1.2855000000000001</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" hidden="1">
+      <c r="E495">
+        <v>0.41796</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" hidden="1">
       <c r="A496" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B496">
         <v>12</v>
@@ -7441,10 +8936,13 @@
       <c r="C496">
         <v>0.63939999999999997</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" hidden="1">
+      <c r="E496">
+        <v>0.23003999999999999</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" hidden="1">
       <c r="A497" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B497">
         <v>12</v>
@@ -7452,10 +8950,13 @@
       <c r="C497">
         <v>0.84209999999999996</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" hidden="1">
+      <c r="E497">
+        <v>0.27872000000000002</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" hidden="1">
       <c r="A498" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B498">
         <v>12</v>
@@ -7463,10 +8964,13 @@
       <c r="C498">
         <v>0.25790999999999997</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" hidden="1">
+      <c r="E498">
+        <v>7.8700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" hidden="1">
       <c r="A499" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B499">
         <v>12</v>
@@ -7474,10 +8978,13 @@
       <c r="C499">
         <v>0.51287000000000005</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" hidden="1">
+      <c r="E499">
+        <v>1.7795999999999999E-2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" hidden="1">
       <c r="A500" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B500">
         <v>12</v>
@@ -7485,10 +8992,13 @@
       <c r="C500">
         <v>0.38386999999999999</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" hidden="1">
+      <c r="E500">
+        <v>0.10882</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" hidden="1">
       <c r="A501" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B501">
         <v>12</v>
@@ -7496,8 +9006,11 @@
       <c r="C501">
         <v>0.56845000000000001</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" hidden="1">
+      <c r="E501">
+        <v>0.16780999999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" hidden="1">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -7507,8 +9020,11 @@
       <c r="C502">
         <v>0.2016</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" hidden="1">
+      <c r="E502">
+        <v>7.7229999999999993E-2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" hidden="1">
       <c r="A503" t="s">
         <v>8</v>
       </c>
@@ -7518,8 +9034,11 @@
       <c r="C503">
         <v>0.72062000000000004</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" hidden="1">
+      <c r="E503">
+        <v>0.25599</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" hidden="1">
       <c r="A504" t="s">
         <v>57</v>
       </c>
@@ -7529,8 +9048,11 @@
       <c r="C504">
         <v>0.39378000000000002</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" hidden="1">
+      <c r="E504">
+        <v>0.14387</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" hidden="1">
       <c r="A505" t="s">
         <v>58</v>
       </c>
@@ -7540,8 +9062,11 @@
       <c r="C505">
         <v>0.38500000000000001</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" hidden="1">
+      <c r="E505">
+        <v>0.13713</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" hidden="1">
       <c r="A506" t="s">
         <v>21</v>
       </c>
@@ -7551,8 +9076,11 @@
       <c r="C506">
         <v>0.3024</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" hidden="1">
+      <c r="E506">
+        <v>0.11133999999999999</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" hidden="1">
       <c r="A507" t="s">
         <v>22</v>
       </c>
@@ -7562,10 +9090,13 @@
       <c r="C507">
         <v>0.42201</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" hidden="1">
+      <c r="E507">
+        <v>0.12712999999999999</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" hidden="1">
       <c r="A508" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B508">
         <v>12</v>
@@ -7573,10 +9104,13 @@
       <c r="C508">
         <v>0.1832</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" hidden="1">
+      <c r="E508">
+        <v>5.7639999999999997E-2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" hidden="1">
       <c r="A509" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B509">
         <v>12</v>
@@ -7584,8 +9118,11 @@
       <c r="C509">
         <v>0.37813999999999998</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" hidden="1">
+      <c r="E509">
+        <v>0.10647</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" hidden="1">
       <c r="A510" t="s">
         <v>41</v>
       </c>
@@ -7595,8 +9132,11 @@
       <c r="C510">
         <v>0.45279999999999998</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" hidden="1">
+      <c r="E510">
+        <v>0.13971</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" hidden="1">
       <c r="A511" t="s">
         <v>42</v>
       </c>
@@ -7606,8 +9146,11 @@
       <c r="C511">
         <v>0.38067000000000001</v>
       </c>
-    </row>
-    <row r="512" spans="1:3">
+      <c r="E511">
+        <v>0.12268</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" hidden="1">
       <c r="A512" t="s">
         <v>120</v>
       </c>
@@ -7617,8 +9160,11 @@
       <c r="C512">
         <v>0.45540000000000003</v>
       </c>
-    </row>
-    <row r="513" spans="1:3">
+      <c r="E512">
+        <v>0.13957</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" hidden="1">
       <c r="A513" t="s">
         <v>121</v>
       </c>
@@ -7628,10 +9174,13 @@
       <c r="C513">
         <v>0.70538999999999996</v>
       </c>
-    </row>
-    <row r="514" spans="1:3">
+      <c r="E513">
+        <v>0.21601999999999999</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" hidden="1">
       <c r="A514" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B514">
         <v>11</v>
@@ -7639,10 +9188,13 @@
       <c r="C514">
         <v>0.39810000000000001</v>
       </c>
-    </row>
-    <row r="515" spans="1:3">
+      <c r="E514">
+        <v>1.393E-2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" hidden="1">
       <c r="A515" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B515">
         <v>11</v>
@@ -7650,8 +9202,11 @@
       <c r="C515">
         <v>4.6330000000000003E-2</v>
       </c>
-    </row>
-    <row r="516" spans="1:3">
+      <c r="E515">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" hidden="1">
       <c r="A516" t="s">
         <v>65</v>
       </c>
@@ -7661,8 +9216,11 @@
       <c r="C516">
         <v>0.3785</v>
       </c>
-    </row>
-    <row r="517" spans="1:3">
+      <c r="E516">
+        <v>0.11508</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" hidden="1">
       <c r="A517" t="s">
         <v>152</v>
       </c>
@@ -7672,10 +9230,13 @@
       <c r="C517">
         <v>0.45540000000000003</v>
       </c>
-    </row>
-    <row r="518" spans="1:3">
+      <c r="E517">
+        <v>0.14351</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" hidden="1">
       <c r="A518" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B518">
         <v>11</v>
@@ -7683,10 +9244,13 @@
       <c r="C518">
         <v>3.2070000000000001E-2</v>
       </c>
-    </row>
-    <row r="519" spans="1:3">
+      <c r="E518">
+        <v>1.422E-2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" hidden="1">
       <c r="A519" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B519">
         <v>11</v>
@@ -7694,10 +9258,13 @@
       <c r="C519">
         <v>4.888E-2</v>
       </c>
-    </row>
-    <row r="520" spans="1:3">
+      <c r="E519">
+        <v>1.5959999999999998E-2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" hidden="1">
       <c r="A520" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B520">
         <v>11</v>
@@ -7705,10 +9272,13 @@
       <c r="C520">
         <v>1.188E-2</v>
       </c>
-    </row>
-    <row r="521" spans="1:3">
+      <c r="E520">
+        <v>5.1399999999999996E-3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" hidden="1">
       <c r="A521" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B521">
         <v>11</v>
@@ -7716,8 +9286,11 @@
       <c r="C521">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="522" spans="1:3">
+      <c r="E521">
+        <v>1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" hidden="1">
       <c r="A522" t="s">
         <v>166</v>
       </c>
@@ -7727,8 +9300,11 @@
       <c r="C522">
         <v>0.1028</v>
       </c>
-    </row>
-    <row r="523" spans="1:3">
+      <c r="E522">
+        <v>4.0140000000000002E-2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" hidden="1">
       <c r="A523" t="s">
         <v>167</v>
       </c>
@@ -7738,10 +9314,13 @@
       <c r="C523">
         <v>0.15287000000000001</v>
       </c>
-    </row>
-    <row r="524" spans="1:3">
+      <c r="E523">
+        <v>5.2470000000000003E-2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" hidden="1">
       <c r="A524" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B524">
         <v>11</v>
@@ -7749,10 +9328,13 @@
       <c r="C524">
         <v>0.16391</v>
       </c>
-    </row>
-    <row r="525" spans="1:3">
+      <c r="E524">
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" hidden="1">
       <c r="A525" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B525">
         <v>11</v>
@@ -7760,10 +9342,13 @@
       <c r="C525">
         <v>0.29032999999999998</v>
       </c>
-    </row>
-    <row r="526" spans="1:3">
+      <c r="E525">
+        <v>9.3509999999999996E-2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" hidden="1">
       <c r="A526" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B526">
         <v>11</v>
@@ -7771,10 +9356,13 @@
       <c r="C526">
         <v>4.2529999999999998E-2</v>
       </c>
-    </row>
-    <row r="527" spans="1:3">
+      <c r="E526">
+        <v>1.635E-2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" hidden="1">
       <c r="A527" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B527">
         <v>11</v>
@@ -7782,10 +9370,13 @@
       <c r="C527">
         <v>0.1069</v>
       </c>
-    </row>
-    <row r="528" spans="1:3">
+      <c r="E527">
+        <v>3.671E-2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" hidden="1">
       <c r="A528" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B528">
         <v>11</v>
@@ -7793,10 +9384,13 @@
       <c r="C528">
         <v>3.083E-2</v>
       </c>
-    </row>
-    <row r="529" spans="1:3">
+      <c r="E528">
+        <v>1.2019999999999999E-2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" hidden="1">
       <c r="A529" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B529">
         <v>11</v>
@@ -7804,8 +9398,11 @@
       <c r="C529">
         <v>6.3799999999999996E-2</v>
       </c>
-    </row>
-    <row r="530" spans="1:3">
+      <c r="E529">
+        <v>2.0104E-2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" hidden="1">
       <c r="A530" t="s">
         <v>161</v>
       </c>
@@ -7815,8 +9412,11 @@
       <c r="C530">
         <v>0.57410000000000005</v>
       </c>
-    </row>
-    <row r="531" spans="1:3">
+      <c r="E530">
+        <v>0.19520999999999999</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" hidden="1">
       <c r="A531" t="s">
         <v>162</v>
       </c>
@@ -7826,10 +9426,13 @@
       <c r="C531">
         <v>0.55911</v>
       </c>
-    </row>
-    <row r="532" spans="1:3">
+      <c r="E531">
+        <v>0.19378999999999999</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" hidden="1">
       <c r="A532" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B532">
         <v>11</v>
@@ -7837,10 +9440,13 @@
       <c r="C532">
         <v>5.8220000000000001E-2</v>
       </c>
-    </row>
-    <row r="533" spans="1:3">
+      <c r="E532">
+        <v>1.9859999999999999E-2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" hidden="1">
       <c r="A533" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B533">
         <v>11</v>
@@ -7848,10 +9454,13 @@
       <c r="C533">
         <v>4.8579999999999998E-2</v>
       </c>
-    </row>
-    <row r="534" spans="1:3">
+      <c r="E533">
+        <v>1.5709999999999998E-2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" hidden="1">
       <c r="A534" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B534">
         <v>11</v>
@@ -7859,10 +9468,13 @@
       <c r="C534">
         <v>0.25821</v>
       </c>
-    </row>
-    <row r="535" spans="1:3">
+      <c r="E534">
+        <v>8.5330000000000003E-2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" hidden="1">
       <c r="A535" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B535">
         <v>11</v>
@@ -7870,10 +9482,13 @@
       <c r="C535">
         <v>0.42663000000000001</v>
       </c>
-    </row>
-    <row r="536" spans="1:3">
+      <c r="E535">
+        <v>0.15762000000000001</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" hidden="1">
       <c r="A536" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B536">
         <v>11</v>
@@ -7881,10 +9496,13 @@
       <c r="C536">
         <v>6.9940000000000002E-2</v>
       </c>
-    </row>
-    <row r="537" spans="1:3">
+      <c r="E536">
+        <v>2.7629999999999998E-2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" hidden="1">
       <c r="A537" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B537">
         <v>11</v>
@@ -7892,10 +9510,13 @@
       <c r="C537">
         <v>7.4329999999999993E-2</v>
       </c>
-    </row>
-    <row r="538" spans="1:3">
+      <c r="E537">
+        <v>2.615E-2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" hidden="1">
       <c r="A538" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B538">
         <v>5</v>
@@ -7903,10 +9524,13 @@
       <c r="C538">
         <v>0.57140000000000002</v>
       </c>
-    </row>
-    <row r="539" spans="1:3">
+      <c r="E538">
+        <v>0.24195</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" hidden="1">
       <c r="A539" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B539">
         <v>5</v>
@@ -7914,10 +9538,13 @@
       <c r="C539">
         <v>1.1574800000000001</v>
       </c>
-    </row>
-    <row r="540" spans="1:3">
+      <c r="E539">
+        <v>0.52241000000000004</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" hidden="1">
       <c r="A540" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B540">
         <v>5</v>
@@ -7925,10 +9552,13 @@
       <c r="C540">
         <v>0.64554999999999996</v>
       </c>
-    </row>
-    <row r="541" spans="1:3">
+      <c r="E540">
+        <v>0.28397</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" hidden="1">
       <c r="A541" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B541">
         <v>5</v>
@@ -7936,10 +9566,13 @@
       <c r="C541">
         <v>0.69989999999999997</v>
       </c>
-    </row>
-    <row r="542" spans="1:3">
+      <c r="E541">
+        <v>0.29221000000000003</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" hidden="1">
       <c r="A542" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B542">
         <v>16</v>
@@ -7947,10 +9580,13 @@
       <c r="C542">
         <v>0.37859999999999999</v>
       </c>
-    </row>
-    <row r="543" spans="1:3">
+      <c r="E542">
+        <v>0.13852</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" hidden="1">
       <c r="A543" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B543">
         <v>16</v>
@@ -7958,10 +9594,13 @@
       <c r="C543">
         <v>0.52059999999999995</v>
       </c>
-    </row>
-    <row r="544" spans="1:3">
+      <c r="E543">
+        <v>0.18271999999999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" hidden="1">
       <c r="A544" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B544">
         <v>16</v>
@@ -7969,10 +9608,13 @@
       <c r="C544">
         <v>0.36959999999999998</v>
       </c>
-    </row>
-    <row r="545" spans="1:3">
+      <c r="E544">
+        <v>0.13178000000000001</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" hidden="1">
       <c r="A545" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B545">
         <v>16</v>
@@ -7980,10 +9622,13 @@
       <c r="C545">
         <v>0.51459999999999995</v>
       </c>
-    </row>
-    <row r="546" spans="1:3">
+      <c r="E545">
+        <v>0.20727000000000001</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" hidden="1">
       <c r="A546" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B546">
         <v>16</v>
@@ -7991,10 +9636,13 @@
       <c r="C546">
         <v>0.52005999999999997</v>
       </c>
-    </row>
-    <row r="547" spans="1:3">
+      <c r="E546">
+        <v>0.18093000000000001</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" hidden="1">
       <c r="A547" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B547">
         <v>16</v>
@@ -8002,10 +9650,13 @@
       <c r="C547">
         <v>0.48520000000000002</v>
       </c>
-    </row>
-    <row r="548" spans="1:3">
+      <c r="E547">
+        <v>0.16672000000000001</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" hidden="1">
       <c r="A548" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B548">
         <v>16</v>
@@ -8013,10 +9664,13 @@
       <c r="C548">
         <v>0.57272000000000001</v>
       </c>
-    </row>
-    <row r="549" spans="1:3">
+      <c r="E548">
+        <v>0.22663</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" hidden="1">
       <c r="A549" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B549">
         <v>16</v>
@@ -8024,10 +9678,13 @@
       <c r="C549">
         <v>0.60045000000000004</v>
       </c>
-    </row>
-    <row r="550" spans="1:3">
+      <c r="E549">
+        <v>0.23086999999999999</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" hidden="1">
       <c r="A550" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B550">
         <v>16</v>
@@ -8035,10 +9692,13 @@
       <c r="C550">
         <v>0.52549000000000001</v>
       </c>
-    </row>
-    <row r="551" spans="1:3">
+      <c r="E550">
+        <v>0.19159000000000001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" hidden="1">
       <c r="A551" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B551">
         <v>16</v>
@@ -8046,8 +9706,11 @@
       <c r="C551">
         <v>0.63165000000000004</v>
       </c>
-    </row>
-    <row r="552" spans="1:3">
+      <c r="E551">
+        <v>0.24112</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" hidden="1">
       <c r="A552" t="s">
         <v>29</v>
       </c>
@@ -8057,8 +9720,11 @@
       <c r="C552">
         <v>0.34847</v>
       </c>
-    </row>
-    <row r="553" spans="1:3">
+      <c r="E552">
+        <v>0.12454999999999999</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" hidden="1">
       <c r="A553" t="s">
         <v>30</v>
       </c>
@@ -8068,10 +9734,13 @@
       <c r="C553">
         <v>0.31190000000000001</v>
       </c>
-    </row>
-    <row r="554" spans="1:3">
+      <c r="E553">
+        <v>0.11626</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" hidden="1">
       <c r="A554" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B554">
         <v>16</v>
@@ -8079,10 +9748,13 @@
       <c r="C554">
         <v>0.57054000000000005</v>
       </c>
-    </row>
-    <row r="555" spans="1:3">
+      <c r="E554">
+        <v>0.19806000000000001</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" hidden="1">
       <c r="A555" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B555">
         <v>16</v>
@@ -8090,10 +9762,13 @@
       <c r="C555">
         <v>0.58545000000000003</v>
       </c>
-    </row>
-    <row r="556" spans="1:3">
+      <c r="E555">
+        <v>0.21532999999999999</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" hidden="1">
       <c r="A556" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B556">
         <v>16</v>
@@ -8101,10 +9776,13 @@
       <c r="C556">
         <v>0.46877000000000002</v>
       </c>
-    </row>
-    <row r="557" spans="1:3">
+      <c r="E556">
+        <v>0.15368000000000001</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" hidden="1">
       <c r="A557" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B557">
         <v>16</v>
@@ -8112,10 +9790,13 @@
       <c r="C557">
         <v>0.66905999999999999</v>
       </c>
-    </row>
-    <row r="558" spans="1:3">
+      <c r="E557">
+        <v>0.20324</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" hidden="1">
       <c r="A558" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B558">
         <v>16</v>
@@ -8123,10 +9804,13 @@
       <c r="C558">
         <v>0.47161999999999998</v>
       </c>
-    </row>
-    <row r="559" spans="1:3">
+      <c r="E558">
+        <v>0.17163</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" hidden="1">
       <c r="A559" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B559">
         <v>16</v>
@@ -8134,10 +9818,13 @@
       <c r="C559">
         <v>0.57823999999999998</v>
       </c>
-    </row>
-    <row r="560" spans="1:3">
+      <c r="E559">
+        <v>0.19975000000000001</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" hidden="1">
       <c r="A560" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B560">
         <v>16</v>
@@ -8145,10 +9832,13 @@
       <c r="C560">
         <v>0.30863000000000002</v>
       </c>
-    </row>
-    <row r="561" spans="1:3">
+      <c r="E560">
+        <v>0.10730000000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" hidden="1">
       <c r="A561" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B561">
         <v>16</v>
@@ -8156,10 +9846,13 @@
       <c r="C561">
         <v>0.1852</v>
       </c>
-    </row>
-    <row r="562" spans="1:3">
+      <c r="E561">
+        <v>6.5460000000000004E-2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" hidden="1">
       <c r="A562" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B562">
         <v>16</v>
@@ -8167,10 +9860,13 @@
       <c r="C562">
         <v>0.40200000000000002</v>
       </c>
-    </row>
-    <row r="563" spans="1:3">
+      <c r="E562">
+        <v>0.15189</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" hidden="1">
       <c r="A563" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B563">
         <v>16</v>
@@ -8178,10 +9874,13 @@
       <c r="C563">
         <v>0.45527000000000001</v>
       </c>
-    </row>
-    <row r="564" spans="1:3">
+      <c r="E563">
+        <v>0.17909</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" hidden="1">
       <c r="A564" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B564">
         <v>15</v>
@@ -8189,10 +9888,13 @@
       <c r="C564">
         <v>0.22475999999999999</v>
       </c>
-    </row>
-    <row r="565" spans="1:3">
+      <c r="E564">
+        <v>8.4390000000000007E-2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" hidden="1">
       <c r="A565" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B565">
         <v>15</v>
@@ -8200,10 +9902,13 @@
       <c r="C565">
         <v>0.22148999999999999</v>
       </c>
-    </row>
-    <row r="566" spans="1:3">
+      <c r="E565">
+        <v>9.1340000000000005E-2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" hidden="1">
       <c r="A566" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B566">
         <v>15</v>
@@ -8211,10 +9916,13 @@
       <c r="C566">
         <v>0.13177</v>
       </c>
-    </row>
-    <row r="567" spans="1:3">
+      <c r="E566">
+        <v>5.3199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" hidden="1">
       <c r="A567" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B567">
         <v>15</v>
@@ -8222,10 +9930,13 @@
       <c r="C567">
         <v>0.20632</v>
       </c>
-    </row>
-    <row r="568" spans="1:3">
+      <c r="E567">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" hidden="1">
       <c r="A568" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B568">
         <v>15</v>
@@ -8233,10 +9944,13 @@
       <c r="C568">
         <v>0.23355000000000001</v>
       </c>
-    </row>
-    <row r="569" spans="1:3">
+      <c r="E568">
+        <v>8.8120000000000004E-2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" hidden="1">
       <c r="A569" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B569">
         <v>15</v>
@@ -8244,10 +9958,13 @@
       <c r="C569">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="570" spans="1:3">
+      <c r="E569">
+        <v>0.17559</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" hidden="1">
       <c r="A570" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B570">
         <v>15</v>
@@ -8255,10 +9972,13 @@
       <c r="C570">
         <v>0.57479999999999998</v>
       </c>
-    </row>
-    <row r="571" spans="1:3">
+      <c r="E570">
+        <v>0.21077000000000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" hidden="1">
       <c r="A571" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B571">
         <v>15</v>
@@ -8266,10 +9986,13 @@
       <c r="C571">
         <v>0.6452</v>
       </c>
-    </row>
-    <row r="572" spans="1:3">
+      <c r="E571">
+        <v>0.23976</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" hidden="1">
       <c r="A572" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B572">
         <v>15</v>
@@ -8277,10 +10000,13 @@
       <c r="C572">
         <v>0.30099999999999999</v>
       </c>
-    </row>
-    <row r="573" spans="1:3">
+      <c r="E572">
+        <v>0.10725</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" hidden="1">
       <c r="A573" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B573">
         <v>15</v>
@@ -8288,10 +10014,13 @@
       <c r="C573">
         <v>0.35571999999999998</v>
       </c>
-    </row>
-    <row r="574" spans="1:3">
+      <c r="E573">
+        <v>0.11244</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" hidden="1">
       <c r="A574" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B574">
         <v>15</v>
@@ -8299,10 +10028,13 @@
       <c r="C574">
         <v>0.8054</v>
       </c>
-    </row>
-    <row r="575" spans="1:3">
+      <c r="E574">
+        <v>0.23261000000000001</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" hidden="1">
       <c r="A575" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B575">
         <v>15</v>
@@ -8310,8 +10042,11 @@
       <c r="C575">
         <v>0.71469000000000005</v>
       </c>
-    </row>
-    <row r="576" spans="1:3">
+      <c r="E575">
+        <v>0.24279999999999999</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" hidden="1">
       <c r="A576" t="s">
         <v>147</v>
       </c>
@@ -8321,8 +10056,11 @@
       <c r="C576">
         <v>0.69720000000000004</v>
       </c>
-    </row>
-    <row r="577" spans="1:3">
+      <c r="E576">
+        <v>0.23895</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" hidden="1">
       <c r="A577" t="s">
         <v>146</v>
       </c>
@@ -8332,10 +10070,13 @@
       <c r="C577">
         <v>0.71519999999999995</v>
       </c>
-    </row>
-    <row r="578" spans="1:3">
+      <c r="E577">
+        <v>0.23094999999999999</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" hidden="1">
       <c r="A578" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B578">
         <v>15</v>
@@ -8343,10 +10084,13 @@
       <c r="C578">
         <v>0.26496999999999998</v>
       </c>
-    </row>
-    <row r="579" spans="1:3">
+      <c r="E578">
+        <v>0.10063999999999999</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" hidden="1">
       <c r="A579" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B579">
         <v>15</v>
@@ -8354,8 +10098,11 @@
       <c r="C579">
         <v>0.66105000000000003</v>
       </c>
-    </row>
-    <row r="580" spans="1:3">
+      <c r="E579">
+        <v>0.23146</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" hidden="1">
       <c r="A580" t="s">
         <v>4</v>
       </c>
@@ -8365,8 +10112,11 @@
       <c r="C580">
         <v>0.35120000000000001</v>
       </c>
-    </row>
-    <row r="581" spans="1:3">
+      <c r="E580">
+        <v>9.7199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" hidden="1">
       <c r="A581" t="s">
         <v>5</v>
       </c>
@@ -8376,10 +10126,13 @@
       <c r="C581">
         <v>0.40135999999999999</v>
       </c>
-    </row>
-    <row r="582" spans="1:3">
+      <c r="E581">
+        <v>0.12823999999999999</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" hidden="1">
       <c r="A582" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B582">
         <v>15</v>
@@ -8387,10 +10140,13 @@
       <c r="C582">
         <v>0.21906999999999999</v>
       </c>
-    </row>
-    <row r="583" spans="1:3">
+      <c r="E582">
+        <v>7.9119999999999996E-2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" hidden="1">
       <c r="A583" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B583">
         <v>15</v>
@@ -8398,10 +10154,13 @@
       <c r="C583">
         <v>0.30590000000000001</v>
       </c>
-    </row>
-    <row r="584" spans="1:3">
+      <c r="E583">
+        <v>0.11219</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" hidden="1">
       <c r="A584" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B584">
         <v>14</v>
@@ -8409,10 +10168,13 @@
       <c r="C584">
         <v>4.7759999999999997E-2</v>
       </c>
-    </row>
-    <row r="585" spans="1:3">
+      <c r="E584">
+        <v>1.7610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" hidden="1">
       <c r="A585" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B585">
         <v>14</v>
@@ -8420,10 +10182,13 @@
       <c r="C585">
         <v>6.8309999999999996E-2</v>
       </c>
-    </row>
-    <row r="586" spans="1:3">
+      <c r="E585">
+        <v>2.5579999999999999E-2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" hidden="1">
       <c r="A586" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B586">
         <v>14</v>
@@ -8431,10 +10196,13 @@
       <c r="C586">
         <v>8.5550000000000001E-2</v>
       </c>
-    </row>
-    <row r="587" spans="1:3">
+      <c r="E586">
+        <v>2.6040000000000001E-2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" hidden="1">
       <c r="A587" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B587">
         <v>14</v>
@@ -8442,10 +10210,13 @@
       <c r="C587">
         <v>0.11147</v>
       </c>
-    </row>
-    <row r="588" spans="1:3">
+      <c r="E587">
+        <v>3.6850000000000001E-2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" hidden="1">
       <c r="A588" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B588">
         <v>14</v>
@@ -8453,10 +10224,13 @@
       <c r="C588">
         <v>0.4854</v>
       </c>
-    </row>
-    <row r="589" spans="1:3">
+      <c r="E588">
+        <v>0.14152000000000001</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" hidden="1">
       <c r="A589" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B589">
         <v>14</v>
@@ -8464,8 +10238,11 @@
       <c r="C589">
         <v>0.27033000000000001</v>
       </c>
-    </row>
-    <row r="590" spans="1:3">
+      <c r="E589">
+        <v>7.825E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" hidden="1">
       <c r="A590" t="s">
         <v>177</v>
       </c>
@@ -8475,8 +10252,11 @@
       <c r="C590">
         <v>0.14149999999999999</v>
       </c>
-    </row>
-    <row r="591" spans="1:3">
+      <c r="E590">
+        <v>5.11E-2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" hidden="1">
       <c r="A591" t="s">
         <v>178</v>
       </c>
@@ -8486,10 +10266,13 @@
       <c r="C591">
         <v>0.13986999999999999</v>
       </c>
-    </row>
-    <row r="592" spans="1:3">
+      <c r="E591">
+        <v>5.0930000000000003E-2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" hidden="1">
       <c r="A592" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B592">
         <v>14</v>
@@ -8497,10 +10280,13 @@
       <c r="C592">
         <v>0.42691000000000001</v>
       </c>
-    </row>
-    <row r="593" spans="1:3">
+      <c r="E592">
+        <v>0.14319999999999999</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" hidden="1">
       <c r="A593" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B593">
         <v>14</v>
@@ -8508,10 +10294,13 @@
       <c r="C593">
         <v>0.58216000000000001</v>
       </c>
-    </row>
-    <row r="594" spans="1:3">
+      <c r="E593">
+        <v>0.19453000000000001</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" hidden="1">
       <c r="A594" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B594">
         <v>14</v>
@@ -8519,10 +10308,13 @@
       <c r="C594">
         <v>0.26669999999999999</v>
       </c>
-    </row>
-    <row r="595" spans="1:3">
+      <c r="E594">
+        <v>8.6819999999999994E-2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" hidden="1">
       <c r="A595" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B595">
         <v>14</v>
@@ -8530,10 +10322,13 @@
       <c r="C595">
         <v>0.32826</v>
       </c>
-    </row>
-    <row r="596" spans="1:3">
+      <c r="E595">
+        <v>0.10729</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" hidden="1">
       <c r="A596" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B596">
         <v>14</v>
@@ -8541,10 +10336,13 @@
       <c r="C596">
         <v>0.26695000000000002</v>
       </c>
-    </row>
-    <row r="597" spans="1:3">
+      <c r="E596">
+        <v>8.6970000000000006E-2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" hidden="1">
       <c r="A597" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B597">
         <v>14</v>
@@ -8552,10 +10350,13 @@
       <c r="C597">
         <v>0.26308999999999999</v>
       </c>
-    </row>
-    <row r="598" spans="1:3">
+      <c r="E597">
+        <v>8.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" hidden="1">
       <c r="A598" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B598">
         <v>14</v>
@@ -8563,10 +10364,13 @@
       <c r="C598">
         <v>0.25314999999999999</v>
       </c>
-    </row>
-    <row r="599" spans="1:3">
+      <c r="E598">
+        <v>8.8209999999999997E-2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" hidden="1">
       <c r="A599" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B599">
         <v>14</v>
@@ -8574,10 +10378,13 @@
       <c r="C599">
         <v>0.25253999999999999</v>
       </c>
-    </row>
-    <row r="600" spans="1:3">
+      <c r="E599">
+        <v>8.9380000000000001E-2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" hidden="1">
       <c r="A600" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B600">
         <v>14</v>
@@ -8585,10 +10392,13 @@
       <c r="C600">
         <v>0.26413999999999999</v>
       </c>
-    </row>
-    <row r="601" spans="1:3">
+      <c r="E600">
+        <v>8.7870000000000004E-2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" hidden="1">
       <c r="A601" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B601">
         <v>14</v>
@@ -8596,10 +10406,13 @@
       <c r="C601">
         <v>0.50971999999999995</v>
       </c>
-    </row>
-    <row r="602" spans="1:3">
+      <c r="E601">
+        <v>0.15916</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" hidden="1">
       <c r="A602" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B602">
         <v>14</v>
@@ -8607,10 +10420,13 @@
       <c r="C602">
         <v>0.2772</v>
       </c>
-    </row>
-    <row r="603" spans="1:3">
+      <c r="E602">
+        <v>9.8269999999999996E-2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" hidden="1">
       <c r="A603" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B603">
         <v>14</v>
@@ -8618,10 +10434,13 @@
       <c r="C603">
         <v>0.34029999999999999</v>
       </c>
-    </row>
-    <row r="604" spans="1:3">
+      <c r="E603">
+        <v>0.11771</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" hidden="1">
       <c r="A604" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B604">
         <v>14</v>
@@ -8629,10 +10448,13 @@
       <c r="C604">
         <v>4.546E-2</v>
       </c>
-    </row>
-    <row r="605" spans="1:3">
+      <c r="E604">
+        <v>1.5520000000000001E-2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" hidden="1">
       <c r="A605" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B605">
         <v>14</v>
@@ -8640,10 +10462,13 @@
       <c r="C605">
         <v>5.058E-2</v>
       </c>
-    </row>
-    <row r="606" spans="1:3">
+      <c r="E605">
+        <v>1.6920000000000001E-2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" hidden="1">
       <c r="A606" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B606">
         <v>14</v>
@@ -8651,10 +10476,13 @@
       <c r="C606">
         <v>5.4890000000000001E-2</v>
       </c>
-    </row>
-    <row r="607" spans="1:3">
+      <c r="E606">
+        <v>2.0930000000000001E-2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" hidden="1">
       <c r="A607" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B607">
         <v>14</v>
@@ -8662,10 +10490,13 @@
       <c r="C607">
         <v>6.4530000000000004E-2</v>
       </c>
-    </row>
-    <row r="608" spans="1:3">
+      <c r="E607">
+        <v>2.639E-2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" hidden="1">
       <c r="A608" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B608">
         <v>14</v>
@@ -8673,10 +10504,13 @@
       <c r="C608">
         <v>0.32839000000000002</v>
       </c>
-    </row>
-    <row r="609" spans="1:3">
+      <c r="E608">
+        <v>0.12214</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" hidden="1">
       <c r="A609" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B609">
         <v>14</v>
@@ -8684,12 +10518,15 @@
       <c r="C609">
         <v>0.33277000000000001</v>
       </c>
+      <c r="E609">
+        <v>0.12737000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F511">
+  <autoFilter ref="A1:F609">
     <filterColumn colId="1">
       <filters>
-        <filter val="11"/>
+        <filter val="9"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8715,15 +10552,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -8731,7 +10568,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -8739,7 +10576,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -8747,7 +10584,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -8755,7 +10592,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8763,7 +10600,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -8771,7 +10608,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -8779,7 +10616,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -8787,15 +10624,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -8803,7 +10640,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -8811,7 +10648,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -8819,7 +10656,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -8827,7 +10664,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -8835,7 +10672,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -8843,7 +10680,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -8851,7 +10688,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -8859,7 +10696,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -8887,26 +10724,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8914,7 +10751,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8922,7 +10759,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/CG_SLA.xlsx
+++ b/CG_SLA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/CGtraits/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBBCA074-1C4D-A44A-B6DC-029178DB0CAE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="4400" windowWidth="25600" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$609</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -1538,7 +1544,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1633,6 +1639,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1959,23 +1968,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B247" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E160" sqref="E160"/>
+      <selection pane="bottomRight" activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +2006,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2012,7 +2020,7 @@
         <v>0.13753000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2026,7 +2034,7 @@
         <v>0.11472</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2040,7 +2048,7 @@
         <v>0.13888</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2054,7 +2062,7 @@
         <v>0.10971</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2076,7 @@
         <v>3.456E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2082,7 +2090,7 @@
         <v>2.9479999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2096,7 +2104,7 @@
         <v>0.11919</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2118,7 @@
         <v>0.16156999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -2124,7 +2132,7 @@
         <v>0.20782</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -2138,7 +2146,7 @@
         <v>0.27263999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2152,7 +2160,7 @@
         <v>0.21348</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2166,7 +2174,7 @@
         <v>0.13841000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2180,7 +2188,7 @@
         <v>0.15295</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2194,7 +2202,7 @@
         <v>0.10874</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2208,7 +2216,7 @@
         <v>0.17002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2222,7 +2230,7 @@
         <v>0.24712999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2236,7 +2244,7 @@
         <v>9.4619999999999996E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2250,7 +2258,7 @@
         <v>7.578E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v>0.12723000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2278,7 +2286,7 @@
         <v>0.11176999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2292,7 +2300,7 @@
         <v>0.15967999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2306,7 +2314,7 @@
         <v>0.15803</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>7.7079999999999996E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2334,7 +2342,7 @@
         <v>0.12814999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2348,7 +2356,7 @@
         <v>0.12877</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>0.14662</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -2376,7 +2384,7 @@
         <v>0.13564000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -2390,7 +2398,7 @@
         <v>0.12533</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2404,7 +2412,7 @@
         <v>0.16034999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2418,7 +2426,7 @@
         <v>0.15765999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2435,7 +2443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2452,7 +2460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2469,7 +2477,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2486,7 +2494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2500,7 +2508,7 @@
         <v>0.36726999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2514,7 +2522,7 @@
         <v>0.41997000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2528,7 +2536,7 @@
         <v>0.34489999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2550,7 @@
         <v>0.36325000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2556,7 +2564,7 @@
         <v>0.2407</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2570,7 +2578,7 @@
         <v>0.2727</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -2584,7 +2592,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -2598,7 +2606,7 @@
         <v>5.2580000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2612,7 +2620,7 @@
         <v>0.16880999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2626,7 +2634,7 @@
         <v>0.13478999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2640,7 +2648,7 @@
         <v>0.23386999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2654,7 +2662,7 @@
         <v>0.32157999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -2668,7 +2676,7 @@
         <v>0.21592</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -2682,7 +2690,7 @@
         <v>0.16986000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2696,7 +2704,7 @@
         <v>0.21618000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2710,7 +2718,7 @@
         <v>3.3848999999999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2724,7 +2732,7 @@
         <v>0.18331</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2738,7 +2746,7 @@
         <v>0.24690000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2752,7 +2760,7 @@
         <v>5.5259999999999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2766,7 +2774,7 @@
         <v>6.2390000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>6.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2794,7 +2802,7 @@
         <v>4.6269999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2808,7 +2816,7 @@
         <v>5.7020000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2822,7 +2830,7 @@
         <v>9.1389999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2836,7 +2844,7 @@
         <v>4.965E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -2850,7 +2858,7 @@
         <v>0.14504</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -2864,7 +2872,7 @@
         <v>0.11971</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -2878,7 +2886,7 @@
         <v>0.10001</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2892,7 +2900,7 @@
         <v>0.22509000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2906,7 +2914,7 @@
         <v>0.1525</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -2920,7 +2928,7 @@
         <v>2.0219999999999998E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2934,7 +2942,7 @@
         <v>7.9900000000000006E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2948,7 +2956,7 @@
         <v>2.1059999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2962,7 +2970,7 @@
         <v>2.0920000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2976,7 +2984,7 @@
         <v>0.19822000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -2990,7 +2998,7 @@
         <v>0.15053</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -3004,7 +3012,7 @@
         <v>1.468E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -3018,7 +3026,7 @@
         <v>1.559E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -3032,7 +3040,7 @@
         <v>2.2890000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -3046,7 +3054,7 @@
         <v>2.3529999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -3060,7 +3068,7 @@
         <v>0.15511</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -3074,7 +3082,7 @@
         <v>0.30923</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -3088,7 +3096,7 @@
         <v>7.2399999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -3102,7 +3110,7 @@
         <v>1.0410000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -3116,7 +3124,7 @@
         <v>1.521E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -3130,7 +3138,7 @@
         <v>1.225E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>2.102E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -3158,7 +3166,7 @@
         <v>1.6279999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -3172,7 +3180,7 @@
         <v>2.265E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -3186,7 +3194,7 @@
         <v>1.7149999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -3200,7 +3208,7 @@
         <v>1.6039999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -3214,7 +3222,7 @@
         <v>2.443E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -3228,7 +3236,7 @@
         <v>1.721E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -3242,7 +3250,7 @@
         <v>1.8780000000000002E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -3256,7 +3264,7 @@
         <v>1.7270000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -3270,7 +3278,7 @@
         <v>1.189E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -3284,7 +3292,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -3298,7 +3306,7 @@
         <v>2.128E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -3312,7 +3320,7 @@
         <v>7.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -3326,7 +3334,7 @@
         <v>2.2370000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3340,7 +3348,7 @@
         <v>5.1200000000000004E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -3354,7 +3362,7 @@
         <v>1.2449999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>88</v>
       </c>
@@ -3368,7 +3376,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -3382,7 +3390,7 @@
         <v>2.291E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -3396,7 +3404,7 @@
         <v>0.22731999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -3410,7 +3418,7 @@
         <v>0.17918000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -3424,7 +3432,7 @@
         <v>2.0809999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -3438,7 +3446,7 @@
         <v>2.0060000000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>7.5100000000000002E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -3466,7 +3474,7 @@
         <v>1.222E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>82</v>
       </c>
@@ -3480,7 +3488,7 @@
         <v>1.7909999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -3494,7 +3502,7 @@
         <v>1.1820000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -3508,7 +3516,7 @@
         <v>0.18176999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -3522,7 +3530,7 @@
         <v>0.20447000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -3536,7 +3544,7 @@
         <v>2.7390000000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -3550,7 +3558,7 @@
         <v>1.8110000000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -3564,7 +3572,7 @@
         <v>0.23558000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -3578,7 +3586,7 @@
         <v>0.18911</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -3592,7 +3600,7 @@
         <v>4.2889999999999998E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -3606,7 +3614,7 @@
         <v>8.5419999999999996E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>6.1240000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>6.2269999999999999E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -3648,7 +3656,7 @@
         <v>1.438E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -3662,7 +3670,7 @@
         <v>1.4330000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -3676,7 +3684,7 @@
         <v>1.192E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -3690,7 +3698,7 @@
         <v>1.8769999999999998E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -3704,7 +3712,7 @@
         <v>2.061E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>113</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>2.6790000000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -3732,7 +3740,7 @@
         <v>1.5709999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -3746,7 +3754,7 @@
         <v>2.8830000000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -3760,7 +3768,7 @@
         <v>2.811E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -3774,7 +3782,7 @@
         <v>2.2259999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -3788,7 +3796,7 @@
         <v>1.8839999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -3802,7 +3810,7 @@
         <v>2.215E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>0.16156999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>0.18174000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -3844,7 +3852,7 @@
         <v>9.6100000000000005E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -3858,7 +3866,7 @@
         <v>2.324E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -3872,7 +3880,7 @@
         <v>0.11971999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -3886,7 +3894,7 @@
         <v>0.21859000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>124</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>6.6890000000000005E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>125</v>
       </c>
@@ -3914,7 +3922,7 @@
         <v>9.5019999999999993E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -3928,7 +3936,7 @@
         <v>0.10115</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -3942,7 +3950,7 @@
         <v>0.11027000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>128</v>
       </c>
@@ -3956,7 +3964,7 @@
         <v>2.0590000000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>129</v>
       </c>
@@ -3970,7 +3978,7 @@
         <v>1.933E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -3984,7 +3992,7 @@
         <v>0.19814999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>131</v>
       </c>
@@ -3998,7 +4006,7 @@
         <v>0.16063</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -4012,7 +4020,7 @@
         <v>0.22477</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>133</v>
       </c>
@@ -4026,7 +4034,7 @@
         <v>0.21346999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -4040,7 +4048,7 @@
         <v>0.11339</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -4054,7 +4062,7 @@
         <v>0.11249000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -4068,7 +4076,7 @@
         <v>8.5940000000000003E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -4082,7 +4090,7 @@
         <v>0.11433</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>140</v>
       </c>
@@ -4096,7 +4104,7 @@
         <v>0.28326000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>141</v>
       </c>
@@ -4110,7 +4118,7 @@
         <v>0.28649000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>9.1730000000000006E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -4138,7 +4146,7 @@
         <v>0.12197</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4152,7 +4160,7 @@
         <v>0.16231000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4166,7 +4174,7 @@
         <v>0.15414</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -4180,7 +4188,7 @@
         <v>0.15611</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -4194,7 +4202,7 @@
         <v>0.16045000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>142</v>
       </c>
@@ -4208,7 +4216,7 @@
         <v>5.0549999999999998E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>143</v>
       </c>
@@ -4222,7 +4230,7 @@
         <v>6.2129999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>144</v>
       </c>
@@ -4236,7 +4244,7 @@
         <v>8.5500000000000007E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>8.8910000000000003E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -4264,7 +4272,7 @@
         <v>0.14657000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>146</v>
       </c>
@@ -4278,7 +4286,7 @@
         <v>0.15289</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>157</v>
       </c>
@@ -4292,7 +4300,7 @@
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>158</v>
       </c>
@@ -4306,7 +4314,7 @@
         <v>8.7970000000000007E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -4320,7 +4328,7 @@
         <v>0.14452000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>160</v>
       </c>
@@ -4334,7 +4342,7 @@
         <v>0.26002999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>161</v>
       </c>
@@ -4348,7 +4356,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>162</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>0.20246</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>164</v>
       </c>
@@ -4376,7 +4384,7 @@
         <v>1.805E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -4390,7 +4398,7 @@
         <v>2.0670000000000001E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -4404,7 +4412,7 @@
         <v>3.6080000000000001E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -4418,7 +4426,7 @@
         <v>5.1110000000000003E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -4432,7 +4440,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>169</v>
       </c>
@@ -4446,7 +4454,7 @@
         <v>1.354E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -4460,7 +4468,7 @@
         <v>2.3539999999999998E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -4474,7 +4482,7 @@
         <v>2.146E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>170</v>
       </c>
@@ -4488,7 +4496,7 @@
         <v>1.7930000000000001E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>171</v>
       </c>
@@ -4502,7 +4510,7 @@
         <v>2.6579999999999999E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>172</v>
       </c>
@@ -4516,7 +4524,7 @@
         <v>1.076E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>173</v>
       </c>
@@ -4530,7 +4538,7 @@
         <v>1.4290000000000001E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>174</v>
       </c>
@@ -4544,7 +4552,7 @@
         <v>1.7950000000000001E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>175</v>
       </c>
@@ -4558,7 +4566,7 @@
         <v>1.8350000000000002E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>128</v>
       </c>
@@ -4572,7 +4580,7 @@
         <v>1.789E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>129</v>
       </c>
@@ -4586,7 +4594,7 @@
         <v>2.164E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>163</v>
       </c>
@@ -4600,7 +4608,7 @@
         <v>1.4840000000000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>176</v>
       </c>
@@ -4614,7 +4622,7 @@
         <v>1.9390000000000001E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>177</v>
       </c>
@@ -4628,7 +4636,7 @@
         <v>6.8510000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>178</v>
       </c>
@@ -4642,7 +4650,7 @@
         <v>7.6880000000000004E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>179</v>
       </c>
@@ -4656,7 +4664,7 @@
         <v>2.5610000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>180</v>
       </c>
@@ -4670,7 +4678,7 @@
         <v>2.3120000000000002E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>181</v>
       </c>
@@ -4684,7 +4692,7 @@
         <v>2.0490000000000001E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>182</v>
       </c>
@@ -4698,7 +4706,7 @@
         <v>2.4140000000000002E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>183</v>
       </c>
@@ -4712,7 +4720,7 @@
         <v>1.487E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -4726,7 +4734,7 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -4740,7 +4748,7 @@
         <v>2.1409999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>186</v>
       </c>
@@ -4754,7 +4762,7 @@
         <v>1.643E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -4768,7 +4776,7 @@
         <v>1.7309999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>188</v>
       </c>
@@ -4782,7 +4790,7 @@
         <v>1.729E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>189</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>8.5500000000000003E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>190</v>
       </c>
@@ -4810,7 +4818,7 @@
         <v>9.5099999999999994E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>191</v>
       </c>
@@ -4824,7 +4832,7 @@
         <v>2.0979999999999999E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>192</v>
       </c>
@@ -4838,7 +4846,7 @@
         <v>2.264E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>193</v>
       </c>
@@ -4852,7 +4860,7 @@
         <v>1.0840000000000001E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>194</v>
       </c>
@@ -4866,7 +4874,7 @@
         <v>1.366E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>195</v>
       </c>
@@ -4880,7 +4888,7 @@
         <v>1.142E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>196</v>
       </c>
@@ -4894,7 +4902,7 @@
         <v>1.6310000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>197</v>
       </c>
@@ -4908,7 +4916,7 @@
         <v>1.8710000000000001E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>198</v>
       </c>
@@ -4922,7 +4930,7 @@
         <v>1.8030000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>76</v>
       </c>
@@ -4936,7 +4944,7 @@
         <v>1.6219999999999998E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -4950,7 +4958,7 @@
         <v>1.5740000000000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>132</v>
       </c>
@@ -4964,7 +4972,7 @@
         <v>9.4039999999999999E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>133</v>
       </c>
@@ -4978,7 +4986,7 @@
         <v>0.18326000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>199</v>
       </c>
@@ -4992,7 +5000,7 @@
         <v>1.8180000000000002E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>200</v>
       </c>
@@ -5006,7 +5014,7 @@
         <v>1.924E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>201</v>
       </c>
@@ -5020,7 +5028,7 @@
         <v>1.644E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>202</v>
       </c>
@@ -5034,7 +5042,7 @@
         <v>1.9689999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>98</v>
       </c>
@@ -5048,7 +5056,7 @@
         <v>0.21597</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>99</v>
       </c>
@@ -5062,7 +5070,7 @@
         <v>0.21668999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>203</v>
       </c>
@@ -5076,7 +5084,7 @@
         <v>4.0869999999999997E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>204</v>
       </c>
@@ -5090,7 +5098,7 @@
         <v>3.9149999999999997E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>205</v>
       </c>
@@ -5104,7 +5112,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>206</v>
       </c>
@@ -5118,7 +5126,7 @@
         <v>2.5739999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>207</v>
       </c>
@@ -5132,7 +5140,7 @@
         <v>2.3789999999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>208</v>
       </c>
@@ -5146,7 +5154,7 @@
         <v>2.7629999999999998E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -5160,7 +5168,7 @@
         <v>1.153E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>117</v>
       </c>
@@ -5174,7 +5182,7 @@
         <v>1.417E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -5188,7 +5196,7 @@
         <v>2.121E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>210</v>
       </c>
@@ -5202,7 +5210,7 @@
         <v>3.1949999999999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>500</v>
       </c>
@@ -5216,7 +5224,7 @@
         <v>1.359E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>501</v>
       </c>
@@ -5230,7 +5238,7 @@
         <v>1.4489999999999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>70</v>
       </c>
@@ -5244,7 +5252,7 @@
         <v>0.13633000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>71</v>
       </c>
@@ -5258,7 +5266,7 @@
         <v>0.20746000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>100</v>
       </c>
@@ -5272,7 +5280,7 @@
         <v>2.7890000000000002E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>101</v>
       </c>
@@ -5286,7 +5294,7 @@
         <v>2.665E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>211</v>
       </c>
@@ -5300,7 +5308,7 @@
         <v>1.5389999999999999E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>212</v>
       </c>
@@ -5314,7 +5322,7 @@
         <v>2.443E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>213</v>
       </c>
@@ -5328,7 +5336,7 @@
         <v>2.776E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>214</v>
       </c>
@@ -5342,7 +5350,7 @@
         <v>3.4750000000000003E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>215</v>
       </c>
@@ -5356,7 +5364,7 @@
         <v>7.2199999999999999E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>216</v>
       </c>
@@ -5370,7 +5378,7 @@
         <v>1.217E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>217</v>
       </c>
@@ -5384,7 +5392,7 @@
         <v>2.3939999999999999E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>218</v>
       </c>
@@ -5398,7 +5406,7 @@
         <v>2.1309999999999999E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>219</v>
       </c>
@@ -5412,7 +5420,7 @@
         <v>9.0100000000000006E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>220</v>
       </c>
@@ -5426,7 +5434,7 @@
         <v>1.048E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>221</v>
       </c>
@@ -5440,7 +5448,7 @@
         <v>2.6759999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>222</v>
       </c>
@@ -5454,7 +5462,7 @@
         <v>5.2740000000000002E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>223</v>
       </c>
@@ -5468,7 +5476,7 @@
         <v>1.1140000000000001E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>224</v>
       </c>
@@ -5482,7 +5490,7 @@
         <v>1.711E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>225</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>0.18048</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>226</v>
       </c>
@@ -5510,7 +5518,7 @@
         <v>0.19156999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>227</v>
       </c>
@@ -5524,7 +5532,7 @@
         <v>0.16854</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>228</v>
       </c>
@@ -5538,7 +5546,7 @@
         <v>0.21546000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>229</v>
       </c>
@@ -5552,7 +5560,7 @@
         <v>0.14233799999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>230</v>
       </c>
@@ -5566,7 +5574,7 @@
         <v>0.15511</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>231</v>
       </c>
@@ -5580,7 +5588,7 @@
         <v>0.16597999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>232</v>
       </c>
@@ -5594,7 +5602,7 @@
         <v>0.17818000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>233</v>
       </c>
@@ -5608,7 +5616,7 @@
         <v>0.12995000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>234</v>
       </c>
@@ -5622,7 +5630,7 @@
         <v>0.12299</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>45</v>
       </c>
@@ -5636,7 +5644,7 @@
         <v>0.20029</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>46</v>
       </c>
@@ -5650,7 +5658,7 @@
         <v>0.20497000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>235</v>
       </c>
@@ -5660,11 +5668,14 @@
       <c r="C262">
         <v>0.82399999999999995</v>
       </c>
+      <c r="D262">
+        <v>48.15</v>
+      </c>
       <c r="E262">
         <v>0.26221</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>236</v>
       </c>
@@ -5678,7 +5689,7 @@
         <v>0.33265</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>237</v>
       </c>
@@ -5692,7 +5703,7 @@
         <v>7.7869999999999995E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>238</v>
       </c>
@@ -5706,7 +5717,7 @@
         <v>8.473E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -5720,7 +5731,7 @@
         <v>0.13012000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -5734,7 +5745,7 @@
         <v>0.12167</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>43</v>
       </c>
@@ -5748,7 +5759,7 @@
         <v>5.3960000000000001E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>44</v>
       </c>
@@ -5762,7 +5773,7 @@
         <v>6.0049999999999999E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>239</v>
       </c>
@@ -5776,7 +5787,7 @@
         <v>0.20283999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>240</v>
       </c>
@@ -5790,7 +5801,7 @@
         <v>0.23113</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>51</v>
       </c>
@@ -5804,7 +5815,7 @@
         <v>6.4750000000000002E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>52</v>
       </c>
@@ -5818,7 +5829,7 @@
         <v>7.9189999999999997E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -5832,7 +5843,7 @@
         <v>0.16836000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -5846,7 +5857,7 @@
         <v>0.18905</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>241</v>
       </c>
@@ -5860,7 +5871,7 @@
         <v>0.10752</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>242</v>
       </c>
@@ -5874,7 +5885,7 @@
         <v>0.13123000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>243</v>
       </c>
@@ -5888,7 +5899,7 @@
         <v>0.12164999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>244</v>
       </c>
@@ -5902,7 +5913,7 @@
         <v>0.12797</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>245</v>
       </c>
@@ -5916,7 +5927,7 @@
         <v>0.10749</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>246</v>
       </c>
@@ -5930,7 +5941,7 @@
         <v>0.11749</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>21</v>
       </c>
@@ -5944,7 +5955,7 @@
         <v>7.0349999999999996E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -5958,7 +5969,7 @@
         <v>8.8690000000000005E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>247</v>
       </c>
@@ -5972,7 +5983,7 @@
         <v>0.11303000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>248</v>
       </c>
@@ -5986,7 +5997,7 @@
         <v>0.16241</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>249</v>
       </c>
@@ -6000,7 +6011,7 @@
         <v>0.13142999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>250</v>
       </c>
@@ -6014,7 +6025,7 @@
         <v>0.15171999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>255</v>
       </c>
@@ -6028,7 +6039,7 @@
         <v>0.19314000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>256</v>
       </c>
@@ -6042,7 +6053,7 @@
         <v>0.21287</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -6056,7 +6067,7 @@
         <v>4.6510000000000003E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -6070,7 +6081,7 @@
         <v>9.6140000000000003E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>237</v>
       </c>
@@ -6084,7 +6095,7 @@
         <v>8.5790000000000005E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>238</v>
       </c>
@@ -6098,7 +6109,7 @@
         <v>9.708E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>253</v>
       </c>
@@ -6112,7 +6123,7 @@
         <v>4.9880000000000001E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>254</v>
       </c>
@@ -6126,7 +6137,7 @@
         <v>0.10205</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>39</v>
       </c>
@@ -6140,7 +6151,7 @@
         <v>0.21104999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>40</v>
       </c>
@@ -6154,7 +6165,7 @@
         <v>0.24274999999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>147</v>
       </c>
@@ -6168,7 +6179,7 @@
         <v>0.16993</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>146</v>
       </c>
@@ -6182,7 +6193,7 @@
         <v>0.22594</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -6196,7 +6207,7 @@
         <v>9.9180000000000004E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -6210,7 +6221,7 @@
         <v>0.11792999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>13</v>
       </c>
@@ -6224,7 +6235,7 @@
         <v>7.7359999999999998E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>14</v>
       </c>
@@ -6238,7 +6249,7 @@
         <v>8.6169999999999997E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -6252,7 +6263,7 @@
         <v>0.38027</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -6266,7 +6277,7 @@
         <v>0.50056</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>257</v>
       </c>
@@ -6280,7 +6291,7 @@
         <v>0.16078000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>258</v>
       </c>
@@ -6294,7 +6305,7 @@
         <v>0.15690999999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>259</v>
       </c>
@@ -6308,7 +6319,7 @@
         <v>0.11326</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>260</v>
       </c>
@@ -6322,7 +6333,7 @@
         <v>0.19403000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>261</v>
       </c>
@@ -6336,7 +6347,7 @@
         <v>8.3919999999999995E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>262</v>
       </c>
@@ -6350,7 +6361,7 @@
         <v>0.16682</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>249</v>
       </c>
@@ -6364,7 +6375,7 @@
         <v>0.16425000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>250</v>
       </c>
@@ -6378,7 +6389,7 @@
         <v>0.19253000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>263</v>
       </c>
@@ -6392,7 +6403,7 @@
         <v>0.21471999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>263</v>
       </c>
@@ -6406,7 +6417,7 @@
         <v>0.22559000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>264</v>
       </c>
@@ -6420,7 +6431,7 @@
         <v>0.24129</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>265</v>
       </c>
@@ -6434,7 +6445,7 @@
         <v>0.29038999999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>155</v>
       </c>
@@ -6448,7 +6459,7 @@
         <v>9.5219999999999999E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>156</v>
       </c>
@@ -6462,7 +6473,7 @@
         <v>0.11946</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -6476,7 +6487,7 @@
         <v>7.3469999999999994E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -6490,7 +6501,7 @@
         <v>9.7290000000000001E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>266</v>
       </c>
@@ -6504,7 +6515,7 @@
         <v>0.1653</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>267</v>
       </c>
@@ -6518,7 +6529,7 @@
         <v>0.16245999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>268</v>
       </c>
@@ -6532,7 +6543,7 @@
         <v>0.18411</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>269</v>
       </c>
@@ -6546,7 +6557,7 @@
         <v>0.26217000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>270</v>
       </c>
@@ -6560,7 +6571,7 @@
         <v>0.18901000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>271</v>
       </c>
@@ -6574,7 +6585,7 @@
         <v>0.26006000000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>272</v>
       </c>
@@ -6588,7 +6599,7 @@
         <v>0.17186999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>273</v>
       </c>
@@ -6602,7 +6613,7 @@
         <v>0.22414999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>274</v>
       </c>
@@ -6616,7 +6627,7 @@
         <v>7.6259999999999994E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>275</v>
       </c>
@@ -6630,7 +6641,7 @@
         <v>0.10392</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>251</v>
       </c>
@@ -6644,7 +6655,7 @@
         <v>0.17796999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>252</v>
       </c>
@@ -6658,7 +6669,7 @@
         <v>0.18917</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>276</v>
       </c>
@@ -6672,7 +6683,7 @@
         <v>0.21475</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>277</v>
       </c>
@@ -6686,7 +6697,7 @@
         <v>0.21009</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>280</v>
       </c>
@@ -6700,7 +6711,7 @@
         <v>0.15278</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>279</v>
       </c>
@@ -6714,7 +6725,7 @@
         <v>0.24706</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>278</v>
       </c>
@@ -6728,7 +6739,7 @@
         <v>0.21939</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>281</v>
       </c>
@@ -6742,7 +6753,7 @@
         <v>0.17649000000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>245</v>
       </c>
@@ -6756,7 +6767,7 @@
         <v>0.19861000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>246</v>
       </c>
@@ -6770,7 +6781,7 @@
         <v>0.27407999999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>282</v>
       </c>
@@ -6784,7 +6795,7 @@
         <v>0.16891999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>283</v>
       </c>
@@ -6798,7 +6809,7 @@
         <v>0.25574999999999998</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>148</v>
       </c>
@@ -6812,7 +6823,7 @@
         <v>0.12425</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>149</v>
       </c>
@@ -6826,7 +6837,7 @@
         <v>0.13735</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>284</v>
       </c>
@@ -6840,7 +6851,7 @@
         <v>0.20055000000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>285</v>
       </c>
@@ -6854,7 +6865,7 @@
         <v>0.36786999999999997</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>259</v>
       </c>
@@ -6868,7 +6879,7 @@
         <v>0.15117</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>260</v>
       </c>
@@ -6882,7 +6893,7 @@
         <v>0.19486999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>183</v>
       </c>
@@ -6896,7 +6907,7 @@
         <v>1.129E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>184</v>
       </c>
@@ -6910,7 +6921,7 @@
         <v>1.0059999999999999E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>287</v>
       </c>
@@ -6924,7 +6935,7 @@
         <v>2.3109999999999999E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>286</v>
       </c>
@@ -6938,7 +6949,7 @@
         <v>2.0840000000000001E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>288</v>
       </c>
@@ -6952,7 +6963,7 @@
         <v>7.6400000000000001E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>289</v>
       </c>
@@ -6966,7 +6977,7 @@
         <v>1.8450000000000001E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>290</v>
       </c>
@@ -6980,7 +6991,7 @@
         <v>2.4539999999999999E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>291</v>
       </c>
@@ -6994,7 +7005,7 @@
         <v>3.057E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>116</v>
       </c>
@@ -7008,7 +7019,7 @@
         <v>1.221E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>117</v>
       </c>
@@ -7022,7 +7033,7 @@
         <v>1.375E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>292</v>
       </c>
@@ -7036,7 +7047,7 @@
         <v>1.251E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>293</v>
       </c>
@@ -7050,7 +7061,7 @@
         <v>1.7430000000000001E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>294</v>
       </c>
@@ -7064,7 +7075,7 @@
         <v>6.2100000000000002E-3</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>295</v>
       </c>
@@ -7078,7 +7089,7 @@
         <v>2.164E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>296</v>
       </c>
@@ -7092,7 +7103,7 @@
         <v>6.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>297</v>
       </c>
@@ -7106,7 +7117,7 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>298</v>
       </c>
@@ -7120,7 +7131,7 @@
         <v>2.5729999999999999E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>299</v>
       </c>
@@ -7134,7 +7145,7 @@
         <v>2.9080000000000002E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>300</v>
       </c>
@@ -7148,7 +7159,7 @@
         <v>2.6620000000000001E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>301</v>
       </c>
@@ -7162,7 +7173,7 @@
         <v>3.6679999999999997E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>302</v>
       </c>
@@ -7176,7 +7187,7 @@
         <v>1.9120000000000002E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>303</v>
       </c>
@@ -7190,7 +7201,7 @@
         <v>3.0759999999999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>132</v>
       </c>
@@ -7204,7 +7215,7 @@
         <v>0.12837999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>133</v>
       </c>
@@ -7218,7 +7229,7 @@
         <v>0.17587</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>128</v>
       </c>
@@ -7232,7 +7243,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>129</v>
       </c>
@@ -7246,7 +7257,7 @@
         <v>3.7039999999999997E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>498</v>
       </c>
@@ -7260,7 +7271,7 @@
         <v>1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>499</v>
       </c>
@@ -7274,7 +7285,7 @@
         <v>2.078E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>304</v>
       </c>
@@ -7288,7 +7299,7 @@
         <v>1.502E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>305</v>
       </c>
@@ -7302,7 +7313,7 @@
         <v>1.703E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>306</v>
       </c>
@@ -7316,7 +7327,7 @@
         <v>5.2650000000000002E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>307</v>
       </c>
@@ -7330,7 +7341,7 @@
         <v>7.6840000000000006E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>308</v>
       </c>
@@ -7344,7 +7355,7 @@
         <v>0.11239</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>309</v>
       </c>
@@ -7358,7 +7369,7 @@
         <v>0.13935</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>339</v>
       </c>
@@ -7372,7 +7383,7 @@
         <v>0.74761</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>340</v>
       </c>
@@ -7386,7 +7397,7 @@
         <v>0.59269000000000005</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>341</v>
       </c>
@@ -7400,7 +7411,7 @@
         <v>0.53007000000000004</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>342</v>
       </c>
@@ -7414,7 +7425,7 @@
         <v>0.59028000000000003</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>343</v>
       </c>
@@ -7428,7 +7439,7 @@
         <v>9.2850000000000002E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>344</v>
       </c>
@@ -7442,7 +7453,7 @@
         <v>0.22669</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>345</v>
       </c>
@@ -7456,7 +7467,7 @@
         <v>0.33617000000000002</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>346</v>
       </c>
@@ -7470,7 +7481,7 @@
         <v>0.71945999999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>347</v>
       </c>
@@ -7484,7 +7495,7 @@
         <v>5.8630000000000002E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>348</v>
       </c>
@@ -7498,7 +7509,7 @@
         <v>7.5149999999999995E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>350</v>
       </c>
@@ -7512,7 +7523,7 @@
         <v>0.30843999999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>349</v>
       </c>
@@ -7526,7 +7537,7 @@
         <v>0.16433</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>351</v>
       </c>
@@ -7540,7 +7551,7 @@
         <v>0.88275000000000003</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>352</v>
       </c>
@@ -7554,7 +7565,7 @@
         <v>0.83233999999999997</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>353</v>
       </c>
@@ -7568,7 +7579,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>354</v>
       </c>
@@ -7582,7 +7593,7 @@
         <v>0.14277000000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>355</v>
       </c>
@@ -7596,7 +7607,7 @@
         <v>0.11686000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>356</v>
       </c>
@@ -7610,7 +7621,7 @@
         <v>0.15851999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>358</v>
       </c>
@@ -7624,7 +7635,7 @@
         <v>0.54727000000000003</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>357</v>
       </c>
@@ -7638,7 +7649,7 @@
         <v>0.34809000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>359</v>
       </c>
@@ -7652,7 +7663,7 @@
         <v>0.23891000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>360</v>
       </c>
@@ -7666,7 +7677,7 @@
         <v>0.20846000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>361</v>
       </c>
@@ -7680,7 +7691,7 @@
         <v>0.15483</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>362</v>
       </c>
@@ -7694,7 +7705,7 @@
         <v>0.15245</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>363</v>
       </c>
@@ -7708,7 +7719,7 @@
         <v>7.6100000000000001E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>364</v>
       </c>
@@ -7722,7 +7733,7 @@
         <v>0.21229999999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>365</v>
       </c>
@@ -7736,7 +7747,7 @@
         <v>0.12684000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>366</v>
       </c>
@@ -7750,7 +7761,7 @@
         <v>0.16905999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>367</v>
       </c>
@@ -7764,7 +7775,7 @@
         <v>0.10462</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>368</v>
       </c>
@@ -7778,7 +7789,7 @@
         <v>0.17867</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>370</v>
       </c>
@@ -7792,7 +7803,7 @@
         <v>0.10596</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>369</v>
       </c>
@@ -7806,7 +7817,7 @@
         <v>0.15851000000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>371</v>
       </c>
@@ -7820,7 +7831,7 @@
         <v>0.11004</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>372</v>
       </c>
@@ -7834,7 +7845,7 @@
         <v>0.14535000000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>373</v>
       </c>
@@ -7848,7 +7859,7 @@
         <v>0.14208999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>374</v>
       </c>
@@ -7862,7 +7873,7 @@
         <v>0.20301</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>375</v>
       </c>
@@ -7876,7 +7887,7 @@
         <v>0.26718999999999998</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>376</v>
       </c>
@@ -7890,7 +7901,7 @@
         <v>0.14169000000000001</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>377</v>
       </c>
@@ -7904,7 +7915,7 @@
         <v>0.3669</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>378</v>
       </c>
@@ -7918,7 +7929,7 @@
         <v>0.45305000000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>379</v>
       </c>
@@ -7932,7 +7943,7 @@
         <v>0.12182</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>380</v>
       </c>
@@ -7946,7 +7957,7 @@
         <v>0.30096000000000001</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>381</v>
       </c>
@@ -7960,7 +7971,7 @@
         <v>0.11133999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>382</v>
       </c>
@@ -7974,7 +7985,7 @@
         <v>0.11206000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>383</v>
       </c>
@@ -7988,7 +7999,7 @@
         <v>0.70438000000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>384</v>
       </c>
@@ -8002,7 +8013,7 @@
         <v>0.73585999999999996</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>385</v>
       </c>
@@ -8016,7 +8027,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>386</v>
       </c>
@@ -8030,7 +8041,7 @@
         <v>7.7400000000000004E-3</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>387</v>
       </c>
@@ -8044,7 +8055,7 @@
         <v>7.7670000000000003E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>388</v>
       </c>
@@ -8058,7 +8069,7 @@
         <v>0.12288</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>389</v>
       </c>
@@ -8072,7 +8083,7 @@
         <v>0.95243999999999995</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>390</v>
       </c>
@@ -8086,7 +8097,7 @@
         <v>0.68959999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>391</v>
       </c>
@@ -8100,7 +8111,7 @@
         <v>1.1639999999999999E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>392</v>
       </c>
@@ -8114,7 +8125,7 @@
         <v>1.227E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>393</v>
       </c>
@@ -8128,7 +8139,7 @@
         <v>2.0289999999999999E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>394</v>
       </c>
@@ -8142,7 +8153,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>396</v>
       </c>
@@ -8156,7 +8167,7 @@
         <v>0.33276</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>395</v>
       </c>
@@ -8170,7 +8181,7 @@
         <v>0.22325</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>397</v>
       </c>
@@ -8184,7 +8195,7 @@
         <v>5.0200000000000002E-3</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>398</v>
       </c>
@@ -8198,7 +8209,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>399</v>
       </c>
@@ -8212,7 +8223,7 @@
         <v>0.50832999999999995</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>400</v>
       </c>
@@ -8226,7 +8237,7 @@
         <v>0.39215</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>401</v>
       </c>
@@ -8240,7 +8251,7 @@
         <v>7.1910000000000002E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>402</v>
       </c>
@@ -8254,7 +8265,7 @@
         <v>9.1469999999999996E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>403</v>
       </c>
@@ -8268,7 +8279,7 @@
         <v>9.4520000000000007E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>404</v>
       </c>
@@ -8282,7 +8293,7 @@
         <v>8.0629999999999993E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>405</v>
       </c>
@@ -8296,7 +8307,7 @@
         <v>7.2489999999999999E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>406</v>
       </c>
@@ -8310,7 +8321,7 @@
         <v>0.17904</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>407</v>
       </c>
@@ -8324,7 +8335,7 @@
         <v>0.92491000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>408</v>
       </c>
@@ -8338,7 +8349,7 @@
         <v>0.44506000000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>409</v>
       </c>
@@ -8352,7 +8363,7 @@
         <v>9.2520000000000005E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>410</v>
       </c>
@@ -8366,7 +8377,7 @@
         <v>0.14265</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>411</v>
       </c>
@@ -8380,7 +8391,7 @@
         <v>0.5645</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>412</v>
       </c>
@@ -8394,7 +8405,7 @@
         <v>0.45272000000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>413</v>
       </c>
@@ -8408,7 +8419,7 @@
         <v>0.67486999999999997</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>414</v>
       </c>
@@ -8422,7 +8433,7 @@
         <v>0.69494</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>415</v>
       </c>
@@ -8436,7 +8447,7 @@
         <v>7.9399999999999991E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>416</v>
       </c>
@@ -8450,7 +8461,7 @@
         <v>1.4189999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>417</v>
       </c>
@@ -8464,7 +8475,7 @@
         <v>9.0539999999999995E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>418</v>
       </c>
@@ -8478,7 +8489,7 @@
         <v>0.11568000000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>419</v>
       </c>
@@ -8492,7 +8503,7 @@
         <v>7.0749999999999993E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>420</v>
       </c>
@@ -8506,7 +8517,7 @@
         <v>9.536E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>365</v>
       </c>
@@ -8520,7 +8531,7 @@
         <v>9.3630000000000005E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>366</v>
       </c>
@@ -8534,7 +8545,7 @@
         <v>7.9619999999999996E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>358</v>
       </c>
@@ -8548,7 +8559,7 @@
         <v>0.10012</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>357</v>
       </c>
@@ -8562,7 +8573,7 @@
         <v>0.20394000000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>421</v>
       </c>
@@ -8576,7 +8587,7 @@
         <v>9.5740000000000006E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>422</v>
       </c>
@@ -8590,7 +8601,7 @@
         <v>0.15275</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>389</v>
       </c>
@@ -8604,7 +8615,7 @@
         <v>0.60009999999999997</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>390</v>
       </c>
@@ -8618,7 +8629,7 @@
         <v>0.79107000000000005</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>423</v>
       </c>
@@ -8632,7 +8643,7 @@
         <v>0.12734999999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>424</v>
       </c>
@@ -8646,7 +8657,7 @@
         <v>8.5120000000000001E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>383</v>
       </c>
@@ -8660,7 +8671,7 @@
         <v>0.65012000000000003</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>384</v>
       </c>
@@ -8674,7 +8685,7 @@
         <v>0.55066000000000004</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>425</v>
       </c>
@@ -8688,7 +8699,7 @@
         <v>0.20003000000000001</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>426</v>
       </c>
@@ -8702,7 +8713,7 @@
         <v>0.16546</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>427</v>
       </c>
@@ -8716,7 +8727,7 @@
         <v>0.25124000000000002</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>428</v>
       </c>
@@ -8730,7 +8741,7 @@
         <v>0.29086000000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>429</v>
       </c>
@@ -8744,7 +8755,7 @@
         <v>2.7519999999999999E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>430</v>
       </c>
@@ -8758,7 +8769,7 @@
         <v>9.8409999999999997E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>431</v>
       </c>
@@ -8772,7 +8783,7 @@
         <v>0.16825000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>432</v>
       </c>
@@ -8786,7 +8797,7 @@
         <v>0.14049</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>433</v>
       </c>
@@ -8800,7 +8811,7 @@
         <v>2.0879999999999999E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>434</v>
       </c>
@@ -8814,7 +8825,7 @@
         <v>4.7530000000000003E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>373</v>
       </c>
@@ -8828,7 +8839,7 @@
         <v>9.4070000000000001E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>374</v>
       </c>
@@ -8842,7 +8853,7 @@
         <v>0.12581000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>359</v>
       </c>
@@ -8856,7 +8867,7 @@
         <v>0.35615999999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>360</v>
       </c>
@@ -8870,7 +8881,7 @@
         <v>0.12377000000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>264</v>
       </c>
@@ -8884,7 +8895,7 @@
         <v>0.21784999999999999</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>265</v>
       </c>
@@ -8898,7 +8909,7 @@
         <v>0.19366</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>53</v>
       </c>
@@ -8912,7 +8923,7 @@
         <v>0.37059999999999998</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>54</v>
       </c>
@@ -8926,7 +8937,7 @@
         <v>0.41796</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>435</v>
       </c>
@@ -8940,7 +8951,7 @@
         <v>0.23003999999999999</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>436</v>
       </c>
@@ -8954,7 +8965,7 @@
         <v>0.27872000000000002</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>437</v>
       </c>
@@ -8968,7 +8979,7 @@
         <v>7.8700000000000006E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>438</v>
       </c>
@@ -8982,7 +8993,7 @@
         <v>1.7795999999999999E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>233</v>
       </c>
@@ -8996,7 +9007,7 @@
         <v>0.10882</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>234</v>
       </c>
@@ -9010,7 +9021,7 @@
         <v>0.16780999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -9024,7 +9035,7 @@
         <v>7.7229999999999993E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>8</v>
       </c>
@@ -9038,7 +9049,7 @@
         <v>0.25599</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>57</v>
       </c>
@@ -9052,7 +9063,7 @@
         <v>0.14387</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>58</v>
       </c>
@@ -9066,7 +9077,7 @@
         <v>0.13713</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>21</v>
       </c>
@@ -9080,7 +9091,7 @@
         <v>0.11133999999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>22</v>
       </c>
@@ -9090,11 +9101,14 @@
       <c r="C507">
         <v>0.42201</v>
       </c>
+      <c r="D507">
+        <v>25.34</v>
+      </c>
       <c r="E507">
         <v>0.12712999999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>439</v>
       </c>
@@ -9108,7 +9122,7 @@
         <v>5.7639999999999997E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>440</v>
       </c>
@@ -9122,7 +9136,7 @@
         <v>0.10647</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>41</v>
       </c>
@@ -9136,7 +9150,7 @@
         <v>0.13971</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>42</v>
       </c>
@@ -9150,7 +9164,7 @@
         <v>0.12268</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>120</v>
       </c>
@@ -9164,7 +9178,7 @@
         <v>0.13957</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>121</v>
       </c>
@@ -9178,7 +9192,7 @@
         <v>0.21601999999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>441</v>
       </c>
@@ -9192,7 +9206,7 @@
         <v>1.393E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>442</v>
       </c>
@@ -9206,7 +9220,7 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>65</v>
       </c>
@@ -9220,7 +9234,7 @@
         <v>0.11508</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>152</v>
       </c>
@@ -9234,7 +9248,7 @@
         <v>0.14351</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>443</v>
       </c>
@@ -9248,7 +9262,7 @@
         <v>1.422E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>444</v>
       </c>
@@ -9262,7 +9276,7 @@
         <v>1.5959999999999998E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>445</v>
       </c>
@@ -9276,7 +9290,7 @@
         <v>5.1399999999999996E-3</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>446</v>
       </c>
@@ -9290,7 +9304,7 @@
         <v>1.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>166</v>
       </c>
@@ -9304,7 +9318,7 @@
         <v>4.0140000000000002E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>167</v>
       </c>
@@ -9318,7 +9332,7 @@
         <v>5.2470000000000003E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>447</v>
       </c>
@@ -9332,7 +9346,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>448</v>
       </c>
@@ -9346,7 +9360,7 @@
         <v>9.3509999999999996E-2</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>449</v>
       </c>
@@ -9360,7 +9374,7 @@
         <v>1.635E-2</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>450</v>
       </c>
@@ -9374,7 +9388,7 @@
         <v>3.671E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>451</v>
       </c>
@@ -9388,7 +9402,7 @@
         <v>1.2019999999999999E-2</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>452</v>
       </c>
@@ -9402,7 +9416,7 @@
         <v>2.0104E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>161</v>
       </c>
@@ -9416,7 +9430,7 @@
         <v>0.19520999999999999</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>162</v>
       </c>
@@ -9430,7 +9444,7 @@
         <v>0.19378999999999999</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>453</v>
       </c>
@@ -9444,7 +9458,7 @@
         <v>1.9859999999999999E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>454</v>
       </c>
@@ -9458,7 +9472,7 @@
         <v>1.5709999999999998E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>455</v>
       </c>
@@ -9472,7 +9486,7 @@
         <v>8.5330000000000003E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>456</v>
       </c>
@@ -9486,7 +9500,7 @@
         <v>0.15762000000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>457</v>
       </c>
@@ -9500,7 +9514,7 @@
         <v>2.7629999999999998E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>458</v>
       </c>
@@ -9514,7 +9528,7 @@
         <v>2.615E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>459</v>
       </c>
@@ -9528,7 +9542,7 @@
         <v>0.24195</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>460</v>
       </c>
@@ -9542,7 +9556,7 @@
         <v>0.52241000000000004</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>461</v>
       </c>
@@ -9556,7 +9570,7 @@
         <v>0.28397</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>462</v>
       </c>
@@ -9570,7 +9584,7 @@
         <v>0.29221000000000003</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>463</v>
       </c>
@@ -9584,7 +9598,7 @@
         <v>0.13852</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>464</v>
       </c>
@@ -9598,7 +9612,7 @@
         <v>0.18271999999999999</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>465</v>
       </c>
@@ -9612,7 +9626,7 @@
         <v>0.13178000000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>466</v>
       </c>
@@ -9626,7 +9640,7 @@
         <v>0.20727000000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>467</v>
       </c>
@@ -9640,7 +9654,7 @@
         <v>0.18093000000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>468</v>
       </c>
@@ -9654,7 +9668,7 @@
         <v>0.16672000000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>235</v>
       </c>
@@ -9668,7 +9682,7 @@
         <v>0.22663</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>236</v>
       </c>
@@ -9682,7 +9696,7 @@
         <v>0.23086999999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>257</v>
       </c>
@@ -9696,7 +9710,7 @@
         <v>0.19159000000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>258</v>
       </c>
@@ -9710,7 +9724,7 @@
         <v>0.24112</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>29</v>
       </c>
@@ -9724,7 +9738,7 @@
         <v>0.12454999999999999</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>30</v>
       </c>
@@ -9738,7 +9752,7 @@
         <v>0.11626</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>469</v>
       </c>
@@ -9752,7 +9766,7 @@
         <v>0.19806000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>470</v>
       </c>
@@ -9766,7 +9780,7 @@
         <v>0.21532999999999999</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>471</v>
       </c>
@@ -9780,7 +9794,7 @@
         <v>0.15368000000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>472</v>
       </c>
@@ -9794,7 +9808,7 @@
         <v>0.20324</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>278</v>
       </c>
@@ -9808,7 +9822,7 @@
         <v>0.17163</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>281</v>
       </c>
@@ -9822,7 +9836,7 @@
         <v>0.19975000000000001</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>473</v>
       </c>
@@ -9836,7 +9850,7 @@
         <v>0.10730000000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>474</v>
       </c>
@@ -9850,7 +9864,7 @@
         <v>6.5460000000000004E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>255</v>
       </c>
@@ -9864,7 +9878,7 @@
         <v>0.15189</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>256</v>
       </c>
@@ -9878,7 +9892,7 @@
         <v>0.17909</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>259</v>
       </c>
@@ -9892,7 +9906,7 @@
         <v>8.4390000000000007E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>260</v>
       </c>
@@ -9906,7 +9920,7 @@
         <v>9.1340000000000005E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>475</v>
       </c>
@@ -9920,7 +9934,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>476</v>
       </c>
@@ -9934,7 +9948,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>473</v>
       </c>
@@ -9948,7 +9962,7 @@
         <v>8.8120000000000004E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>474</v>
       </c>
@@ -9962,7 +9976,7 @@
         <v>0.17559</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>263</v>
       </c>
@@ -9976,7 +9990,7 @@
         <v>0.21077000000000001</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>477</v>
       </c>
@@ -9990,7 +10004,7 @@
         <v>0.23976</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>478</v>
       </c>
@@ -10004,7 +10018,7 @@
         <v>0.10725</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>479</v>
       </c>
@@ -10018,7 +10032,7 @@
         <v>0.11244</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>270</v>
       </c>
@@ -10032,7 +10046,7 @@
         <v>0.23261000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>271</v>
       </c>
@@ -10046,7 +10060,7 @@
         <v>0.24279999999999999</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>147</v>
       </c>
@@ -10060,7 +10074,7 @@
         <v>0.23895</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>146</v>
       </c>
@@ -10074,7 +10088,7 @@
         <v>0.23094999999999999</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>480</v>
       </c>
@@ -10088,7 +10102,7 @@
         <v>0.10063999999999999</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>481</v>
       </c>
@@ -10102,7 +10116,7 @@
         <v>0.23146</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>4</v>
       </c>
@@ -10116,7 +10130,7 @@
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>5</v>
       </c>
@@ -10130,7 +10144,7 @@
         <v>0.12823999999999999</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>463</v>
       </c>
@@ -10144,7 +10158,7 @@
         <v>7.9119999999999996E-2</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>464</v>
       </c>
@@ -10158,7 +10172,7 @@
         <v>0.11219</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>482</v>
       </c>
@@ -10172,7 +10186,7 @@
         <v>1.7610000000000001E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>483</v>
       </c>
@@ -10186,7 +10200,7 @@
         <v>2.5579999999999999E-2</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>484</v>
       </c>
@@ -10200,7 +10214,7 @@
         <v>2.6040000000000001E-2</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>485</v>
       </c>
@@ -10214,7 +10228,7 @@
         <v>3.6850000000000001E-2</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>341</v>
       </c>
@@ -10228,7 +10242,7 @@
         <v>0.14152000000000001</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>342</v>
       </c>
@@ -10242,7 +10256,7 @@
         <v>7.825E-2</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>177</v>
       </c>
@@ -10256,7 +10270,7 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>178</v>
       </c>
@@ -10270,7 +10284,7 @@
         <v>5.0930000000000003E-2</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>487</v>
       </c>
@@ -10284,7 +10298,7 @@
         <v>0.14319999999999999</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>486</v>
       </c>
@@ -10298,7 +10312,7 @@
         <v>0.19453000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>488</v>
       </c>
@@ -10312,7 +10326,7 @@
         <v>8.6819999999999994E-2</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>489</v>
       </c>
@@ -10326,7 +10340,7 @@
         <v>0.10729</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>490</v>
       </c>
@@ -10340,7 +10354,7 @@
         <v>8.6970000000000006E-2</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>491</v>
       </c>
@@ -10354,7 +10368,7 @@
         <v>8.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>492</v>
       </c>
@@ -10368,7 +10382,7 @@
         <v>8.8209999999999997E-2</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>493</v>
       </c>
@@ -10382,7 +10396,7 @@
         <v>8.9380000000000001E-2</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>494</v>
       </c>
@@ -10396,7 +10410,7 @@
         <v>8.7870000000000004E-2</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>495</v>
       </c>
@@ -10410,7 +10424,7 @@
         <v>0.15916</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>306</v>
       </c>
@@ -10424,7 +10438,7 @@
         <v>9.8269999999999996E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>307</v>
       </c>
@@ -10438,7 +10452,7 @@
         <v>0.11771</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>496</v>
       </c>
@@ -10452,7 +10466,7 @@
         <v>1.5520000000000001E-2</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>497</v>
       </c>
@@ -10466,7 +10480,7 @@
         <v>1.6920000000000001E-2</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>365</v>
       </c>
@@ -10480,7 +10494,7 @@
         <v>2.0930000000000001E-2</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>366</v>
       </c>
@@ -10494,7 +10508,7 @@
         <v>2.639E-2</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>358</v>
       </c>
@@ -10508,7 +10522,7 @@
         <v>0.12214</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>357</v>
       </c>
@@ -10523,13 +10537,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F609">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F609" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -10541,16 +10549,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>310</v>
       </c>
@@ -10558,7 +10566,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>319</v>
       </c>
@@ -10566,7 +10574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>320</v>
       </c>
@@ -10574,7 +10582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>321</v>
       </c>
@@ -10582,7 +10590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>323</v>
       </c>
@@ -10590,7 +10598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>322</v>
       </c>
@@ -10598,7 +10606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>324</v>
       </c>
@@ -10606,7 +10614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>325</v>
       </c>
@@ -10614,7 +10622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>326</v>
       </c>
@@ -10622,7 +10630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>327</v>
       </c>
@@ -10630,7 +10638,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>328</v>
       </c>
@@ -10638,7 +10646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -10646,7 +10654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -10654,7 +10662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -10662,7 +10670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>332</v>
       </c>
@@ -10670,7 +10678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>333</v>
       </c>
@@ -10678,7 +10686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>334</v>
       </c>
@@ -10686,7 +10694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>335</v>
       </c>
@@ -10694,7 +10702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>336</v>
       </c>
@@ -10713,16 +10721,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>312</v>
       </c>
@@ -10730,12 +10738,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>314</v>
       </c>
@@ -10746,7 +10754,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -10754,7 +10762,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
